--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="20620" windowHeight="19660" tabRatio="990"/>
+    <workbookView xWindow="12320" yWindow="460" windowWidth="38400" windowHeight="19680" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,10 +107,10 @@
     <t>JPEG M1/No Optimization</t>
   </si>
   <si>
-    <t>1 GB /6.06 MB test images</t>
+    <t>1 GB /5.79 MB test images</t>
   </si>
   <si>
-    <t>1 GB/4.87 MB test images</t>
+    <t>1 GB/4.64 MB test images</t>
   </si>
 </sst>
 </file>
@@ -660,301 +660,301 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>0.0994571779096169</c:v>
+                  <c:v>0.0984734120130493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.219907177909617</c:v>
+                  <c:v>0.218923412013049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.340357177909617</c:v>
+                  <c:v>0.339373412013049</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.460807177909617</c:v>
+                  <c:v>0.459823412013049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.581257177909617</c:v>
+                  <c:v>0.580273412013049</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.701707177909617</c:v>
+                  <c:v>0.700723412013049</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.822157177909617</c:v>
+                  <c:v>0.821173412013049</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.942607177909617</c:v>
+                  <c:v>0.941623412013049</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.063057177909617</c:v>
+                  <c:v>1.062073412013049</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.183507177909617</c:v>
+                  <c:v>1.182523412013049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.303957177909617</c:v>
+                  <c:v>1.302973412013049</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.424407177909617</c:v>
+                  <c:v>1.423423412013049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.544857177909617</c:v>
+                  <c:v>1.543873412013049</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.665307177909617</c:v>
+                  <c:v>1.664323412013049</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.785757177909617</c:v>
+                  <c:v>1.784773412013049</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.906207177909617</c:v>
+                  <c:v>1.905223412013049</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.026657177909617</c:v>
+                  <c:v>2.025673412013049</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.147107177909616</c:v>
+                  <c:v>2.146123412013049</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.267557177909616</c:v>
+                  <c:v>2.266573412013049</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.388007177909617</c:v>
+                  <c:v>2.387023412013049</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.508457177909617</c:v>
+                  <c:v>2.507473412013049</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.628907177909617</c:v>
+                  <c:v>2.627923412013049</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.749357177909617</c:v>
+                  <c:v>2.74837341201305</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.869807177909617</c:v>
+                  <c:v>2.868823412013049</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.990257177909617</c:v>
+                  <c:v>2.98927341201305</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.110707177909617</c:v>
+                  <c:v>3.10972341201305</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.231157177909617</c:v>
+                  <c:v>3.23017341201305</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.351607177909617</c:v>
+                  <c:v>3.35062341201305</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.472057177909617</c:v>
+                  <c:v>3.47107341201305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.592507177909618</c:v>
+                  <c:v>3.59152341201305</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.712957177909617</c:v>
+                  <c:v>3.711973412013049</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.833407177909617</c:v>
+                  <c:v>3.832423412013049</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.953857177909617</c:v>
+                  <c:v>3.95287341201305</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.074307177909618</c:v>
+                  <c:v>4.07332341201305</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.194757177909617</c:v>
+                  <c:v>4.19377341201305</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.315207177909617</c:v>
+                  <c:v>4.31422341201305</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.435657177909617</c:v>
+                  <c:v>4.43467341201305</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.556107177909617</c:v>
+                  <c:v>4.55512341201305</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.676557177909617</c:v>
+                  <c:v>4.67557341201305</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.797007177909617</c:v>
+                  <c:v>4.79602341201305</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.917457177909617</c:v>
+                  <c:v>4.91647341201305</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.037907177909617</c:v>
+                  <c:v>5.03692341201305</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.158357177909618</c:v>
+                  <c:v>5.15737341201305</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.278807177909617</c:v>
+                  <c:v>5.27782341201305</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.399257177909617</c:v>
+                  <c:v>5.39827341201305</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.519707177909618</c:v>
+                  <c:v>5.51872341201305</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.640157177909617</c:v>
+                  <c:v>5.639173412013048</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.760607177909617</c:v>
+                  <c:v>5.759623412013048</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.881057177909618</c:v>
+                  <c:v>5.88007341201305</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.001507177909617</c:v>
+                  <c:v>6.000523412013048</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.121957177909617</c:v>
+                  <c:v>6.120973412013049</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.242407177909618</c:v>
+                  <c:v>6.24142341201305</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.362857177909617</c:v>
+                  <c:v>6.361873412013048</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.483307177909617</c:v>
+                  <c:v>6.48232341201305</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.603757177909617</c:v>
+                  <c:v>6.60277341201305</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.724207177909617</c:v>
+                  <c:v>6.723223412013048</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.844657177909617</c:v>
+                  <c:v>6.84367341201305</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.965107177909617</c:v>
+                  <c:v>6.96412341201305</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.085557177909617</c:v>
+                  <c:v>7.084573412013048</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.206007177909617</c:v>
+                  <c:v>7.20502341201305</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.326457177909617</c:v>
+                  <c:v>7.32547341201305</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.446907177909617</c:v>
+                  <c:v>7.445923412013048</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.567357177909617</c:v>
+                  <c:v>7.56637341201305</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.687807177909617</c:v>
+                  <c:v>7.686823412013048</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.808257177909617</c:v>
+                  <c:v>7.807273412013048</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.928707177909618</c:v>
+                  <c:v>7.927723412013048</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.049157177909616</c:v>
+                  <c:v>8.04817341201305</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.169607177909618</c:v>
+                  <c:v>8.16862341201305</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.290057177909616</c:v>
+                  <c:v>8.28907341201305</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.410507177909616</c:v>
+                  <c:v>8.40952341201305</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.530957177909618</c:v>
+                  <c:v>8.529973412013049</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.651407177909616</c:v>
+                  <c:v>8.65042341201305</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.771857177909616</c:v>
+                  <c:v>8.770873412013049</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.892307177909618</c:v>
+                  <c:v>8.891323412013049</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.012757177909616</c:v>
+                  <c:v>9.011773412013049</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.133207177909616</c:v>
+                  <c:v>9.132223412013049</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.253657177909618</c:v>
+                  <c:v>9.25267341201305</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.374107177909616</c:v>
+                  <c:v>9.37312341201305</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.494557177909618</c:v>
+                  <c:v>9.49357341201305</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.615007177909617</c:v>
+                  <c:v>9.614023412013049</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.735457177909616</c:v>
+                  <c:v>9.734473412013049</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.855907177909617</c:v>
+                  <c:v>9.854923412013048</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.976357177909617</c:v>
+                  <c:v>9.975373412013048</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10.09680717790962</c:v>
+                  <c:v>10.09582341201305</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>10.21725717790962</c:v>
+                  <c:v>10.21627341201305</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>10.33770717790962</c:v>
+                  <c:v>10.33672341201305</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>10.45815717790962</c:v>
+                  <c:v>10.45717341201305</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>10.57860717790962</c:v>
+                  <c:v>10.57762341201305</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10.69905717790962</c:v>
+                  <c:v>10.69807341201305</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10.81950717790962</c:v>
+                  <c:v>10.81852341201305</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10.93995717790962</c:v>
+                  <c:v>10.93897341201305</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>11.06040717790962</c:v>
+                  <c:v>11.05942341201305</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>11.18085717790962</c:v>
+                  <c:v>11.17987341201305</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>11.30130717790962</c:v>
+                  <c:v>11.30032341201305</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>11.42175717790962</c:v>
+                  <c:v>11.42077341201305</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>11.54220717790962</c:v>
+                  <c:v>11.54122341201305</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>11.66265717790962</c:v>
+                  <c:v>11.66167341201305</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>11.78310717790962</c:v>
+                  <c:v>11.78212341201305</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>11.90355717790962</c:v>
+                  <c:v>11.90257341201305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,301 +1342,301 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>-0.0681726741375522</c:v>
+                  <c:v>-0.0302740932642487</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0824873258624478</c:v>
+                  <c:v>0.124425906735751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.233147325862448</c:v>
+                  <c:v>0.279125906735751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.383807325862448</c:v>
+                  <c:v>0.433825906735751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.534467325862448</c:v>
+                  <c:v>0.588525906735751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.685127325862448</c:v>
+                  <c:v>0.743225906735751</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.835787325862448</c:v>
+                  <c:v>0.897925906735751</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.986447325862448</c:v>
+                  <c:v>1.052625906735751</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.137107325862448</c:v>
+                  <c:v>1.207325906735751</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.287767325862448</c:v>
+                  <c:v>1.362025906735751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.438427325862448</c:v>
+                  <c:v>1.516725906735751</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.589087325862448</c:v>
+                  <c:v>1.671425906735751</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.739747325862448</c:v>
+                  <c:v>1.826125906735751</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.890407325862448</c:v>
+                  <c:v>1.980825906735751</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.041067325862448</c:v>
+                  <c:v>2.135525906735751</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.191727325862447</c:v>
+                  <c:v>2.290225906735751</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.342387325862447</c:v>
+                  <c:v>2.444925906735751</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.493047325862447</c:v>
+                  <c:v>2.599625906735751</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.643707325862447</c:v>
+                  <c:v>2.754325906735751</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.794367325862447</c:v>
+                  <c:v>2.909025906735752</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.945027325862447</c:v>
+                  <c:v>3.063725906735751</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.095687325862448</c:v>
+                  <c:v>3.218425906735752</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.246347325862447</c:v>
+                  <c:v>3.373125906735751</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.397007325862447</c:v>
+                  <c:v>3.527825906735751</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.547667325862447</c:v>
+                  <c:v>3.682525906735751</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.698327325862447</c:v>
+                  <c:v>3.837225906735751</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.848987325862447</c:v>
+                  <c:v>3.991925906735751</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.999647325862447</c:v>
+                  <c:v>4.146625906735752</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.150307325862448</c:v>
+                  <c:v>4.301325906735752</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.300967325862447</c:v>
+                  <c:v>4.456025906735752</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.451627325862447</c:v>
+                  <c:v>4.610725906735751</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.602287325862448</c:v>
+                  <c:v>4.765425906735752</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.752947325862447</c:v>
+                  <c:v>4.920125906735751</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.903607325862447</c:v>
+                  <c:v>5.074825906735751</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.054267325862447</c:v>
+                  <c:v>5.229525906735752</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.204927325862448</c:v>
+                  <c:v>5.384225906735751</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.355587325862448</c:v>
+                  <c:v>5.538925906735751</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.506247325862447</c:v>
+                  <c:v>5.693625906735751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.656907325862447</c:v>
+                  <c:v>5.848325906735751</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.807567325862448</c:v>
+                  <c:v>6.003025906735752</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.958227325862447</c:v>
+                  <c:v>6.157725906735751</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.108887325862447</c:v>
+                  <c:v>6.312425906735751</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.259547325862447</c:v>
+                  <c:v>6.467125906735752</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.410207325862447</c:v>
+                  <c:v>6.621825906735752</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.560867325862447</c:v>
+                  <c:v>6.776525906735751</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.711527325862447</c:v>
+                  <c:v>6.931225906735751</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.862187325862448</c:v>
+                  <c:v>7.085925906735752</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.012847325862447</c:v>
+                  <c:v>7.240625906735752</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.163507325862447</c:v>
+                  <c:v>7.395325906735751</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.314167325862448</c:v>
+                  <c:v>7.550025906735751</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.464827325862448</c:v>
+                  <c:v>7.704725906735751</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.615487325862447</c:v>
+                  <c:v>7.859425906735752</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.766147325862447</c:v>
+                  <c:v>8.014125906735751</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.916807325862447</c:v>
+                  <c:v>8.168825906735751</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.067467325862446</c:v>
+                  <c:v>8.323525906735751</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.218127325862447</c:v>
+                  <c:v>8.478225906735751</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.368787325862447</c:v>
+                  <c:v>8.632925906735751</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.519447325862447</c:v>
+                  <c:v>8.787625906735752</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.670107325862446</c:v>
+                  <c:v>8.942325906735752</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.820767325862446</c:v>
+                  <c:v>9.097025906735752</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.971427325862446</c:v>
+                  <c:v>9.251725906735752</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.122087325862446</c:v>
+                  <c:v>9.406425906735751</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.272747325862447</c:v>
+                  <c:v>9.561125906735752</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.423407325862447</c:v>
+                  <c:v>9.715825906735752</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.574067325862447</c:v>
+                  <c:v>9.870525906735751</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.724727325862446</c:v>
+                  <c:v>10.02522590673575</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.875387325862446</c:v>
+                  <c:v>10.17992590673575</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10.02604732586245</c:v>
+                  <c:v>10.33462590673575</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.17670732586245</c:v>
+                  <c:v>10.48932590673575</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.32736732586245</c:v>
+                  <c:v>10.64402590673575</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.47802732586245</c:v>
+                  <c:v>10.79872590673575</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.62868732586245</c:v>
+                  <c:v>10.95342590673575</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10.77934732586245</c:v>
+                  <c:v>11.10812590673575</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10.93000732586245</c:v>
+                  <c:v>11.26282590673575</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>11.08066732586245</c:v>
+                  <c:v>11.41752590673575</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11.23132732586245</c:v>
+                  <c:v>11.57222590673575</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>11.38198732586245</c:v>
+                  <c:v>11.72692590673575</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>11.53264732586245</c:v>
+                  <c:v>11.88162590673575</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.68330732586245</c:v>
+                  <c:v>12.03632590673575</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>11.83396732586245</c:v>
+                  <c:v>12.19102590673575</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11.98462732586245</c:v>
+                  <c:v>12.34572590673575</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>12.13528732586245</c:v>
+                  <c:v>12.50042590673575</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12.28594732586245</c:v>
+                  <c:v>12.65512590673575</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12.43660732586245</c:v>
+                  <c:v>12.80982590673575</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12.58726732586245</c:v>
+                  <c:v>12.96452590673575</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12.73792732586245</c:v>
+                  <c:v>13.11922590673575</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>12.88858732586245</c:v>
+                  <c:v>13.27392590673575</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>13.03924732586245</c:v>
+                  <c:v>13.42862590673575</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.18990732586245</c:v>
+                  <c:v>13.58332590673575</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>13.34056732586245</c:v>
+                  <c:v>13.73802590673575</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.49122732586245</c:v>
+                  <c:v>13.89272590673575</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>13.64188732586245</c:v>
+                  <c:v>14.04742590673575</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13.79254732586245</c:v>
+                  <c:v>14.20212590673575</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>13.94320732586245</c:v>
+                  <c:v>14.35682590673575</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>14.09386732586245</c:v>
+                  <c:v>14.51152590673575</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>14.24452732586245</c:v>
+                  <c:v>14.66622590673575</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>14.39518732586245</c:v>
+                  <c:v>14.82092590673575</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>14.54584732586245</c:v>
+                  <c:v>14.97562590673575</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>14.69650732586245</c:v>
+                  <c:v>15.13032590673575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,301 +2024,301 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>-0.249912873361166</c:v>
+                  <c:v>-0.207912454423335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.0882328733611661</c:v>
+                  <c:v>-0.0417124544233353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0734471266388339</c:v>
+                  <c:v>0.124487545576665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.235127126638834</c:v>
+                  <c:v>0.290687545576665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.396807126638834</c:v>
+                  <c:v>0.456887545576665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.558487126638834</c:v>
+                  <c:v>0.623087545576665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.720167126638834</c:v>
+                  <c:v>0.789287545576665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.881847126638834</c:v>
+                  <c:v>0.955487545576665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.043527126638834</c:v>
+                  <c:v>1.121687545576665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.205207126638834</c:v>
+                  <c:v>1.287887545576665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.366887126638834</c:v>
+                  <c:v>1.454087545576665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.528567126638834</c:v>
+                  <c:v>1.620287545576665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.690247126638834</c:v>
+                  <c:v>1.786487545576664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.851927126638833</c:v>
+                  <c:v>1.952687545576665</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.013607126638834</c:v>
+                  <c:v>2.118887545576665</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.175287126638834</c:v>
+                  <c:v>2.285087545576664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.336967126638834</c:v>
+                  <c:v>2.451287545576664</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.498647126638834</c:v>
+                  <c:v>2.617487545576664</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.660327126638834</c:v>
+                  <c:v>2.783687545576664</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.822007126638833</c:v>
+                  <c:v>2.949887545576664</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.983687126638833</c:v>
+                  <c:v>3.116087545576664</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.145367126638833</c:v>
+                  <c:v>3.282287545576664</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.307047126638833</c:v>
+                  <c:v>3.448487545576664</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.468727126638833</c:v>
+                  <c:v>3.614687545576664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.630407126638833</c:v>
+                  <c:v>3.780887545576664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.792087126638834</c:v>
+                  <c:v>3.947087545576664</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.953767126638834</c:v>
+                  <c:v>4.113287545576664</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.115447126638833</c:v>
+                  <c:v>4.279487545576664</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.277127126638834</c:v>
+                  <c:v>4.445687545576664</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.438807126638833</c:v>
+                  <c:v>4.611887545576665</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.600487126638834</c:v>
+                  <c:v>4.778087545576664</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.762167126638833</c:v>
+                  <c:v>4.944287545576664</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.923847126638834</c:v>
+                  <c:v>5.110487545576664</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.085527126638834</c:v>
+                  <c:v>5.276687545576663</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.247207126638834</c:v>
+                  <c:v>5.442887545576664</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.408887126638834</c:v>
+                  <c:v>5.609087545576663</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.570567126638834</c:v>
+                  <c:v>5.775287545576663</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.732247126638834</c:v>
+                  <c:v>5.941487545576664</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.893927126638833</c:v>
+                  <c:v>6.107687545576664</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.055607126638834</c:v>
+                  <c:v>6.273887545576664</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.217287126638833</c:v>
+                  <c:v>6.440087545576664</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.378967126638834</c:v>
+                  <c:v>6.606287545576664</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.540647126638833</c:v>
+                  <c:v>6.772487545576664</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.702327126638834</c:v>
+                  <c:v>6.938687545576664</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.864007126638834</c:v>
+                  <c:v>7.104887545576664</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.025687126638834</c:v>
+                  <c:v>7.271087545576664</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.187367126638834</c:v>
+                  <c:v>7.437287545576664</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.349047126638834</c:v>
+                  <c:v>7.603487545576664</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.510727126638834</c:v>
+                  <c:v>7.769687545576663</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.672407126638834</c:v>
+                  <c:v>7.935887545576663</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.834087126638834</c:v>
+                  <c:v>8.102087545576663</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.995767126638834</c:v>
+                  <c:v>8.268287545576663</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.157447126638833</c:v>
+                  <c:v>8.434487545576663</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.319127126638834</c:v>
+                  <c:v>8.600687545576663</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.480807126638833</c:v>
+                  <c:v>8.766887545576663</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.642487126638833</c:v>
+                  <c:v>8.933087545576663</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.804167126638834</c:v>
+                  <c:v>9.099287545576663</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.965847126638832</c:v>
+                  <c:v>9.26548754557666</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.127527126638833</c:v>
+                  <c:v>9.431687545576663</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.289207126638834</c:v>
+                  <c:v>9.597887545576662</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.450887126638834</c:v>
+                  <c:v>9.764087545576664</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.612567126638833</c:v>
+                  <c:v>9.930287545576662</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.774247126638833</c:v>
+                  <c:v>10.09648754557666</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.935927126638834</c:v>
+                  <c:v>10.26268754557666</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.09760712663883</c:v>
+                  <c:v>10.42888754557666</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.25928712663883</c:v>
+                  <c:v>10.59508754557666</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10.42096712663883</c:v>
+                  <c:v>10.76128754557667</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10.58264712663883</c:v>
+                  <c:v>10.92748754557666</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.74432712663883</c:v>
+                  <c:v>11.09368754557667</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.90600712663883</c:v>
+                  <c:v>11.25988754557666</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>11.06768712663883</c:v>
+                  <c:v>11.42608754557667</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>11.22936712663883</c:v>
+                  <c:v>11.59228754557666</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>11.39104712663883</c:v>
+                  <c:v>11.75848754557667</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>11.55272712663883</c:v>
+                  <c:v>11.92468754557667</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>11.71440712663883</c:v>
+                  <c:v>12.09088754557667</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11.87608712663883</c:v>
+                  <c:v>12.25708754557666</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.03776712663883</c:v>
+                  <c:v>12.42328754557666</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12.19944712663883</c:v>
+                  <c:v>12.58948754557666</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>12.36112712663883</c:v>
+                  <c:v>12.75568754557666</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12.52280712663883</c:v>
+                  <c:v>12.92188754557666</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.68448712663883</c:v>
+                  <c:v>13.08808754557666</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>12.84616712663883</c:v>
+                  <c:v>13.25428754557666</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>13.00784712663883</c:v>
+                  <c:v>13.42048754557666</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>13.16952712663883</c:v>
+                  <c:v>13.58668754557666</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13.33120712663883</c:v>
+                  <c:v>13.75288754557666</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>13.49288712663883</c:v>
+                  <c:v>13.91908754557667</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13.65456712663883</c:v>
+                  <c:v>14.08528754557666</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>13.81624712663883</c:v>
+                  <c:v>14.25148754557667</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.97792712663883</c:v>
+                  <c:v>14.41768754557666</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>14.13960712663883</c:v>
+                  <c:v>14.58388754557667</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>14.30128712663883</c:v>
+                  <c:v>14.75008754557666</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.46296712663883</c:v>
+                  <c:v>14.91628754557667</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.62464712663883</c:v>
+                  <c:v>15.08248754557666</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>14.78632712663883</c:v>
+                  <c:v>15.24868754557667</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>14.94800712663883</c:v>
+                  <c:v>15.41488754557666</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>15.10968712663883</c:v>
+                  <c:v>15.58108754557666</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>15.27136712663883</c:v>
+                  <c:v>15.74728754557666</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>15.43304712663883</c:v>
+                  <c:v>15.91348754557666</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>15.59472712663883</c:v>
+                  <c:v>16.07968754557666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2706,301 +2706,301 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>-1.289695098513147</c:v>
+                  <c:v>-0.810589579735175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.123255098513147</c:v>
+                  <c:v>-0.639889579735175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.956815098513147</c:v>
+                  <c:v>-0.469189579735175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.790375098513147</c:v>
+                  <c:v>-0.298489579735175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.623935098513147</c:v>
+                  <c:v>-0.127789579735175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.457495098513147</c:v>
+                  <c:v>0.0429104202648244</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.291055098513147</c:v>
+                  <c:v>0.213610420264825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.124615098513147</c:v>
+                  <c:v>0.384310420264825</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0418249014868527</c:v>
+                  <c:v>0.555010420264824</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.208264901486853</c:v>
+                  <c:v>0.725710420264824</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.374704901486853</c:v>
+                  <c:v>0.896410420264824</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.541144901486853</c:v>
+                  <c:v>1.067110420264824</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.707584901486853</c:v>
+                  <c:v>1.237810420264825</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.874024901486853</c:v>
+                  <c:v>1.408510420264824</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.040464901486853</c:v>
+                  <c:v>1.579210420264825</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.206904901486853</c:v>
+                  <c:v>1.749910420264824</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.373344901486853</c:v>
+                  <c:v>1.920610420264825</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.539784901486853</c:v>
+                  <c:v>2.091310420264824</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.706224901486853</c:v>
+                  <c:v>2.262010420264824</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.872664901486853</c:v>
+                  <c:v>2.432710420264824</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.039104901486853</c:v>
+                  <c:v>2.603410420264824</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.205544901486853</c:v>
+                  <c:v>2.774110420264824</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.371984901486853</c:v>
+                  <c:v>2.944810420264824</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.538424901486853</c:v>
+                  <c:v>3.115510420264824</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.704864901486853</c:v>
+                  <c:v>3.286210420264824</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.871304901486853</c:v>
+                  <c:v>3.456910420264825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.037744901486854</c:v>
+                  <c:v>3.627610420264824</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.204184901486853</c:v>
+                  <c:v>3.798310420264824</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.370624901486853</c:v>
+                  <c:v>3.969010420264824</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.537064901486852</c:v>
+                  <c:v>4.139710420264824</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.703504901486853</c:v>
+                  <c:v>4.310410420264824</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.869944901486854</c:v>
+                  <c:v>4.481110420264823</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.036384901486854</c:v>
+                  <c:v>4.651810420264824</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.202824901486854</c:v>
+                  <c:v>4.822510420264824</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.369264901486852</c:v>
+                  <c:v>4.993210420264823</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.535704901486853</c:v>
+                  <c:v>5.163910420264824</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.702144901486853</c:v>
+                  <c:v>5.334610420264823</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.868584901486852</c:v>
+                  <c:v>5.505310420264823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.035024901486853</c:v>
+                  <c:v>5.676010420264824</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.201464901486853</c:v>
+                  <c:v>5.846710420264823</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.367904901486853</c:v>
+                  <c:v>6.017410420264824</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.534344901486853</c:v>
+                  <c:v>6.188110420264824</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.700784901486853</c:v>
+                  <c:v>6.358810420264824</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.867224901486853</c:v>
+                  <c:v>6.529510420264824</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.033664901486853</c:v>
+                  <c:v>6.700210420264823</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.200104901486854</c:v>
+                  <c:v>6.870910420264823</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.366544901486853</c:v>
+                  <c:v>7.041610420264824</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.532984901486853</c:v>
+                  <c:v>7.212310420264823</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.699424901486854</c:v>
+                  <c:v>7.383010420264823</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.865864901486853</c:v>
+                  <c:v>7.553710420264824</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.032304901486854</c:v>
+                  <c:v>7.724410420264824</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.198744901486854</c:v>
+                  <c:v>7.895110420264824</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.365184901486853</c:v>
+                  <c:v>8.065810420264823</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.531624901486854</c:v>
+                  <c:v>8.236510420264825</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.698064901486854</c:v>
+                  <c:v>8.407210420264823</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.864504901486854</c:v>
+                  <c:v>8.577910420264823</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.030944901486853</c:v>
+                  <c:v>8.748610420264823</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.197384901486853</c:v>
+                  <c:v>8.919310420264823</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.363824901486852</c:v>
+                  <c:v>9.090010420264825</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.530264901486852</c:v>
+                  <c:v>9.260710420264825</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.696704901486853</c:v>
+                  <c:v>9.431410420264823</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.863144901486855</c:v>
+                  <c:v>9.602110420264823</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.029584901486854</c:v>
+                  <c:v>9.772810420264824</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.196024901486854</c:v>
+                  <c:v>9.943510420264824</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.362464901486854</c:v>
+                  <c:v>10.11421042026482</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.528904901486854</c:v>
+                  <c:v>10.28491042026482</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.695344901486855</c:v>
+                  <c:v>10.45561042026482</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.861784901486854</c:v>
+                  <c:v>10.62631042026482</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.02822490148685</c:v>
+                  <c:v>10.79701042026482</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.19466490148685</c:v>
+                  <c:v>10.96771042026482</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.36110490148685</c:v>
+                  <c:v>11.13841042026482</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.52754490148685</c:v>
+                  <c:v>11.30911042026482</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10.69398490148685</c:v>
+                  <c:v>11.47981042026482</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10.86042490148685</c:v>
+                  <c:v>11.65051042026482</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>11.02686490148685</c:v>
+                  <c:v>11.82121042026482</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11.19330490148685</c:v>
+                  <c:v>11.99191042026482</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>11.35974490148685</c:v>
+                  <c:v>12.16261042026482</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>11.52618490148685</c:v>
+                  <c:v>12.33331042026482</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.69262490148685</c:v>
+                  <c:v>12.50401042026482</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>11.85906490148685</c:v>
+                  <c:v>12.67471042026482</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.02550490148685</c:v>
+                  <c:v>12.84541042026482</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>12.19194490148685</c:v>
+                  <c:v>13.01611042026483</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12.35838490148685</c:v>
+                  <c:v>13.18681042026482</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12.52482490148685</c:v>
+                  <c:v>13.35751042026482</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12.69126490148685</c:v>
+                  <c:v>13.52821042026482</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12.85770490148685</c:v>
+                  <c:v>13.69891042026482</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13.02414490148685</c:v>
+                  <c:v>13.86961042026482</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>13.19058490148685</c:v>
+                  <c:v>14.04031042026482</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.35702490148685</c:v>
+                  <c:v>14.21101042026482</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>13.52346490148685</c:v>
+                  <c:v>14.38171042026482</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.68990490148685</c:v>
+                  <c:v>14.55241042026482</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>13.85634490148685</c:v>
+                  <c:v>14.72311042026482</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.02278490148685</c:v>
+                  <c:v>14.89381042026482</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>14.18922490148685</c:v>
+                  <c:v>15.06451042026482</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>14.35566490148685</c:v>
+                  <c:v>15.23521042026482</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>14.52210490148685</c:v>
+                  <c:v>15.40591042026482</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>14.68854490148685</c:v>
+                  <c:v>15.57661042026482</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>14.85498490148685</c:v>
+                  <c:v>15.74731042026482</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>15.02142490148685</c:v>
+                  <c:v>15.91801042026482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3388,301 +3388,301 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>0.0886405452886151</c:v>
+                  <c:v>0.0884013409961686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.182610545288615</c:v>
+                  <c:v>0.182401340996169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.276580545288615</c:v>
+                  <c:v>0.276401340996169</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.370550545288615</c:v>
+                  <c:v>0.370401340996169</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.464520545288615</c:v>
+                  <c:v>0.464401340996168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.558490545288615</c:v>
+                  <c:v>0.558401340996169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.652460545288615</c:v>
+                  <c:v>0.652401340996168</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.746430545288615</c:v>
+                  <c:v>0.746401340996169</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.840400545288615</c:v>
+                  <c:v>0.840401340996168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.934370545288615</c:v>
+                  <c:v>0.934401340996169</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.028340545288615</c:v>
+                  <c:v>1.028401340996169</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.122310545288615</c:v>
+                  <c:v>1.122401340996169</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.216280545288615</c:v>
+                  <c:v>1.216401340996168</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.310250545288615</c:v>
+                  <c:v>1.310401340996169</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.404220545288615</c:v>
+                  <c:v>1.404401340996169</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.498190545288615</c:v>
+                  <c:v>1.498401340996169</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.592160545288615</c:v>
+                  <c:v>1.592401340996169</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.686130545288615</c:v>
+                  <c:v>1.686401340996169</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.780100545288615</c:v>
+                  <c:v>1.780401340996168</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.874070545288615</c:v>
+                  <c:v>1.874401340996169</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.968040545288615</c:v>
+                  <c:v>1.968401340996169</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.062010545288615</c:v>
+                  <c:v>2.062401340996169</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.155980545288615</c:v>
+                  <c:v>2.156401340996168</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.249950545288615</c:v>
+                  <c:v>2.250401340996169</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.343920545288615</c:v>
+                  <c:v>2.344401340996169</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.437890545288615</c:v>
+                  <c:v>2.438401340996169</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.531860545288615</c:v>
+                  <c:v>2.532401340996169</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.625830545288615</c:v>
+                  <c:v>2.626401340996168</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.719800545288615</c:v>
+                  <c:v>2.720401340996168</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.813770545288615</c:v>
+                  <c:v>2.814401340996168</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.907740545288616</c:v>
+                  <c:v>2.908401340996168</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.001710545288615</c:v>
+                  <c:v>3.002401340996169</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.095680545288615</c:v>
+                  <c:v>3.096401340996168</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.189650545288615</c:v>
+                  <c:v>3.190401340996169</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.283620545288615</c:v>
+                  <c:v>3.284401340996168</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.377590545288615</c:v>
+                  <c:v>3.378401340996168</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.471560545288615</c:v>
+                  <c:v>3.472401340996169</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.565530545288615</c:v>
+                  <c:v>3.566401340996168</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.659500545288615</c:v>
+                  <c:v>3.660401340996168</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.753470545288615</c:v>
+                  <c:v>3.754401340996168</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.847440545288615</c:v>
+                  <c:v>3.848401340996168</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.941410545288615</c:v>
+                  <c:v>3.942401340996168</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.035380545288615</c:v>
+                  <c:v>4.036401340996167</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.129350545288616</c:v>
+                  <c:v>4.13040134099617</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.223320545288615</c:v>
+                  <c:v>4.224401340996168</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.317290545288615</c:v>
+                  <c:v>4.318401340996168</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.411260545288615</c:v>
+                  <c:v>4.412401340996168</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.505230545288615</c:v>
+                  <c:v>4.506401340996168</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.599200545288614</c:v>
+                  <c:v>4.600401340996169</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.693170545288614</c:v>
+                  <c:v>4.694401340996168</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.787140545288615</c:v>
+                  <c:v>4.788401340996168</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.881110545288616</c:v>
+                  <c:v>4.882401340996169</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.975080545288615</c:v>
+                  <c:v>4.976401340996168</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.069050545288615</c:v>
+                  <c:v>5.070401340996168</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.163020545288615</c:v>
+                  <c:v>5.164401340996169</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.256990545288614</c:v>
+                  <c:v>5.25840134099617</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.350960545288615</c:v>
+                  <c:v>5.352401340996169</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.444930545288615</c:v>
+                  <c:v>5.44640134099617</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.538900545288615</c:v>
+                  <c:v>5.54040134099617</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.632870545288614</c:v>
+                  <c:v>5.634401340996169</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.726840545288614</c:v>
+                  <c:v>5.728401340996169</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.820810545288615</c:v>
+                  <c:v>5.822401340996168</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.914780545288615</c:v>
+                  <c:v>5.91640134099617</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.008750545288615</c:v>
+                  <c:v>6.010401340996169</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.102720545288614</c:v>
+                  <c:v>6.104401340996169</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.196690545288614</c:v>
+                  <c:v>6.198401340996169</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.290660545288614</c:v>
+                  <c:v>6.292401340996168</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.384630545288615</c:v>
+                  <c:v>6.38640134099617</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.478600545288615</c:v>
+                  <c:v>6.48040134099617</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.572570545288614</c:v>
+                  <c:v>6.57440134099617</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.666540545288615</c:v>
+                  <c:v>6.668401340996168</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.760510545288614</c:v>
+                  <c:v>6.762401340996169</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.854480545288615</c:v>
+                  <c:v>6.856401340996169</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.948450545288614</c:v>
+                  <c:v>6.95040134099617</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.042420545288614</c:v>
+                  <c:v>7.044401340996169</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.136390545288614</c:v>
+                  <c:v>7.13840134099617</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.230360545288614</c:v>
+                  <c:v>7.232401340996168</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.324330545288615</c:v>
+                  <c:v>7.32640134099617</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.418300545288614</c:v>
+                  <c:v>7.42040134099617</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.512270545288614</c:v>
+                  <c:v>7.514401340996169</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.606240545288614</c:v>
+                  <c:v>7.608401340996169</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7.700210545288614</c:v>
+                  <c:v>7.702401340996168</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.794180545288615</c:v>
+                  <c:v>7.79640134099617</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.888150545288614</c:v>
+                  <c:v>7.890401340996169</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7.982120545288614</c:v>
+                  <c:v>7.98440134099617</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.076090545288614</c:v>
+                  <c:v>8.078401340996169</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.170060545288613</c:v>
+                  <c:v>8.172401340996168</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.264030545288614</c:v>
+                  <c:v>8.26640134099617</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.358000545288614</c:v>
+                  <c:v>8.36040134099617</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.451970545288615</c:v>
+                  <c:v>8.454401340996168</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.545940545288614</c:v>
+                  <c:v>8.548401340996168</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.639910545288614</c:v>
+                  <c:v>8.642401340996168</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.733880545288613</c:v>
+                  <c:v>8.736401340996169</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.827850545288613</c:v>
+                  <c:v>8.830401340996168</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.921820545288614</c:v>
+                  <c:v>8.92440134099617</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.015790545288615</c:v>
+                  <c:v>9.018401340996169</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.109760545288615</c:v>
+                  <c:v>9.112401340996168</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.203730545288614</c:v>
+                  <c:v>9.20640134099617</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.297700545288614</c:v>
+                  <c:v>9.300401340996168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3708,11 +3708,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="2098934288"/>
-        <c:axId val="2098948704"/>
+        <c:axId val="2082777632"/>
+        <c:axId val="2082782864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2098934288"/>
+        <c:axId val="2082777632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3788,7 +3788,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098948704"/>
+        <c:crossAx val="2082782864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3796,7 +3796,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098948704"/>
+        <c:axId val="2082782864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3884,7 +3884,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098934288"/>
+        <c:crossAx val="2082777632"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4261,7 +4261,7 @@
   <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4330,47 +4330,47 @@
         <v>0.12045</v>
       </c>
       <c r="D3">
-        <f>16.378</f>
-        <v>16.378</v>
+        <f>16.36</f>
+        <v>16.36</v>
       </c>
       <c r="E3">
-        <f>0.15066</f>
-        <v>0.15065999999999999</v>
+        <f>0.1547</f>
+        <v>0.1547</v>
       </c>
       <c r="F3">
-        <f>170.727</f>
-        <v>170.727</v>
+        <f>137.7</f>
+        <v>137.69999999999999</v>
       </c>
       <c r="G3">
-        <f>0.16168</f>
-        <v>0.16167999999999999</v>
+        <f>0.1662</f>
+        <v>0.16619999999999999</v>
       </c>
       <c r="H3">
-        <f>321.113</f>
-        <v>321.113</v>
+        <f>278.5</f>
+        <v>278.5</v>
       </c>
       <c r="I3">
-        <f>0.16644</f>
-        <v>0.16644</v>
+        <f>0.1707</f>
+        <v>0.17069999999999999</v>
       </c>
       <c r="J3">
-        <f>1136.035</f>
-        <v>1136.0350000000001</v>
+        <f>730.5</f>
+        <v>730.5</v>
       </c>
       <c r="K3" s="3">
-        <v>9.3969999999999998E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="L3" s="3">
-        <f>3.337</f>
-        <v>3.3370000000000002</v>
+        <f>3.34</f>
+        <v>3.34</v>
       </c>
       <c r="N3" s="3">
-        <f>1000000/6068</f>
-        <v>164.79894528675015</v>
+        <f>1000000/5790</f>
+        <v>172.71157167530225</v>
       </c>
       <c r="O3" s="3">
-        <f>1000000/4870</f>
-        <v>205.3388090349076</v>
+        <f>1000000/4640</f>
+        <v>215.51724137931035</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4409,596 +4409,596 @@
         <v>100</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" ref="B8:B39" si="0">(A8*C$3*B$3-D$3*N$3/3600*A$3)/100</f>
-        <v>9.9457177909616945E-2</v>
+        <f>(A8*C$3*B$3-D$3*N$3/3600*A$3)/100</f>
+        <v>9.8473412013049322E-2</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:C39" si="1">(A8*E$3*B$3-F$3*N$3/3600*A$3)/100</f>
-        <v>-6.8172674137552181E-2</v>
+        <f>(A8*E$3*B$3-F$3*N$3/3600*A$3)/100</f>
+        <v>-3.027409326424868E-2</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" ref="D8:D39" si="2">(A8*G$3*B$3-H$3*N$3/3600*A$3)/100</f>
-        <v>-0.24991287336116608</v>
+        <f t="shared" ref="D8:D39" si="0">(A8*G$3*B$3-H$3*N$3/3600*A$3)/100</f>
+        <v>-0.20791245442333525</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" ref="E8:E39" si="3">(A8*I$3*B$3-J$3*N$3/3600*A$3)/100</f>
-        <v>-1.289695098513147</v>
+        <f t="shared" ref="E8:E39" si="1">(A8*I$3*B$3-J$3*N$3/3600*A$3)/100</f>
+        <v>-0.81058957973517554</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" ref="F8:F39" si="4">(A8*K$3*B$3-L$3*O$3/3600*A$3)/100</f>
-        <v>8.8640545288615105E-2</v>
+        <f t="shared" ref="F8:F39" si="2">(A8*K$3*B$3-L$3*O$3/3600*A$3)/100</f>
+        <v>8.8401340996168573E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" ref="A9:A40" si="5">A8+A$8</f>
+        <f t="shared" ref="A9:A40" si="3">A8+A$8</f>
         <v>200</v>
       </c>
       <c r="B9" s="4">
+        <f t="shared" ref="B9:B39" si="4">(A9*C$3*B$3-D$3*N$3/3600*A$3)/100</f>
+        <v>0.2189234120130493</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" ref="C9:C39" si="5">(A9*E$3*B$3-F$3*N$3/3600*A$3)/100</f>
+        <v>0.12442590673575132</v>
+      </c>
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>0.21990717790961692</v>
-      </c>
-      <c r="C9" s="5">
+        <v>-4.1712454423335286E-2</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>8.2487325862447808E-2</v>
-      </c>
-      <c r="D9" s="5">
+        <v>-0.63988957973517546</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="2"/>
-        <v>-8.8232873361166073E-2</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="3"/>
-        <v>-1.1232550985131471</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="4"/>
-        <v>0.18261054528861512</v>
+        <v>0.18240134099616859</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="4"/>
+        <v>0.33937341201304932</v>
+      </c>
+      <c r="C10" s="5">
         <f t="shared" si="5"/>
-        <v>300</v>
-      </c>
-      <c r="B10" s="4">
+        <v>0.27912590673575133</v>
+      </c>
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>0.34035717790961689</v>
-      </c>
-      <c r="C10" s="5">
+        <v>0.12448754557666476</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>0.23314732586244777</v>
-      </c>
-      <c r="D10" s="5">
+        <v>-0.4691895797351755</v>
+      </c>
+      <c r="F10" s="6">
         <f t="shared" si="2"/>
-        <v>7.3447126638833918E-2</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="3"/>
-        <v>-0.95681509851314717</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="4"/>
-        <v>0.27658054528861509</v>
+        <v>0.27640134099616859</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="4"/>
+        <v>0.45982341201304933</v>
+      </c>
+      <c r="C11" s="5">
         <f t="shared" si="5"/>
-        <v>400</v>
-      </c>
-      <c r="B11" s="4">
+        <v>0.43382590673575139</v>
+      </c>
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>0.46080717790961695</v>
-      </c>
-      <c r="C11" s="5">
+        <v>0.29068754557666465</v>
+      </c>
+      <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>0.38380732586244776</v>
-      </c>
-      <c r="D11" s="5">
+        <v>-0.29848957973517543</v>
+      </c>
+      <c r="F11" s="6">
         <f t="shared" si="2"/>
-        <v>0.23512712663883392</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="3"/>
-        <v>-0.79037509851314713</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="4"/>
-        <v>0.37055054528861509</v>
+        <v>0.37040134099616856</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="4"/>
+        <v>0.58027341201304938</v>
+      </c>
+      <c r="C12" s="5">
         <f t="shared" si="5"/>
-        <v>500</v>
-      </c>
-      <c r="B12" s="4">
+        <v>0.58852590673575134</v>
+      </c>
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>0.58125717790961695</v>
-      </c>
-      <c r="C12" s="5">
+        <v>0.45688754557666472</v>
+      </c>
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>0.53446732586244783</v>
-      </c>
-      <c r="D12" s="5">
+        <v>-0.12778957973517549</v>
+      </c>
+      <c r="F12" s="6">
         <f t="shared" si="2"/>
-        <v>0.39680712663883383</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="3"/>
-        <v>-0.62393509851314721</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="4"/>
-        <v>0.46452054528861508</v>
+        <v>0.46440134099616853</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="4"/>
+        <v>0.70072341201304922</v>
+      </c>
+      <c r="C13" s="5">
         <f t="shared" si="5"/>
-        <v>600</v>
-      </c>
-      <c r="B13" s="4">
+        <v>0.7432259067357514</v>
+      </c>
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>0.7017071779096169</v>
-      </c>
-      <c r="C13" s="5">
+        <v>0.62308754557666479</v>
+      </c>
+      <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>0.68512732586244762</v>
-      </c>
-      <c r="D13" s="5">
+        <v>4.2910420264824438E-2</v>
+      </c>
+      <c r="F13" s="6">
         <f t="shared" si="2"/>
-        <v>0.55848712663883393</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="3"/>
-        <v>-0.45749509851314712</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="4"/>
-        <v>0.55849054528861508</v>
+        <v>0.55840134099616856</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.82117341201304928</v>
+      </c>
+      <c r="C14" s="5">
         <f t="shared" si="5"/>
-        <v>700</v>
-      </c>
-      <c r="B14" s="4">
+        <v>0.89792590673575134</v>
+      </c>
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>0.82215717790961695</v>
-      </c>
-      <c r="C14" s="5">
+        <v>0.7892875455766647</v>
+      </c>
+      <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>0.83578732586244764</v>
-      </c>
-      <c r="D14" s="5">
+        <v>0.21361042026482452</v>
+      </c>
+      <c r="F14" s="6">
         <f t="shared" si="2"/>
-        <v>0.72016712663883387</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="3"/>
-        <v>-0.29105509851314709</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="4"/>
-        <v>0.65246054528861508</v>
+        <v>0.65240134099616853</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="4"/>
+        <v>0.94162341201304922</v>
+      </c>
+      <c r="C15" s="5">
         <f t="shared" si="5"/>
-        <v>800</v>
-      </c>
-      <c r="B15" s="4">
+        <v>1.0526259067357513</v>
+      </c>
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>0.9426071779096169</v>
-      </c>
-      <c r="C15" s="5">
+        <v>0.9554875455766646</v>
+      </c>
+      <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>0.98644732586244777</v>
-      </c>
-      <c r="D15" s="5">
+        <v>0.38431042026482459</v>
+      </c>
+      <c r="F15" s="6">
         <f t="shared" si="2"/>
-        <v>0.88184712663883391</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="3"/>
-        <v>-0.12461509851314702</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="4"/>
-        <v>0.74643054528861508</v>
+        <v>0.74640134099616862</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0620734120130493</v>
+      </c>
+      <c r="C16" s="5">
         <f t="shared" si="5"/>
-        <v>900</v>
-      </c>
-      <c r="B16" s="4">
+        <v>1.2073259067357511</v>
+      </c>
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>1.063057177909617</v>
-      </c>
-      <c r="C16" s="5">
+        <v>1.1216875455766646</v>
+      </c>
+      <c r="E16" s="6">
         <f t="shared" si="1"/>
-        <v>1.1371073258624478</v>
-      </c>
-      <c r="D16" s="5">
+        <v>0.5550104202648245</v>
+      </c>
+      <c r="F16" s="6">
         <f t="shared" si="2"/>
-        <v>1.043527126638834</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="3"/>
-        <v>4.182490148685275E-2</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="4"/>
-        <v>0.84040054528861508</v>
+        <v>0.84040134099616848</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1825234120130492</v>
+      </c>
+      <c r="C17" s="5">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="B17" s="4">
+        <v>1.3620259067357514</v>
+      </c>
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>1.1835071779096169</v>
-      </c>
-      <c r="C17" s="5">
+        <v>1.2878875455766647</v>
+      </c>
+      <c r="E17" s="6">
         <f t="shared" si="1"/>
-        <v>1.2877673258624478</v>
-      </c>
-      <c r="D17" s="5">
+        <v>0.72571042026482446</v>
+      </c>
+      <c r="F17" s="6">
         <f t="shared" si="2"/>
-        <v>1.2052071266388338</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="3"/>
-        <v>0.20826490148685281</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="4"/>
-        <v>0.93437054528861507</v>
+        <v>0.93440134099616856</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="4"/>
+        <v>1.3029734120130494</v>
+      </c>
+      <c r="C18" s="5">
         <f t="shared" si="5"/>
-        <v>1100</v>
-      </c>
-      <c r="B18" s="4">
+        <v>1.5167259067357515</v>
+      </c>
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>1.3039571779096171</v>
-      </c>
-      <c r="C18" s="5">
+        <v>1.4540875455766646</v>
+      </c>
+      <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>1.4384273258624478</v>
-      </c>
-      <c r="D18" s="5">
+        <v>0.89641042026482443</v>
+      </c>
+      <c r="F18" s="6">
         <f t="shared" si="2"/>
-        <v>1.3668871266388338</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="3"/>
-        <v>0.37470490148685287</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="4"/>
-        <v>1.0283405452886152</v>
+        <v>1.0284013409961685</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="4"/>
+        <v>1.4234234120130491</v>
+      </c>
+      <c r="C19" s="5">
         <f t="shared" si="5"/>
-        <v>1200</v>
-      </c>
-      <c r="B19" s="4">
+        <v>1.6714259067357515</v>
+      </c>
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
-        <v>1.4244071779096168</v>
-      </c>
-      <c r="C19" s="5">
+        <v>1.6202875455766648</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>1.5890873258624476</v>
-      </c>
-      <c r="D19" s="5">
+        <v>1.0671104202648243</v>
+      </c>
+      <c r="F19" s="6">
         <f t="shared" si="2"/>
-        <v>1.5285671266388341</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="3"/>
-        <v>0.5411449014868529</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1223105452886151</v>
+        <v>1.1224013409961686</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5438734120130493</v>
+      </c>
+      <c r="C20" s="5">
         <f t="shared" si="5"/>
-        <v>1300</v>
-      </c>
-      <c r="B20" s="4">
+        <v>1.8261259067357514</v>
+      </c>
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
-        <v>1.544857177909617</v>
-      </c>
-      <c r="C20" s="5">
+        <v>1.7864875455766644</v>
+      </c>
+      <c r="E20" s="6">
         <f t="shared" si="1"/>
-        <v>1.7397473258624476</v>
-      </c>
-      <c r="D20" s="5">
+        <v>1.2378104202648246</v>
+      </c>
+      <c r="F20" s="6">
         <f t="shared" si="2"/>
-        <v>1.6902471266388341</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="3"/>
-        <v>0.70758490148685294</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="4"/>
-        <v>1.2162805452886152</v>
+        <v>1.2164013409961685</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="4"/>
+        <v>1.6643234120130492</v>
+      </c>
+      <c r="C21" s="5">
         <f t="shared" si="5"/>
-        <v>1400</v>
-      </c>
-      <c r="B21" s="4">
+        <v>1.9808259067357514</v>
+      </c>
+      <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>1.6653071779096169</v>
-      </c>
-      <c r="C21" s="5">
+        <v>1.9526875455766646</v>
+      </c>
+      <c r="E21" s="6">
         <f t="shared" si="1"/>
-        <v>1.8904073258624476</v>
-      </c>
-      <c r="D21" s="5">
+        <v>1.4085104202648244</v>
+      </c>
+      <c r="F21" s="6">
         <f t="shared" si="2"/>
-        <v>1.8519271266388335</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="3"/>
-        <v>0.87402490148685308</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="4"/>
-        <v>1.3102505452886151</v>
+        <v>1.3104013409961686</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7847734120130494</v>
+      </c>
+      <c r="C22" s="5">
         <f t="shared" si="5"/>
-        <v>1500</v>
-      </c>
-      <c r="B22" s="4">
+        <v>2.1355259067357513</v>
+      </c>
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
-        <v>1.7857571779096171</v>
-      </c>
-      <c r="C22" s="5">
+        <v>2.1188875455766647</v>
+      </c>
+      <c r="E22" s="6">
         <f t="shared" si="1"/>
-        <v>2.0410673258624477</v>
-      </c>
-      <c r="D22" s="5">
+        <v>1.5792104202648247</v>
+      </c>
+      <c r="F22" s="6">
         <f t="shared" si="2"/>
-        <v>2.0136071266388336</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" si="3"/>
-        <v>1.0404649014868528</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="4"/>
-        <v>1.4042205452886152</v>
+        <v>1.4044013409961686</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="4"/>
+        <v>1.9052234120130493</v>
+      </c>
+      <c r="C23" s="5">
         <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-      <c r="B23" s="4">
+        <v>2.2902259067357513</v>
+      </c>
+      <c r="D23" s="5">
         <f t="shared" si="0"/>
-        <v>1.906207177909617</v>
-      </c>
-      <c r="C23" s="5">
+        <v>2.2850875455766642</v>
+      </c>
+      <c r="E23" s="6">
         <f t="shared" si="1"/>
-        <v>2.1917273258624475</v>
-      </c>
-      <c r="D23" s="5">
+        <v>1.7499104202648246</v>
+      </c>
+      <c r="F23" s="6">
         <f t="shared" si="2"/>
-        <v>2.1752871266388336</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="3"/>
-        <v>1.2069049014868531</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="4"/>
-        <v>1.4981905452886153</v>
+        <v>1.4984013409961687</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="4"/>
+        <v>2.0256734120130493</v>
+      </c>
+      <c r="C24" s="5">
         <f t="shared" si="5"/>
-        <v>1700</v>
-      </c>
-      <c r="B24" s="4">
+        <v>2.4449259067357514</v>
+      </c>
+      <c r="D24" s="5">
         <f t="shared" si="0"/>
-        <v>2.026657177909617</v>
-      </c>
-      <c r="C24" s="5">
+        <v>2.4512875455766645</v>
+      </c>
+      <c r="E24" s="6">
         <f t="shared" si="1"/>
-        <v>2.3423873258624472</v>
-      </c>
-      <c r="D24" s="5">
+        <v>1.9206104202648246</v>
+      </c>
+      <c r="F24" s="6">
         <f t="shared" si="2"/>
-        <v>2.3369671266388337</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="3"/>
-        <v>1.3733449014868533</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="4"/>
-        <v>1.5921605452886152</v>
+        <v>1.5924013409961688</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="4"/>
+        <v>2.1461234120130492</v>
+      </c>
+      <c r="C25" s="5">
         <f t="shared" si="5"/>
-        <v>1800</v>
-      </c>
-      <c r="B25" s="4">
+        <v>2.599625906735751</v>
+      </c>
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
-        <v>2.1471071779096169</v>
-      </c>
-      <c r="C25" s="5">
+        <v>2.617487545576664</v>
+      </c>
+      <c r="E25" s="6">
         <f t="shared" si="1"/>
-        <v>2.4930473258624475</v>
-      </c>
-      <c r="D25" s="5">
+        <v>2.0913104202648243</v>
+      </c>
+      <c r="F25" s="6">
         <f t="shared" si="2"/>
-        <v>2.4986471266388337</v>
-      </c>
-      <c r="E25" s="6">
-        <f t="shared" si="3"/>
-        <v>1.5397849014868528</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="4"/>
-        <v>1.6861305452886151</v>
+        <v>1.6864013409961687</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="4"/>
+        <v>2.2665734120130492</v>
+      </c>
+      <c r="C26" s="5">
         <f t="shared" si="5"/>
-        <v>1900</v>
-      </c>
-      <c r="B26" s="4">
+        <v>2.7543259067357515</v>
+      </c>
+      <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>2.2675571779096169</v>
-      </c>
-      <c r="C26" s="5">
+        <v>2.7836875455766643</v>
+      </c>
+      <c r="E26" s="6">
         <f t="shared" si="1"/>
-        <v>2.6437073258624473</v>
-      </c>
-      <c r="D26" s="5">
+        <v>2.2620104202648244</v>
+      </c>
+      <c r="F26" s="6">
         <f t="shared" si="2"/>
-        <v>2.6603271266388338</v>
-      </c>
-      <c r="E26" s="6">
-        <f t="shared" si="3"/>
-        <v>1.7062249014868527</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="4"/>
-        <v>1.7801005452886154</v>
+        <v>1.7804013409961685</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="4"/>
+        <v>2.3870234120130491</v>
+      </c>
+      <c r="C27" s="5">
         <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="B27" s="4">
+        <v>2.9090259067357516</v>
+      </c>
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>2.3880071779096168</v>
-      </c>
-      <c r="C27" s="5">
+        <v>2.9498875455766642</v>
+      </c>
+      <c r="E27" s="6">
         <f t="shared" si="1"/>
-        <v>2.7943673258624475</v>
-      </c>
-      <c r="D27" s="5">
+        <v>2.4327104202648244</v>
+      </c>
+      <c r="F27" s="6">
         <f t="shared" si="2"/>
-        <v>2.8220071266388334</v>
-      </c>
-      <c r="E27" s="6">
-        <f t="shared" si="3"/>
-        <v>1.8726649014868528</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="4"/>
-        <v>1.8740705452886153</v>
+        <v>1.8744013409961686</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5074734120130491</v>
+      </c>
+      <c r="C28" s="5">
         <f t="shared" si="5"/>
-        <v>2100</v>
-      </c>
-      <c r="B28" s="4">
+        <v>3.0637259067357512</v>
+      </c>
+      <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>2.5084571779096168</v>
-      </c>
-      <c r="C28" s="5">
+        <v>3.1160875455766641</v>
+      </c>
+      <c r="E28" s="6">
         <f t="shared" si="1"/>
-        <v>2.9450273258624473</v>
-      </c>
-      <c r="D28" s="5">
+        <v>2.6034104202648245</v>
+      </c>
+      <c r="F28" s="6">
         <f t="shared" si="2"/>
-        <v>2.9836871266388334</v>
-      </c>
-      <c r="E28" s="6">
-        <f t="shared" si="3"/>
-        <v>2.0391049014868528</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="4"/>
-        <v>1.9680405452886152</v>
+        <v>1.9684013409961687</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
+        <f t="shared" si="3"/>
+        <v>2200</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="4"/>
+        <v>2.6279234120130495</v>
+      </c>
+      <c r="C29" s="5">
         <f t="shared" si="5"/>
-        <v>2200</v>
-      </c>
-      <c r="B29" s="4">
+        <v>3.2184259067357517</v>
+      </c>
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
-        <v>2.6289071779096171</v>
-      </c>
-      <c r="C29" s="5">
+        <v>3.2822875455766645</v>
+      </c>
+      <c r="E29" s="6">
         <f t="shared" si="1"/>
-        <v>3.095687325862448</v>
-      </c>
-      <c r="D29" s="5">
+        <v>2.7741104202648241</v>
+      </c>
+      <c r="F29" s="6">
         <f t="shared" si="2"/>
-        <v>3.1453671266388334</v>
-      </c>
-      <c r="E29" s="6">
-        <f t="shared" si="3"/>
-        <v>2.2055449014868529</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="4"/>
-        <v>2.0620105452886155</v>
+        <v>2.062401340996169</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
+        <f t="shared" si="3"/>
+        <v>2300</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="4"/>
+        <v>2.7483734120130499</v>
+      </c>
+      <c r="C30" s="5">
         <f t="shared" si="5"/>
-        <v>2300</v>
-      </c>
-      <c r="B30" s="4">
+        <v>3.3731259067357513</v>
+      </c>
+      <c r="D30" s="5">
         <f t="shared" si="0"/>
-        <v>2.7493571779096175</v>
-      </c>
-      <c r="C30" s="5">
+        <v>3.4484875455766644</v>
+      </c>
+      <c r="E30" s="6">
         <f t="shared" si="1"/>
-        <v>3.2463473258624473</v>
-      </c>
-      <c r="D30" s="5">
+        <v>2.9448104202648242</v>
+      </c>
+      <c r="F30" s="6">
         <f t="shared" si="2"/>
-        <v>3.3070471266388335</v>
-      </c>
-      <c r="E30" s="6">
-        <f t="shared" si="3"/>
-        <v>2.371984901486853</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" si="4"/>
-        <v>2.1559805452886152</v>
+        <v>2.1564013409961684</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -5006,184 +5006,184 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8688234120130494</v>
+      </c>
+      <c r="C31" s="5">
         <f t="shared" si="5"/>
-        <v>2400</v>
-      </c>
-      <c r="B31" s="4">
+        <v>3.5278259067357514</v>
+      </c>
+      <c r="D31" s="5">
         <f t="shared" si="0"/>
-        <v>2.869807177909617</v>
-      </c>
-      <c r="C31" s="5">
+        <v>3.6146875455766643</v>
+      </c>
+      <c r="E31" s="6">
         <f t="shared" si="1"/>
-        <v>3.3970073258624471</v>
-      </c>
-      <c r="D31" s="5">
+        <v>3.1155104202648238</v>
+      </c>
+      <c r="F31" s="6">
         <f t="shared" si="2"/>
-        <v>3.4687271266388335</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" si="3"/>
-        <v>2.5384249014868532</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" si="4"/>
-        <v>2.2499505452886153</v>
+        <v>2.2504013409961687</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="4"/>
+        <v>2.9892734120130497</v>
+      </c>
+      <c r="C32" s="5">
         <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="B32" s="4">
+        <v>3.6825259067357514</v>
+      </c>
+      <c r="D32" s="5">
         <f t="shared" si="0"/>
-        <v>2.9902571779096174</v>
-      </c>
-      <c r="C32" s="5">
+        <v>3.7808875455766646</v>
+      </c>
+      <c r="E32" s="6">
         <f t="shared" si="1"/>
-        <v>3.5476673258624474</v>
-      </c>
-      <c r="D32" s="5">
+        <v>3.2862104202648244</v>
+      </c>
+      <c r="F32" s="6">
         <f t="shared" si="2"/>
-        <v>3.6304071266388336</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="3"/>
-        <v>2.7048649014868533</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" si="4"/>
-        <v>2.3439205452886149</v>
+        <v>2.3444013409961686</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
+        <f t="shared" si="3"/>
+        <v>2600</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="4"/>
+        <v>3.1097234120130497</v>
+      </c>
+      <c r="C33" s="5">
         <f t="shared" si="5"/>
-        <v>2600</v>
-      </c>
-      <c r="B33" s="4">
+        <v>3.8372259067357515</v>
+      </c>
+      <c r="D33" s="5">
         <f t="shared" si="0"/>
-        <v>3.1107071779096174</v>
-      </c>
-      <c r="C33" s="5">
+        <v>3.9470875455766645</v>
+      </c>
+      <c r="E33" s="6">
         <f t="shared" si="1"/>
-        <v>3.6983273258624472</v>
-      </c>
-      <c r="D33" s="5">
+        <v>3.4569104202648249</v>
+      </c>
+      <c r="F33" s="6">
         <f t="shared" si="2"/>
-        <v>3.7920871266388336</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="3"/>
-        <v>2.8713049014868535</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="4"/>
-        <v>2.4378905452886155</v>
+        <v>2.4384013409961689</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
+        <f t="shared" si="3"/>
+        <v>2700</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="4"/>
+        <v>3.2301734120130501</v>
+      </c>
+      <c r="C34" s="5">
         <f t="shared" si="5"/>
-        <v>2700</v>
-      </c>
-      <c r="B34" s="4">
+        <v>3.9919259067357511</v>
+      </c>
+      <c r="D34" s="5">
         <f t="shared" si="0"/>
-        <v>3.2311571779096173</v>
-      </c>
-      <c r="C34" s="5">
+        <v>4.1132875455766644</v>
+      </c>
+      <c r="E34" s="6">
         <f t="shared" si="1"/>
-        <v>3.8489873258624474</v>
-      </c>
-      <c r="D34" s="5">
+        <v>3.6276104202648241</v>
+      </c>
+      <c r="F34" s="6">
         <f t="shared" si="2"/>
-        <v>3.9537671266388337</v>
-      </c>
-      <c r="E34" s="6">
-        <f t="shared" si="3"/>
-        <v>3.0377449014868536</v>
-      </c>
-      <c r="F34" s="6">
-        <f t="shared" si="4"/>
-        <v>2.5318605452886151</v>
+        <v>2.5324013409961688</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
+        <f t="shared" si="3"/>
+        <v>2800</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="4"/>
+        <v>3.3506234120130496</v>
+      </c>
+      <c r="C35" s="5">
         <f t="shared" si="5"/>
-        <v>2800</v>
-      </c>
-      <c r="B35" s="4">
+        <v>4.1466259067357516</v>
+      </c>
+      <c r="D35" s="5">
         <f t="shared" si="0"/>
-        <v>3.3516071779096173</v>
-      </c>
-      <c r="C35" s="5">
+        <v>4.2794875455766643</v>
+      </c>
+      <c r="E35" s="6">
         <f t="shared" si="1"/>
-        <v>3.9996473258624472</v>
-      </c>
-      <c r="D35" s="5">
+        <v>3.7983104202648246</v>
+      </c>
+      <c r="F35" s="6">
         <f t="shared" si="2"/>
-        <v>4.1154471266388333</v>
-      </c>
-      <c r="E35" s="6">
-        <f t="shared" si="3"/>
-        <v>3.2041849014868533</v>
-      </c>
-      <c r="F35" s="6">
-        <f t="shared" si="4"/>
-        <v>2.6258305452886153</v>
+        <v>2.6264013409961682</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
+        <f t="shared" si="3"/>
+        <v>2900</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="4"/>
+        <v>3.4710734120130495</v>
+      </c>
+      <c r="C36" s="5">
         <f t="shared" si="5"/>
-        <v>2900</v>
-      </c>
-      <c r="B36" s="4">
+        <v>4.3013259067357517</v>
+      </c>
+      <c r="D36" s="5">
         <f t="shared" si="0"/>
-        <v>3.4720571779096172</v>
-      </c>
-      <c r="C36" s="5">
+        <v>4.4456875455766642</v>
+      </c>
+      <c r="E36" s="6">
         <f t="shared" si="1"/>
-        <v>4.1503073258624479</v>
-      </c>
-      <c r="D36" s="5">
+        <v>3.9690104202648242</v>
+      </c>
+      <c r="F36" s="6">
         <f t="shared" si="2"/>
-        <v>4.2771271266388338</v>
-      </c>
-      <c r="E36" s="6">
-        <f t="shared" si="3"/>
-        <v>3.3706249014868526</v>
-      </c>
-      <c r="F36" s="6">
-        <f t="shared" si="4"/>
-        <v>2.7198005452886149</v>
+        <v>2.7204013409961685</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5915234120130499</v>
+      </c>
+      <c r="C37" s="5">
         <f t="shared" si="5"/>
-        <v>3000</v>
-      </c>
-      <c r="B37" s="4">
+        <v>4.4560259067357517</v>
+      </c>
+      <c r="D37" s="5">
         <f t="shared" si="0"/>
-        <v>3.5925071779096176</v>
-      </c>
-      <c r="C37" s="5">
+        <v>4.611887545576665</v>
+      </c>
+      <c r="E37" s="6">
         <f t="shared" si="1"/>
-        <v>4.3009673258624472</v>
-      </c>
-      <c r="D37" s="5">
+        <v>4.1397104202648247</v>
+      </c>
+      <c r="F37" s="6">
         <f t="shared" si="2"/>
-        <v>4.4388071266388334</v>
-      </c>
-      <c r="E37" s="6">
-        <f t="shared" si="3"/>
-        <v>3.5370649014868523</v>
-      </c>
-      <c r="F37" s="6">
-        <f t="shared" si="4"/>
-        <v>2.813770545288615</v>
+        <v>2.8144013409961683</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>21</v>
@@ -5191,28 +5191,28 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
+        <f t="shared" si="3"/>
+        <v>3100</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="4"/>
+        <v>3.7119734120130494</v>
+      </c>
+      <c r="C38" s="5">
         <f t="shared" si="5"/>
-        <v>3100</v>
-      </c>
-      <c r="B38" s="4">
+        <v>4.6107259067357509</v>
+      </c>
+      <c r="D38" s="5">
         <f t="shared" si="0"/>
-        <v>3.7129571779096171</v>
-      </c>
-      <c r="C38" s="5">
+        <v>4.778087545576664</v>
+      </c>
+      <c r="E38" s="6">
         <f t="shared" si="1"/>
-        <v>4.4516273258624475</v>
-      </c>
-      <c r="D38" s="5">
+        <v>4.3104104202648239</v>
+      </c>
+      <c r="F38" s="6">
         <f t="shared" si="2"/>
-        <v>4.6004871266388339</v>
-      </c>
-      <c r="E38" s="6">
-        <f t="shared" si="3"/>
-        <v>3.7035049014868537</v>
-      </c>
-      <c r="F38" s="6">
-        <f t="shared" si="4"/>
-        <v>2.9077405452886156</v>
+        <v>2.9084013409961682</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>22</v>
@@ -5232,74 +5232,74 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
+        <f t="shared" si="3"/>
+        <v>3200</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="4"/>
+        <v>3.8324234120130494</v>
+      </c>
+      <c r="C39" s="5">
         <f t="shared" si="5"/>
-        <v>3200</v>
-      </c>
-      <c r="B39" s="4">
+        <v>4.7654259067357518</v>
+      </c>
+      <c r="D39" s="5">
         <f t="shared" si="0"/>
-        <v>3.833407177909617</v>
-      </c>
-      <c r="C39" s="5">
+        <v>4.9442875455766639</v>
+      </c>
+      <c r="E39" s="6">
         <f t="shared" si="1"/>
-        <v>4.6022873258624477</v>
-      </c>
-      <c r="D39" s="5">
+        <v>4.481110420264824</v>
+      </c>
+      <c r="F39" s="6">
         <f t="shared" si="2"/>
-        <v>4.7621671266388335</v>
-      </c>
-      <c r="E39" s="6">
-        <f t="shared" si="3"/>
-        <v>3.8699449014868539</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" si="4"/>
-        <v>3.0017105452886153</v>
+        <v>3.0024013409961685</v>
       </c>
       <c r="H39" s="3">
         <f>D3*A3/3600*N3*B3/C3</f>
-        <v>17.428660930164437</v>
+        <v>18.245403060980223</v>
       </c>
       <c r="I39" s="7">
         <f>(F3-D3)*A3/3600*N3*B3/(E3-C3)</f>
-        <v>654.88199949410523</v>
+        <v>475.90512489722045</v>
       </c>
       <c r="J39" s="7">
         <f>(H3-F3)*A3/3600*N3*B3/(G3-E3)</f>
-        <v>1749.1851109220852</v>
+        <v>1644.6814013833639</v>
       </c>
       <c r="K39" s="7">
         <f>(J3-H3)*A3/3600*N3*B3/(I3-G3)</f>
-        <v>21944.164393949115</v>
+        <v>13492.825006929772</v>
       </c>
       <c r="L39" s="8">
         <f>L3*A3/3600*O3*B3/I3</f>
-        <v>3.202027584345648</v>
+        <v>3.2798236694970222</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3300</v>
       </c>
       <c r="B40" s="4">
         <f t="shared" ref="B40:B71" si="6">(A40*C$3*B$3-D$3*N$3/3600*A$3)/100</f>
-        <v>3.9538571779096174</v>
+        <v>3.9528734120130498</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" ref="C40:C71" si="7">(A40*E$3*B$3-F$3*N$3/3600*A$3)/100</f>
-        <v>4.7529473258624471</v>
+        <v>4.920125906735751</v>
       </c>
       <c r="D40" s="5">
         <f t="shared" ref="D40:D71" si="8">(A40*G$3*B$3-H$3*N$3/3600*A$3)/100</f>
-        <v>4.9238471266388339</v>
+        <v>5.1104875455766638</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" ref="E40:E71" si="9">(A40*I$3*B$3-J$3*N$3/3600*A$3)/100</f>
-        <v>4.036384901486854</v>
+        <v>4.6518104202648241</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" ref="F40:F71" si="10">(A40*K$3*B$3-L$3*O$3/3600*A$3)/100</f>
-        <v>3.0956805452886154</v>
+        <v>3.0964013409961684</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -5309,23 +5309,23 @@
       </c>
       <c r="B41" s="4">
         <f t="shared" si="6"/>
-        <v>4.0743071779096178</v>
+        <v>4.0733234120130497</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="7"/>
-        <v>4.9036073258624473</v>
+        <v>5.0748259067357511</v>
       </c>
       <c r="D41" s="5">
         <f t="shared" si="8"/>
-        <v>5.0855271266388336</v>
+        <v>5.2766875455766638</v>
       </c>
       <c r="E41" s="6">
         <f t="shared" si="9"/>
-        <v>4.2028249014868537</v>
+        <v>4.8225104202648241</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" si="10"/>
-        <v>3.189650545288615</v>
+        <v>3.1904013409961687</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -5335,23 +5335,23 @@
       </c>
       <c r="B42" s="4">
         <f t="shared" si="6"/>
-        <v>4.1947571779096169</v>
+        <v>4.1937734120130497</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="7"/>
-        <v>5.0542673258624475</v>
+        <v>5.229525906735752</v>
       </c>
       <c r="D42" s="5">
         <f t="shared" si="8"/>
-        <v>5.247207126638834</v>
+        <v>5.4428875455766637</v>
       </c>
       <c r="E42" s="6">
         <f t="shared" si="9"/>
-        <v>4.3692649014868525</v>
+        <v>4.9932104202648233</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" si="10"/>
-        <v>3.2836205452886151</v>
+        <v>3.2844013409961685</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -5361,23 +5361,23 @@
       </c>
       <c r="B43" s="4">
         <f t="shared" si="6"/>
-        <v>4.3152071779096168</v>
+        <v>4.3142234120130496</v>
       </c>
       <c r="C43" s="5">
         <f t="shared" si="7"/>
-        <v>5.2049273258624478</v>
+        <v>5.3842259067357512</v>
       </c>
       <c r="D43" s="5">
         <f t="shared" si="8"/>
-        <v>5.4088871266388345</v>
+        <v>5.6090875455766636</v>
       </c>
       <c r="E43" s="6">
         <f t="shared" si="9"/>
-        <v>4.5357049014868531</v>
+        <v>5.1639104202648243</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="10"/>
-        <v>3.3775905452886148</v>
+        <v>3.3784013409961684</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -5387,23 +5387,23 @@
       </c>
       <c r="B44" s="4">
         <f t="shared" si="6"/>
-        <v>4.4356571779096177</v>
+        <v>4.4346734120130495</v>
       </c>
       <c r="C44" s="5">
         <f t="shared" si="7"/>
-        <v>5.355587325862448</v>
+        <v>5.5389259067357512</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" si="8"/>
-        <v>5.5705671266388341</v>
+        <v>5.7752875455766635</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" si="9"/>
-        <v>4.7021449014868528</v>
+        <v>5.3346104202648235</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="10"/>
-        <v>3.4715605452886149</v>
+        <v>3.4724013409961687</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -5413,23 +5413,23 @@
       </c>
       <c r="B45" s="4">
         <f t="shared" si="6"/>
-        <v>4.5561071779096167</v>
+        <v>4.5551234120130495</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="7"/>
-        <v>5.5062473258624474</v>
+        <v>5.6936259067357513</v>
       </c>
       <c r="D45" s="5">
         <f t="shared" si="8"/>
-        <v>5.7322471266388346</v>
+        <v>5.9414875455766643</v>
       </c>
       <c r="E45" s="6">
         <f t="shared" si="9"/>
-        <v>4.8685849014868525</v>
+        <v>5.5053104202648235</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="10"/>
-        <v>3.5655305452886155</v>
+        <v>3.5664013409961681</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -5439,23 +5439,23 @@
       </c>
       <c r="B46" s="4">
         <f t="shared" si="6"/>
-        <v>4.6765571779096176</v>
+        <v>4.6755734120130494</v>
       </c>
       <c r="C46" s="5">
         <f t="shared" si="7"/>
-        <v>5.6569073258624476</v>
+        <v>5.8483259067357514</v>
       </c>
       <c r="D46" s="5">
         <f t="shared" si="8"/>
-        <v>5.8939271266388333</v>
+        <v>6.1076875455766642</v>
       </c>
       <c r="E46" s="6">
         <f t="shared" si="9"/>
-        <v>5.0350249014868531</v>
+        <v>5.6760104202648245</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="10"/>
-        <v>3.6595005452886151</v>
+        <v>3.6604013409961684</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -5465,23 +5465,23 @@
       </c>
       <c r="B47" s="4">
         <f t="shared" si="6"/>
-        <v>4.7970071779096175</v>
+        <v>4.7960234120130494</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="7"/>
-        <v>5.8075673258624478</v>
+        <v>6.0030259067357523</v>
       </c>
       <c r="D47" s="5">
         <f t="shared" si="8"/>
-        <v>6.0556071266388338</v>
+        <v>6.2738875455766641</v>
       </c>
       <c r="E47" s="6">
         <f t="shared" si="9"/>
-        <v>5.2014649014868528</v>
+        <v>5.8467104202648237</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" si="10"/>
-        <v>3.7534705452886152</v>
+        <v>3.7544013409961683</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -5491,23 +5491,23 @@
       </c>
       <c r="B48" s="4">
         <f t="shared" si="6"/>
-        <v>4.9174571779096174</v>
+        <v>4.9164734120130502</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="7"/>
-        <v>5.9582273258624472</v>
+        <v>6.1577259067357515</v>
       </c>
       <c r="D48" s="5">
         <f t="shared" si="8"/>
-        <v>6.2172871266388334</v>
+        <v>6.440087545576664</v>
       </c>
       <c r="E48" s="6">
         <f t="shared" si="9"/>
-        <v>5.3679049014868534</v>
+        <v>6.0174104202648246</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="10"/>
-        <v>3.8474405452886149</v>
+        <v>3.8484013409961682</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -5517,23 +5517,23 @@
       </c>
       <c r="B49" s="4">
         <f t="shared" si="6"/>
-        <v>5.0379071779096174</v>
+        <v>5.0369234120130493</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="7"/>
-        <v>6.1088873258624474</v>
+        <v>6.3124259067357515</v>
       </c>
       <c r="D49" s="5">
         <f t="shared" si="8"/>
-        <v>6.3789671266388339</v>
+        <v>6.6062875455766639</v>
       </c>
       <c r="E49" s="6">
         <f t="shared" si="9"/>
-        <v>5.5343449014868531</v>
+        <v>6.1881104202648238</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" si="10"/>
-        <v>3.941410545288615</v>
+        <v>3.9424013409961685</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -5543,23 +5543,23 @@
       </c>
       <c r="B50" s="4">
         <f t="shared" si="6"/>
-        <v>5.1583571779096182</v>
+        <v>5.1573734120130492</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="7"/>
-        <v>6.2595473258624477</v>
+        <v>6.4671259067357516</v>
       </c>
       <c r="D50" s="5">
         <f t="shared" si="8"/>
-        <v>6.5406471266388335</v>
+        <v>6.7724875455766638</v>
       </c>
       <c r="E50" s="6">
         <f t="shared" si="9"/>
-        <v>5.7007849014868528</v>
+        <v>6.3588104202648239</v>
       </c>
       <c r="F50" s="6">
         <f t="shared" si="10"/>
-        <v>4.0353805452886151</v>
+        <v>4.0364013409961679</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -5569,23 +5569,23 @@
       </c>
       <c r="B51" s="4">
         <f t="shared" si="6"/>
-        <v>5.2788071779096173</v>
+        <v>5.2778234120130492</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="7"/>
-        <v>6.4102073258624479</v>
+        <v>6.6218259067357517</v>
       </c>
       <c r="D51" s="5">
         <f t="shared" si="8"/>
-        <v>6.702327126638834</v>
+        <v>6.9386875455766646</v>
       </c>
       <c r="E51" s="6">
         <f t="shared" si="9"/>
-        <v>5.8672249014868534</v>
+        <v>6.529510420264824</v>
       </c>
       <c r="F51" s="6">
         <f t="shared" si="10"/>
-        <v>4.1293505452886157</v>
+        <v>4.1304013409961691</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -5595,23 +5595,23 @@
       </c>
       <c r="B52" s="4">
         <f t="shared" si="6"/>
-        <v>5.3992571779096172</v>
+        <v>5.3982734120130491</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="7"/>
-        <v>6.5608673258624473</v>
+        <v>6.7765259067357508</v>
       </c>
       <c r="D52" s="5">
         <f t="shared" si="8"/>
-        <v>6.8640071266388336</v>
+        <v>7.1048875455766645</v>
       </c>
       <c r="E52" s="6">
         <f t="shared" si="9"/>
-        <v>6.0336649014868531</v>
+        <v>6.7002104202648241</v>
       </c>
       <c r="F52" s="6">
         <f t="shared" si="10"/>
-        <v>4.2233205452886153</v>
+        <v>4.2244013409961685</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -5621,23 +5621,23 @@
       </c>
       <c r="B53" s="4">
         <f t="shared" si="6"/>
-        <v>5.5197071779096181</v>
+        <v>5.5187234120130491</v>
       </c>
       <c r="C53" s="5">
         <f t="shared" si="7"/>
-        <v>6.7115273258624475</v>
+        <v>6.9312259067357509</v>
       </c>
       <c r="D53" s="5">
         <f t="shared" si="8"/>
-        <v>7.0256871266388341</v>
+        <v>7.2710875455766644</v>
       </c>
       <c r="E53" s="6">
         <f t="shared" si="9"/>
-        <v>6.2001049014868537</v>
+        <v>6.8709104202648232</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" si="10"/>
-        <v>4.317290545288615</v>
+        <v>4.3184013409961679</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -5647,23 +5647,23 @@
       </c>
       <c r="B54" s="4">
         <f t="shared" si="6"/>
-        <v>5.6401571779096171</v>
+        <v>5.639173412013049</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="7"/>
-        <v>6.8621873258624477</v>
+        <v>7.0859259067357518</v>
       </c>
       <c r="D54" s="5">
         <f t="shared" si="8"/>
-        <v>7.1873671266388337</v>
+        <v>7.4372875455766643</v>
       </c>
       <c r="E54" s="6">
         <f t="shared" si="9"/>
-        <v>6.3665449014868534</v>
+        <v>7.0416104202648242</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" si="10"/>
-        <v>4.4112605452886156</v>
+        <v>4.4124013409961682</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -5673,23 +5673,23 @@
       </c>
       <c r="B55" s="4">
         <f t="shared" si="6"/>
-        <v>5.7606071779096171</v>
+        <v>5.7596234120130489</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="7"/>
-        <v>7.0128473258624471</v>
+        <v>7.2406259067357519</v>
       </c>
       <c r="D55" s="5">
         <f t="shared" si="8"/>
-        <v>7.3490471266388342</v>
+        <v>7.6034875455766642</v>
       </c>
       <c r="E55" s="6">
         <f t="shared" si="9"/>
-        <v>6.5329849014868531</v>
+        <v>7.2123104202648234</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" si="10"/>
-        <v>4.5052305452886152</v>
+        <v>4.5064013409961685</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -5699,23 +5699,23 @@
       </c>
       <c r="B56" s="4">
         <f t="shared" si="6"/>
-        <v>5.8810571779096179</v>
+        <v>5.8800734120130498</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="7"/>
-        <v>7.1635073258624473</v>
+        <v>7.3953259067357511</v>
       </c>
       <c r="D56" s="5">
         <f t="shared" si="8"/>
-        <v>7.5107271266388338</v>
+        <v>7.7696875455766632</v>
       </c>
       <c r="E56" s="6">
         <f t="shared" si="9"/>
-        <v>6.6994249014868537</v>
+        <v>7.3830104202648235</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" si="10"/>
-        <v>4.5992005452886149</v>
+        <v>4.6004013409961688</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -5725,23 +5725,23 @@
       </c>
       <c r="B57" s="4">
         <f t="shared" si="6"/>
-        <v>6.001507177909617</v>
+        <v>6.0005234120130488</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="7"/>
-        <v>7.3141673258624476</v>
+        <v>7.5500259067357511</v>
       </c>
       <c r="D57" s="5">
         <f t="shared" si="8"/>
-        <v>7.6724071266388343</v>
+        <v>7.9358875455766631</v>
       </c>
       <c r="E57" s="6">
         <f t="shared" si="9"/>
-        <v>6.8658649014868534</v>
+        <v>7.5537104202648244</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" si="10"/>
-        <v>4.6931705452886145</v>
+        <v>4.6944013409961682</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -5751,23 +5751,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" si="6"/>
-        <v>6.1219571779096169</v>
+        <v>6.1209734120130488</v>
       </c>
       <c r="C58" s="5">
         <f t="shared" si="7"/>
-        <v>7.4648273258624478</v>
+        <v>7.7047259067357512</v>
       </c>
       <c r="D58" s="5">
         <f t="shared" si="8"/>
-        <v>7.8340871266388339</v>
+        <v>8.1020875455766639</v>
       </c>
       <c r="E58" s="6">
         <f t="shared" si="9"/>
-        <v>7.0323049014868539</v>
+        <v>7.7244104202648236</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" si="10"/>
-        <v>4.7871405452886151</v>
+        <v>4.7884013409961685</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -5777,23 +5777,23 @@
       </c>
       <c r="B59" s="4">
         <f t="shared" si="6"/>
-        <v>6.2424071779096177</v>
+        <v>6.2414234120130496</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="7"/>
-        <v>7.6154873258624471</v>
+        <v>7.8594259067357521</v>
       </c>
       <c r="D59" s="5">
         <f t="shared" si="8"/>
-        <v>7.9957671266388344</v>
+        <v>8.2682875455766638</v>
       </c>
       <c r="E59" s="6">
         <f t="shared" si="9"/>
-        <v>7.1987449014868536</v>
+        <v>7.8951104202648246</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" si="10"/>
-        <v>4.8811105452886157</v>
+        <v>4.8824013409961688</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -5803,23 +5803,23 @@
       </c>
       <c r="B60" s="4">
         <f t="shared" si="6"/>
-        <v>6.3628571779096168</v>
+        <v>6.3618734120130487</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="7"/>
-        <v>7.7661473258624474</v>
+        <v>8.0141259067357513</v>
       </c>
       <c r="D60" s="5">
         <f t="shared" si="8"/>
-        <v>8.157447126638834</v>
+        <v>8.4344875455766637</v>
       </c>
       <c r="E60" s="6">
         <f t="shared" si="9"/>
-        <v>7.3651849014868533</v>
+        <v>8.0658104202648229</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" si="10"/>
-        <v>4.9750805452886153</v>
+        <v>4.9764013409961683</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -5829,23 +5829,23 @@
       </c>
       <c r="B61" s="4">
         <f t="shared" si="6"/>
-        <v>6.4833071779096176</v>
+        <v>6.4823234120130495</v>
       </c>
       <c r="C61" s="5">
         <f t="shared" si="7"/>
-        <v>7.9168073258624476</v>
+        <v>8.1688259067357514</v>
       </c>
       <c r="D61" s="5">
         <f t="shared" si="8"/>
-        <v>8.3191271266388345</v>
+        <v>8.6006875455766636</v>
       </c>
       <c r="E61" s="6">
         <f t="shared" si="9"/>
-        <v>7.5316249014868539</v>
+        <v>8.2365104202648247</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" si="10"/>
-        <v>5.069050545288615</v>
+        <v>5.0704013409961686</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -5855,23 +5855,23 @@
       </c>
       <c r="B62" s="4">
         <f t="shared" si="6"/>
-        <v>6.6037571779096176</v>
+        <v>6.6027734120130495</v>
       </c>
       <c r="C62" s="5">
         <f t="shared" si="7"/>
-        <v>8.067467325862447</v>
+        <v>8.3235259067357514</v>
       </c>
       <c r="D62" s="5">
         <f t="shared" si="8"/>
-        <v>8.4808071266388332</v>
+        <v>8.7668875455766635</v>
       </c>
       <c r="E62" s="6">
         <f t="shared" si="9"/>
-        <v>7.6980649014868536</v>
+        <v>8.407210420264823</v>
       </c>
       <c r="F62" s="6">
         <f t="shared" si="10"/>
-        <v>5.1630205452886146</v>
+        <v>5.1644013409961689</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -5881,23 +5881,23 @@
       </c>
       <c r="B63" s="4">
         <f t="shared" si="6"/>
-        <v>6.7242071779096166</v>
+        <v>6.7232234120130485</v>
       </c>
       <c r="C63" s="5">
         <f t="shared" si="7"/>
-        <v>8.2181273258624472</v>
+        <v>8.4782259067357515</v>
       </c>
       <c r="D63" s="5">
         <f t="shared" si="8"/>
-        <v>8.6424871266388337</v>
+        <v>8.9330875455766634</v>
       </c>
       <c r="E63" s="6">
         <f t="shared" si="9"/>
-        <v>7.8645049014868542</v>
+        <v>8.5779104202648231</v>
       </c>
       <c r="F63" s="6">
         <f t="shared" si="10"/>
-        <v>5.2569905452886143</v>
+        <v>5.2584013409961692</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -5907,23 +5907,23 @@
       </c>
       <c r="B64" s="4">
         <f t="shared" si="6"/>
-        <v>6.8446571779096175</v>
+        <v>6.8436734120130494</v>
       </c>
       <c r="C64" s="5">
         <f t="shared" si="7"/>
-        <v>8.3687873258624474</v>
+        <v>8.6329259067357516</v>
       </c>
       <c r="D64" s="5">
         <f t="shared" si="8"/>
-        <v>8.8041671266388342</v>
+        <v>9.0992875455766633</v>
       </c>
       <c r="E64" s="6">
         <f t="shared" si="9"/>
-        <v>8.030944901486853</v>
+        <v>8.7486104202648232</v>
       </c>
       <c r="F64" s="6">
         <f t="shared" si="10"/>
-        <v>5.3509605452886149</v>
+        <v>5.3524013409961686</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -5933,23 +5933,23 @@
       </c>
       <c r="B65" s="4">
         <f t="shared" si="6"/>
-        <v>6.9651071779096174</v>
+        <v>6.9641234120130493</v>
       </c>
       <c r="C65" s="5">
         <f t="shared" si="7"/>
-        <v>8.5194473258624477</v>
+        <v>8.7876259067357516</v>
       </c>
       <c r="D65" s="5">
         <f t="shared" si="8"/>
-        <v>8.9658471266388329</v>
+        <v>9.2654875455766632</v>
       </c>
       <c r="E65" s="6">
         <f t="shared" si="9"/>
-        <v>8.1973849014868527</v>
+        <v>8.9193104202648232</v>
       </c>
       <c r="F65" s="6">
         <f t="shared" si="10"/>
-        <v>5.4449305452886145</v>
+        <v>5.4464013409961698</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -5959,23 +5959,23 @@
       </c>
       <c r="B66" s="4">
         <f t="shared" si="6"/>
-        <v>7.0855571779096174</v>
+        <v>7.0845734120130484</v>
       </c>
       <c r="C66" s="5">
         <f t="shared" si="7"/>
-        <v>8.6701073258624461</v>
+        <v>8.9423259067357517</v>
       </c>
       <c r="D66" s="5">
         <f t="shared" si="8"/>
-        <v>9.1275271266388334</v>
+        <v>9.4316875455766631</v>
       </c>
       <c r="E66" s="6">
         <f t="shared" si="9"/>
-        <v>8.3638249014868524</v>
+        <v>9.0900104202648251</v>
       </c>
       <c r="F66" s="6">
         <f t="shared" si="10"/>
-        <v>5.5389005452886151</v>
+        <v>5.5404013409961692</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -5985,23 +5985,23 @@
       </c>
       <c r="B67" s="4">
         <f t="shared" si="6"/>
-        <v>7.2060071779096173</v>
+        <v>7.2050234120130492</v>
       </c>
       <c r="C67" s="5">
         <f t="shared" si="7"/>
-        <v>8.8207673258624464</v>
+        <v>9.0970259067357517</v>
       </c>
       <c r="D67" s="5">
         <f t="shared" si="8"/>
-        <v>9.2892071266388339</v>
+        <v>9.597887545576663</v>
       </c>
       <c r="E67" s="6">
         <f t="shared" si="9"/>
-        <v>8.5302649014868521</v>
+        <v>9.2607104202648252</v>
       </c>
       <c r="F67" s="6">
         <f t="shared" si="10"/>
-        <v>5.6328705452886139</v>
+        <v>5.6344013409961686</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -6011,23 +6011,23 @@
       </c>
       <c r="B68" s="4">
         <f t="shared" si="6"/>
-        <v>7.3264571779096173</v>
+        <v>7.3254734120130491</v>
       </c>
       <c r="C68" s="5">
         <f t="shared" si="7"/>
-        <v>8.9714273258624466</v>
+        <v>9.2517259067357518</v>
       </c>
       <c r="D68" s="5">
         <f t="shared" si="8"/>
-        <v>9.4508871266388343</v>
+        <v>9.7640875455766647</v>
       </c>
       <c r="E68" s="6">
         <f t="shared" si="9"/>
-        <v>8.6967049014868536</v>
+        <v>9.4314104202648235</v>
       </c>
       <c r="F68" s="6">
         <f t="shared" si="10"/>
-        <v>5.7268405452886144</v>
+        <v>5.7284013409961689</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -6037,23 +6037,23 @@
       </c>
       <c r="B69" s="4">
         <f t="shared" si="6"/>
-        <v>7.4469071779096172</v>
+        <v>7.4459234120130482</v>
       </c>
       <c r="C69" s="5">
         <f t="shared" si="7"/>
-        <v>9.1220873258624469</v>
+        <v>9.4064259067357519</v>
       </c>
       <c r="D69" s="5">
         <f t="shared" si="8"/>
-        <v>9.6125671266388331</v>
+        <v>9.9302875455766628</v>
       </c>
       <c r="E69" s="6">
         <f t="shared" si="9"/>
-        <v>8.8631449014868551</v>
+        <v>9.6021104202648235</v>
       </c>
       <c r="F69" s="6">
         <f t="shared" si="10"/>
-        <v>5.820810545288615</v>
+        <v>5.8224013409961684</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -6063,23 +6063,23 @@
       </c>
       <c r="B70" s="4">
         <f t="shared" si="6"/>
-        <v>7.5673571779096171</v>
+        <v>7.566373412013049</v>
       </c>
       <c r="C70" s="5">
         <f t="shared" si="7"/>
-        <v>9.2727473258624471</v>
+        <v>9.5611259067357519</v>
       </c>
       <c r="D70" s="5">
         <f t="shared" si="8"/>
-        <v>9.7742471266388335</v>
+        <v>10.096487545576665</v>
       </c>
       <c r="E70" s="6">
         <f t="shared" si="9"/>
-        <v>9.0295849014868548</v>
+        <v>9.7728104202648236</v>
       </c>
       <c r="F70" s="6">
         <f t="shared" si="10"/>
-        <v>5.9147805452886146</v>
+        <v>5.9164013409961695</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -6089,23 +6089,23 @@
       </c>
       <c r="B71" s="4">
         <f t="shared" si="6"/>
-        <v>7.6878071779096171</v>
+        <v>7.686823412013049</v>
       </c>
       <c r="C71" s="5">
         <f t="shared" si="7"/>
-        <v>9.4234073258624473</v>
+        <v>9.715825906735752</v>
       </c>
       <c r="D71" s="5">
         <f t="shared" si="8"/>
-        <v>9.935927126638834</v>
+        <v>10.262687545576664</v>
       </c>
       <c r="E71" s="6">
         <f t="shared" si="9"/>
-        <v>9.1960249014868545</v>
+        <v>9.9435104202648237</v>
       </c>
       <c r="F71" s="6">
         <f t="shared" si="10"/>
-        <v>6.0087505452886152</v>
+        <v>6.010401340996169</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -6115,23 +6115,23 @@
       </c>
       <c r="B72" s="4">
         <f t="shared" ref="B72:B103" si="12">(A72*C$3*B$3-D$3*N$3/3600*A$3)/100</f>
-        <v>7.808257177909617</v>
+        <v>7.8072734120130489</v>
       </c>
       <c r="C72" s="5">
         <f t="shared" ref="C72:C103" si="13">(A72*E$3*B$3-F$3*N$3/3600*A$3)/100</f>
-        <v>9.5740673258624476</v>
+        <v>9.870525906735752</v>
       </c>
       <c r="D72" s="5">
         <f t="shared" ref="D72:D107" si="14">(A72*G$3*B$3-H$3*N$3/3600*A$3)/100</f>
-        <v>10.097607126638833</v>
+        <v>10.428887545576664</v>
       </c>
       <c r="E72" s="6">
         <f t="shared" ref="E72:E107" si="15">(A72*I$3*B$3-J$3*N$3/3600*A$3)/100</f>
-        <v>9.3624649014868542</v>
+        <v>10.114210420264824</v>
       </c>
       <c r="F72" s="6">
         <f t="shared" ref="F72:F107" si="16">(A72*K$3*B$3-L$3*O$3/3600*A$3)/100</f>
-        <v>6.102720545288614</v>
+        <v>6.1044013409961693</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -6141,23 +6141,23 @@
       </c>
       <c r="B73" s="4">
         <f t="shared" si="12"/>
-        <v>7.9287071779096179</v>
+        <v>7.9277234120130489</v>
       </c>
       <c r="C73" s="5">
         <f t="shared" si="13"/>
-        <v>9.724727325862446</v>
+        <v>10.02522590673575</v>
       </c>
       <c r="D73" s="5">
         <f t="shared" si="14"/>
-        <v>10.259287126638833</v>
+        <v>10.595087545576664</v>
       </c>
       <c r="E73" s="6">
         <f t="shared" si="15"/>
-        <v>9.5289049014868539</v>
+        <v>10.284910420264824</v>
       </c>
       <c r="F73" s="6">
         <f t="shared" si="16"/>
-        <v>6.1966905452886145</v>
+        <v>6.1984013409961687</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -6167,23 +6167,23 @@
       </c>
       <c r="B74" s="4">
         <f t="shared" si="12"/>
-        <v>8.0491571779096169</v>
+        <v>8.0481734120130497</v>
       </c>
       <c r="C74" s="5">
         <f t="shared" si="13"/>
-        <v>9.8753873258624463</v>
+        <v>10.179925906735752</v>
       </c>
       <c r="D74" s="5">
         <f t="shared" si="14"/>
-        <v>10.420967126638832</v>
+        <v>10.761287545576666</v>
       </c>
       <c r="E74" s="6">
         <f t="shared" si="15"/>
-        <v>9.6953449014868553</v>
+        <v>10.455610420264822</v>
       </c>
       <c r="F74" s="6">
         <f t="shared" si="16"/>
-        <v>6.2906605452886142</v>
+        <v>6.2924013409961681</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -6193,23 +6193,23 @@
       </c>
       <c r="B75" s="4">
         <f t="shared" si="12"/>
-        <v>8.1696071779096187</v>
+        <v>8.1686234120130496</v>
       </c>
       <c r="C75" s="5">
         <f t="shared" si="13"/>
-        <v>10.026047325862447</v>
+        <v>10.334625906735752</v>
       </c>
       <c r="D75" s="5">
         <f t="shared" si="14"/>
-        <v>10.582647126638832</v>
+        <v>10.927487545576664</v>
       </c>
       <c r="E75" s="6">
         <f t="shared" si="15"/>
-        <v>9.861784901486855</v>
+        <v>10.626310420264824</v>
       </c>
       <c r="F75" s="6">
         <f t="shared" si="16"/>
-        <v>6.3846305452886147</v>
+        <v>6.3864013409961693</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -6219,23 +6219,23 @@
       </c>
       <c r="B76" s="4">
         <f t="shared" si="12"/>
-        <v>8.2900571779096168</v>
+        <v>8.2890734120130496</v>
       </c>
       <c r="C76" s="5">
         <f t="shared" si="13"/>
-        <v>10.176707325862447</v>
+        <v>10.489325906735752</v>
       </c>
       <c r="D76" s="5">
         <f t="shared" si="14"/>
-        <v>10.744327126638831</v>
+        <v>11.093687545576666</v>
       </c>
       <c r="E76" s="6">
         <f t="shared" si="15"/>
-        <v>10.028224901486853</v>
+        <v>10.797010420264824</v>
       </c>
       <c r="F76" s="6">
         <f t="shared" si="16"/>
-        <v>6.4786005452886153</v>
+        <v>6.4804013409961696</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -6245,23 +6245,23 @@
       </c>
       <c r="B77" s="4">
         <f t="shared" si="12"/>
-        <v>8.4105071779096168</v>
+        <v>8.4095234120130495</v>
       </c>
       <c r="C77" s="5">
         <f t="shared" si="13"/>
-        <v>10.327367325862447</v>
+        <v>10.644025906735754</v>
       </c>
       <c r="D77" s="5">
         <f t="shared" si="14"/>
-        <v>10.906007126638833</v>
+        <v>11.259887545576664</v>
       </c>
       <c r="E77" s="6">
         <f t="shared" si="15"/>
-        <v>10.194664901486853</v>
+        <v>10.967710420264822</v>
       </c>
       <c r="F77" s="6">
         <f t="shared" si="16"/>
-        <v>6.5725705452886141</v>
+        <v>6.574401340996169</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -6271,23 +6271,23 @@
       </c>
       <c r="B78" s="4">
         <f t="shared" si="12"/>
-        <v>8.5309571779096185</v>
+        <v>8.5299734120130495</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="13"/>
-        <v>10.478027325862447</v>
+        <v>10.798725906735754</v>
       </c>
       <c r="D78" s="5">
         <f t="shared" si="14"/>
-        <v>11.067687126638832</v>
+        <v>11.426087545576666</v>
       </c>
       <c r="E78" s="6">
         <f t="shared" si="15"/>
-        <v>10.361104901486851</v>
+        <v>11.138410420264824</v>
       </c>
       <c r="F78" s="6">
         <f t="shared" si="16"/>
-        <v>6.6665405452886146</v>
+        <v>6.6684013409961684</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -6297,23 +6297,23 @@
       </c>
       <c r="B79" s="4">
         <f t="shared" si="12"/>
-        <v>8.6514071779096167</v>
+        <v>8.6504234120130494</v>
       </c>
       <c r="C79" s="5">
         <f t="shared" si="13"/>
-        <v>10.628687325862447</v>
+        <v>10.953425906735752</v>
       </c>
       <c r="D79" s="5">
         <f t="shared" si="14"/>
-        <v>11.229367126638833</v>
+        <v>11.592287545576664</v>
       </c>
       <c r="E79" s="6">
         <f t="shared" si="15"/>
-        <v>10.527544901486852</v>
+        <v>11.309110420264824</v>
       </c>
       <c r="F79" s="6">
         <f t="shared" si="16"/>
-        <v>6.7605105452886143</v>
+        <v>6.7624013409961687</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -6323,23 +6323,23 @@
       </c>
       <c r="B80" s="4">
         <f t="shared" si="12"/>
-        <v>8.7718571779096166</v>
+        <v>8.7708734120130494</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="13"/>
-        <v>10.779347325862448</v>
+        <v>11.108125906735753</v>
       </c>
       <c r="D80" s="5">
         <f t="shared" si="14"/>
-        <v>11.391047126638831</v>
+        <v>11.758487545576665</v>
       </c>
       <c r="E80" s="6">
         <f t="shared" si="15"/>
-        <v>10.693984901486852</v>
+        <v>11.479810420264823</v>
       </c>
       <c r="F80" s="6">
         <f t="shared" si="16"/>
-        <v>6.8544805452886148</v>
+        <v>6.856401340996169</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -6349,23 +6349,23 @@
       </c>
       <c r="B81" s="4">
         <f t="shared" si="12"/>
-        <v>8.8923071779096183</v>
+        <v>8.8913234120130493</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="13"/>
-        <v>10.930007325862448</v>
+        <v>11.262825906735753</v>
       </c>
       <c r="D81" s="5">
         <f t="shared" si="14"/>
-        <v>11.552727126638834</v>
+        <v>11.924687545576665</v>
       </c>
       <c r="E81" s="6">
         <f t="shared" si="15"/>
-        <v>10.860424901486851</v>
+        <v>11.650510420264823</v>
       </c>
       <c r="F81" s="6">
         <f t="shared" si="16"/>
-        <v>6.9484505452886136</v>
+        <v>6.9504013409961694</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -6375,23 +6375,23 @@
       </c>
       <c r="B82" s="4">
         <f t="shared" si="12"/>
-        <v>9.0127571779096165</v>
+        <v>9.0117734120130493</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="13"/>
-        <v>11.080667325862446</v>
+        <v>11.417525906735753</v>
       </c>
       <c r="D82" s="5">
         <f t="shared" si="14"/>
-        <v>11.714407126638832</v>
+        <v>12.090887545576665</v>
       </c>
       <c r="E82" s="6">
         <f t="shared" si="15"/>
-        <v>11.026864901486851</v>
+        <v>11.821210420264824</v>
       </c>
       <c r="F82" s="6">
         <f t="shared" si="16"/>
-        <v>7.0424205452886142</v>
+        <v>7.0444013409961688</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -6401,23 +6401,23 @@
       </c>
       <c r="B83" s="4">
         <f t="shared" si="12"/>
-        <v>9.1332071779096164</v>
+        <v>9.1322234120130492</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="13"/>
-        <v>11.231327325862447</v>
+        <v>11.572225906735753</v>
       </c>
       <c r="D83" s="5">
         <f t="shared" si="14"/>
-        <v>11.876087126638833</v>
+        <v>12.257087545576665</v>
       </c>
       <c r="E83" s="6">
         <f t="shared" si="15"/>
-        <v>11.193304901486851</v>
+        <v>11.991910420264823</v>
       </c>
       <c r="F83" s="6">
         <f t="shared" si="16"/>
-        <v>7.1363905452886147</v>
+        <v>7.1384013409961691</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -6427,23 +6427,23 @@
       </c>
       <c r="B84" s="4">
         <f t="shared" si="12"/>
-        <v>9.2536571779096182</v>
+        <v>9.2526734120130492</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="13"/>
-        <v>11.381987325862447</v>
+        <v>11.726925906735753</v>
       </c>
       <c r="D84" s="5">
         <f t="shared" si="14"/>
-        <v>12.037767126638833</v>
+        <v>12.423287545576665</v>
       </c>
       <c r="E84" s="6">
         <f t="shared" si="15"/>
-        <v>11.359744901486852</v>
+        <v>12.162610420264823</v>
       </c>
       <c r="F84" s="6">
         <f t="shared" si="16"/>
-        <v>7.2303605452886144</v>
+        <v>7.2324013409961685</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -6453,23 +6453,23 @@
       </c>
       <c r="B85" s="4">
         <f t="shared" si="12"/>
-        <v>9.3741071779096163</v>
+        <v>9.3731234120130491</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="13"/>
-        <v>11.532647325862447</v>
+        <v>11.881625906735753</v>
       </c>
       <c r="D85" s="5">
         <f t="shared" si="14"/>
-        <v>12.199447126638832</v>
+        <v>12.589487545576665</v>
       </c>
       <c r="E85" s="6">
         <f t="shared" si="15"/>
-        <v>11.526184901486852</v>
+        <v>12.333310420264825</v>
       </c>
       <c r="F85" s="6">
         <f t="shared" si="16"/>
-        <v>7.3243305452886149</v>
+        <v>7.3264013409961697</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -6479,23 +6479,23 @@
       </c>
       <c r="B86" s="4">
         <f t="shared" si="12"/>
-        <v>9.4945571779096181</v>
+        <v>9.4935734120130491</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="13"/>
-        <v>11.683307325862447</v>
+        <v>12.036325906735753</v>
       </c>
       <c r="D86" s="5">
         <f t="shared" si="14"/>
-        <v>12.361127126638833</v>
+        <v>12.755687545576663</v>
       </c>
       <c r="E86" s="6">
         <f t="shared" si="15"/>
-        <v>11.692624901486852</v>
+        <v>12.504010420264825</v>
       </c>
       <c r="F86" s="6">
         <f t="shared" si="16"/>
-        <v>7.4183005452886137</v>
+        <v>7.4204013409961691</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -6505,23 +6505,23 @@
       </c>
       <c r="B87" s="4">
         <f t="shared" si="12"/>
-        <v>9.615007177909618</v>
+        <v>9.614023412013049</v>
       </c>
       <c r="C87" s="5">
         <f t="shared" si="13"/>
-        <v>11.833967325862448</v>
+        <v>12.191025906735753</v>
       </c>
       <c r="D87" s="5">
         <f t="shared" si="14"/>
-        <v>12.522807126638831</v>
+        <v>12.921887545576665</v>
       </c>
       <c r="E87" s="6">
         <f t="shared" si="15"/>
-        <v>11.859064901486851</v>
+        <v>12.674710420264823</v>
       </c>
       <c r="F87" s="6">
         <f t="shared" si="16"/>
-        <v>7.5122705452886143</v>
+        <v>7.5144013409961694</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -6531,23 +6531,23 @@
       </c>
       <c r="B88" s="4">
         <f t="shared" si="12"/>
-        <v>9.7354571779096162</v>
+        <v>9.7344734120130489</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="13"/>
-        <v>11.984627325862448</v>
+        <v>12.345725906735751</v>
       </c>
       <c r="D88" s="5">
         <f t="shared" si="14"/>
-        <v>12.684487126638833</v>
+        <v>13.088087545576663</v>
       </c>
       <c r="E88" s="6">
         <f t="shared" si="15"/>
-        <v>12.025504901486851</v>
+        <v>12.845410420264823</v>
       </c>
       <c r="F88" s="6">
         <f t="shared" si="16"/>
-        <v>7.6062405452886148</v>
+        <v>7.6084013409961688</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -6557,23 +6557,23 @@
       </c>
       <c r="B89" s="4">
         <f t="shared" si="12"/>
-        <v>9.8559071779096179</v>
+        <v>9.8549234120130489</v>
       </c>
       <c r="C89" s="5">
         <f t="shared" si="13"/>
-        <v>12.135287325862446</v>
+        <v>12.500425906735751</v>
       </c>
       <c r="D89" s="5">
         <f t="shared" si="14"/>
-        <v>12.846167126638832</v>
+        <v>13.254287545576664</v>
       </c>
       <c r="E89" s="6">
         <f t="shared" si="15"/>
-        <v>12.191944901486853</v>
+        <v>13.016110420264825</v>
       </c>
       <c r="F89" s="6">
         <f t="shared" si="16"/>
-        <v>7.7002105452886145</v>
+        <v>7.7024013409961682</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -6583,23 +6583,23 @@
       </c>
       <c r="B90" s="4">
         <f t="shared" si="12"/>
-        <v>9.9763571779096178</v>
+        <v>9.9753734120130488</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="13"/>
-        <v>12.285947325862447</v>
+        <v>12.655125906735753</v>
       </c>
       <c r="D90" s="5">
         <f t="shared" si="14"/>
-        <v>13.007847126638833</v>
+        <v>13.420487545576664</v>
       </c>
       <c r="E90" s="6">
         <f t="shared" si="15"/>
-        <v>12.358384901486852</v>
+        <v>13.186810420264823</v>
       </c>
       <c r="F90" s="6">
         <f t="shared" si="16"/>
-        <v>7.794180545288615</v>
+        <v>7.7964013409961694</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -6609,23 +6609,23 @@
       </c>
       <c r="B91" s="4">
         <f t="shared" si="12"/>
-        <v>10.096807177909618</v>
+        <v>10.095823412013049</v>
       </c>
       <c r="C91" s="5">
         <f t="shared" si="13"/>
-        <v>12.436607325862447</v>
+        <v>12.809825906735753</v>
       </c>
       <c r="D91" s="5">
         <f t="shared" si="14"/>
-        <v>13.169527126638831</v>
+        <v>13.586687545576664</v>
       </c>
       <c r="E91" s="6">
         <f t="shared" si="15"/>
-        <v>12.524824901486852</v>
+        <v>13.357510420264823</v>
       </c>
       <c r="F91" s="6">
         <f t="shared" si="16"/>
-        <v>7.8881505452886138</v>
+        <v>7.8904013409961689</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6635,23 +6635,23 @@
       </c>
       <c r="B92" s="4">
         <f t="shared" si="12"/>
-        <v>10.217257177909618</v>
+        <v>10.216273412013049</v>
       </c>
       <c r="C92" s="5">
         <f t="shared" si="13"/>
-        <v>12.587267325862447</v>
+        <v>12.964525906735753</v>
       </c>
       <c r="D92" s="5">
         <f t="shared" si="14"/>
-        <v>13.331207126638834</v>
+        <v>13.752887545576664</v>
       </c>
       <c r="E92" s="6">
         <f t="shared" si="15"/>
-        <v>12.691264901486852</v>
+        <v>13.528210420264822</v>
       </c>
       <c r="F92" s="6">
         <f t="shared" si="16"/>
-        <v>7.9821205452886144</v>
+        <v>7.9844013409961692</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -6661,23 +6661,23 @@
       </c>
       <c r="B93" s="4">
         <f t="shared" si="12"/>
-        <v>10.337707177909618</v>
+        <v>10.33672341201305</v>
       </c>
       <c r="C93" s="5">
         <f t="shared" si="13"/>
-        <v>12.737927325862447</v>
+        <v>13.119225906735753</v>
       </c>
       <c r="D93" s="5">
         <f t="shared" si="14"/>
-        <v>13.492887126638832</v>
+        <v>13.919087545576666</v>
       </c>
       <c r="E93" s="6">
         <f t="shared" si="15"/>
-        <v>12.857704901486851</v>
+        <v>13.698910420264824</v>
       </c>
       <c r="F93" s="6">
         <f t="shared" si="16"/>
-        <v>8.0760905452886149</v>
+        <v>8.0784013409961695</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -6687,23 +6687,23 @@
       </c>
       <c r="B94" s="4">
         <f t="shared" si="12"/>
-        <v>10.458157177909616</v>
+        <v>10.457173412013049</v>
       </c>
       <c r="C94" s="5">
         <f t="shared" si="13"/>
-        <v>12.888587325862447</v>
+        <v>13.273925906735753</v>
       </c>
       <c r="D94" s="5">
         <f t="shared" si="14"/>
-        <v>13.654567126638833</v>
+        <v>14.085287545576664</v>
       </c>
       <c r="E94" s="6">
         <f t="shared" si="15"/>
-        <v>13.024144901486853</v>
+        <v>13.869610420264824</v>
       </c>
       <c r="F94" s="6">
         <f t="shared" si="16"/>
-        <v>8.1700605452886137</v>
+        <v>8.1724013409961689</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -6713,23 +6713,23 @@
       </c>
       <c r="B95" s="4">
         <f t="shared" si="12"/>
-        <v>10.578607177909616</v>
+        <v>10.577623412013049</v>
       </c>
       <c r="C95" s="5">
         <f t="shared" si="13"/>
-        <v>13.039247325862448</v>
+        <v>13.428625906735753</v>
       </c>
       <c r="D95" s="5">
         <f t="shared" si="14"/>
-        <v>13.816247126638832</v>
+        <v>14.251487545576666</v>
       </c>
       <c r="E95" s="6">
         <f t="shared" si="15"/>
-        <v>13.190584901486853</v>
+        <v>14.040310420264824</v>
       </c>
       <c r="F95" s="6">
         <f t="shared" si="16"/>
-        <v>8.2640305452886142</v>
+        <v>8.2664013409961701</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -6739,23 +6739,23 @@
       </c>
       <c r="B96" s="4">
         <f t="shared" si="12"/>
-        <v>10.699057177909618</v>
+        <v>10.69807341201305</v>
       </c>
       <c r="C96" s="5">
         <f t="shared" si="13"/>
-        <v>13.189907325862446</v>
+        <v>13.583325906735752</v>
       </c>
       <c r="D96" s="5">
         <f t="shared" si="14"/>
-        <v>13.977927126638834</v>
+        <v>14.417687545576664</v>
       </c>
       <c r="E96" s="6">
         <f t="shared" si="15"/>
-        <v>13.357024901486852</v>
+        <v>14.211010420264824</v>
       </c>
       <c r="F96" s="6">
         <f t="shared" si="16"/>
-        <v>8.3580005452886148</v>
+        <v>8.3604013409961695</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -6765,23 +6765,23 @@
       </c>
       <c r="B97" s="4">
         <f t="shared" si="12"/>
-        <v>10.819507177909616</v>
+        <v>10.818523412013048</v>
       </c>
       <c r="C97" s="5">
         <f t="shared" si="13"/>
-        <v>13.340567325862446</v>
+        <v>13.738025906735752</v>
       </c>
       <c r="D97" s="5">
         <f t="shared" si="14"/>
-        <v>14.139607126638833</v>
+        <v>14.583887545576665</v>
       </c>
       <c r="E97" s="6">
         <f t="shared" si="15"/>
-        <v>13.523464901486852</v>
+        <v>14.381710420264824</v>
       </c>
       <c r="F97" s="6">
         <f t="shared" si="16"/>
-        <v>8.4519705452886154</v>
+        <v>8.4544013409961689</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -6791,23 +6791,23 @@
       </c>
       <c r="B98" s="4">
         <f t="shared" si="12"/>
-        <v>10.939957177909616</v>
+        <v>10.938973412013048</v>
       </c>
       <c r="C98" s="5">
         <f t="shared" si="13"/>
-        <v>13.491227325862447</v>
+        <v>13.892725906735752</v>
       </c>
       <c r="D98" s="5">
         <f t="shared" si="14"/>
-        <v>14.301287126638833</v>
+        <v>14.750087545576664</v>
       </c>
       <c r="E98" s="6">
         <f t="shared" si="15"/>
-        <v>13.689904901486852</v>
+        <v>14.552410420264824</v>
       </c>
       <c r="F98" s="6">
         <f t="shared" si="16"/>
-        <v>8.5459405452886141</v>
+        <v>8.5484013409961683</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -6817,23 +6817,23 @@
       </c>
       <c r="B99" s="4">
         <f t="shared" si="12"/>
-        <v>11.060407177909617</v>
+        <v>11.05942341201305</v>
       </c>
       <c r="C99" s="5">
         <f t="shared" si="13"/>
-        <v>13.641887325862447</v>
+        <v>14.047425906735752</v>
       </c>
       <c r="D99" s="5">
         <f t="shared" si="14"/>
-        <v>14.462967126638832</v>
+        <v>14.916287545576665</v>
       </c>
       <c r="E99" s="6">
         <f t="shared" si="15"/>
-        <v>13.856344901486853</v>
+        <v>14.723110420264822</v>
       </c>
       <c r="F99" s="6">
         <f t="shared" si="16"/>
-        <v>8.6399105452886147</v>
+        <v>8.6424013409961677</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -6843,23 +6843,23 @@
       </c>
       <c r="B100" s="4">
         <f t="shared" si="12"/>
-        <v>11.180857177909616</v>
+        <v>11.179873412013048</v>
       </c>
       <c r="C100" s="5">
         <f t="shared" si="13"/>
-        <v>13.792547325862447</v>
+        <v>14.202125906735752</v>
       </c>
       <c r="D100" s="5">
         <f t="shared" si="14"/>
-        <v>14.624647126638834</v>
+        <v>15.082487545576663</v>
       </c>
       <c r="E100" s="6">
         <f t="shared" si="15"/>
-        <v>14.022784901486853</v>
+        <v>14.893810420264824</v>
       </c>
       <c r="F100" s="6">
         <f t="shared" si="16"/>
-        <v>8.7338805452886135</v>
+        <v>8.7364013409961689</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -6869,23 +6869,23 @@
       </c>
       <c r="B101" s="4">
         <f t="shared" si="12"/>
-        <v>11.301307177909615</v>
+        <v>11.30032341201305</v>
       </c>
       <c r="C101" s="5">
         <f t="shared" si="13"/>
-        <v>13.943207325862447</v>
+        <v>14.356825906735754</v>
       </c>
       <c r="D101" s="5">
         <f t="shared" si="14"/>
-        <v>14.786327126638833</v>
+        <v>15.248687545576665</v>
       </c>
       <c r="E101" s="6">
         <f t="shared" si="15"/>
-        <v>14.189224901486853</v>
+        <v>15.064510420264824</v>
       </c>
       <c r="F101" s="6">
         <f t="shared" si="16"/>
-        <v>8.827850545288614</v>
+        <v>8.8304013409961684</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -6895,23 +6895,23 @@
       </c>
       <c r="B102" s="4">
         <f t="shared" si="12"/>
-        <v>11.421757177909617</v>
+        <v>11.42077341201305</v>
       </c>
       <c r="C102" s="5">
         <f t="shared" si="13"/>
-        <v>14.093867325862448</v>
+        <v>14.511525906735754</v>
       </c>
       <c r="D102" s="5">
         <f t="shared" si="14"/>
-        <v>14.948007126638831</v>
+        <v>15.414887545576665</v>
       </c>
       <c r="E102" s="6">
         <f t="shared" si="15"/>
-        <v>14.355664901486852</v>
+        <v>15.235210420264822</v>
       </c>
       <c r="F102" s="6">
         <f t="shared" si="16"/>
-        <v>8.9218205452886146</v>
+        <v>8.9244013409961696</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -6921,23 +6921,23 @@
       </c>
       <c r="B103" s="4">
         <f t="shared" si="12"/>
-        <v>11.542207177909615</v>
+        <v>11.541223412013048</v>
       </c>
       <c r="C103" s="5">
         <f t="shared" si="13"/>
-        <v>14.244527325862446</v>
+        <v>14.666225906735754</v>
       </c>
       <c r="D103" s="5">
         <f t="shared" si="14"/>
-        <v>15.109687126638832</v>
+        <v>15.581087545576665</v>
       </c>
       <c r="E103" s="6">
         <f t="shared" si="15"/>
-        <v>14.522104901486852</v>
+        <v>15.405910420264822</v>
       </c>
       <c r="F103" s="6">
         <f t="shared" si="16"/>
-        <v>9.0157905452886151</v>
+        <v>9.018401340996169</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -6947,23 +6947,23 @@
       </c>
       <c r="B104" s="4">
         <f t="shared" ref="B104:B107" si="18">(A104*C$3*B$3-D$3*N$3/3600*A$3)/100</f>
-        <v>11.662657177909615</v>
+        <v>11.66167341201305</v>
       </c>
       <c r="C104" s="5">
         <f t="shared" ref="C104:C107" si="19">(A104*E$3*B$3-F$3*N$3/3600*A$3)/100</f>
-        <v>14.395187325862446</v>
+        <v>14.820925906735754</v>
       </c>
       <c r="D104" s="5">
         <f t="shared" si="14"/>
-        <v>15.271367126638831</v>
+        <v>15.747287545576665</v>
       </c>
       <c r="E104" s="6">
         <f t="shared" si="15"/>
-        <v>14.688544901486853</v>
+        <v>15.576610420264824</v>
       </c>
       <c r="F104" s="6">
         <f t="shared" si="16"/>
-        <v>9.1097605452886157</v>
+        <v>9.1124013409961684</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -6973,23 +6973,23 @@
       </c>
       <c r="B105" s="4">
         <f t="shared" si="18"/>
-        <v>11.783107177909617</v>
+        <v>11.78212341201305</v>
       </c>
       <c r="C105" s="5">
         <f t="shared" si="19"/>
-        <v>14.545847325862447</v>
+        <v>14.975625906735752</v>
       </c>
       <c r="D105" s="5">
         <f t="shared" si="14"/>
-        <v>15.433047126638833</v>
+        <v>15.913487545576663</v>
       </c>
       <c r="E105" s="6">
         <f t="shared" si="15"/>
-        <v>14.854984901486853</v>
+        <v>15.747310420264823</v>
       </c>
       <c r="F105" s="6">
         <f t="shared" si="16"/>
-        <v>9.2037305452886145</v>
+        <v>9.2064013409961696</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -6999,23 +6999,23 @@
       </c>
       <c r="B106" s="4">
         <f t="shared" si="18"/>
-        <v>11.903557177909615</v>
+        <v>11.902573412013048</v>
       </c>
       <c r="C106" s="5">
         <f t="shared" si="19"/>
-        <v>14.696507325862447</v>
+        <v>15.130325906735752</v>
       </c>
       <c r="D106" s="5">
         <f t="shared" si="14"/>
-        <v>15.594727126638832</v>
+        <v>16.079687545576665</v>
       </c>
       <c r="E106" s="6">
         <f t="shared" si="15"/>
-        <v>15.021424901486853</v>
+        <v>15.918010420264823</v>
       </c>
       <c r="F106" s="6">
         <f t="shared" si="16"/>
-        <v>9.297700545288615</v>
+        <v>9.300401340996169</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -7025,23 +7025,23 @@
       </c>
       <c r="B107" s="4">
         <f t="shared" si="18"/>
-        <v>12.024007177909617</v>
+        <v>12.02302341201305</v>
       </c>
       <c r="C107" s="5">
         <f t="shared" si="19"/>
-        <v>14.847167325862447</v>
+        <v>15.285025906735752</v>
       </c>
       <c r="D107" s="5">
         <f t="shared" si="14"/>
-        <v>15.756407126638832</v>
+        <v>16.245887545576664</v>
       </c>
       <c r="E107" s="6">
         <f t="shared" si="15"/>
-        <v>15.187864901486853</v>
+        <v>16.088710420264825</v>
       </c>
       <c r="F107" s="6">
         <f t="shared" si="16"/>
-        <v>9.3916705452886138</v>
+        <v>9.3944013409961684</v>
       </c>
     </row>
   </sheetData>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25711"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25908"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="460" windowWidth="38400" windowHeight="19680" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27180" windowHeight="19680" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -660,301 +660,301 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>0.0984734120130493</c:v>
+                  <c:v>0.108934290923047</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.218923412013049</c:v>
+                  <c:v>0.229374290923047</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.339373412013049</c:v>
+                  <c:v>0.349814290923047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.459823412013049</c:v>
+                  <c:v>0.470254290923047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.580273412013049</c:v>
+                  <c:v>0.590694290923047</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.700723412013049</c:v>
+                  <c:v>0.711134290923048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.821173412013049</c:v>
+                  <c:v>0.831574290923048</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.941623412013049</c:v>
+                  <c:v>0.952014290923047</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.062073412013049</c:v>
+                  <c:v>1.072454290923047</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.182523412013049</c:v>
+                  <c:v>1.192894290923048</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.302973412013049</c:v>
+                  <c:v>1.313334290923048</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.423423412013049</c:v>
+                  <c:v>1.433774290923048</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.543873412013049</c:v>
+                  <c:v>1.554214290923047</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.664323412013049</c:v>
+                  <c:v>1.674654290923047</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.784773412013049</c:v>
+                  <c:v>1.795094290923047</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.905223412013049</c:v>
+                  <c:v>1.915534290923047</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.025673412013049</c:v>
+                  <c:v>2.035974290923048</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.146123412013049</c:v>
+                  <c:v>2.156414290923047</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.266573412013049</c:v>
+                  <c:v>2.276854290923048</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.387023412013049</c:v>
+                  <c:v>2.397294290923048</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.507473412013049</c:v>
+                  <c:v>2.517734290923047</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.627923412013049</c:v>
+                  <c:v>2.638174290923047</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.74837341201305</c:v>
+                  <c:v>2.758614290923047</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.868823412013049</c:v>
+                  <c:v>2.879054290923047</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.98927341201305</c:v>
+                  <c:v>2.999494290923047</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.10972341201305</c:v>
+                  <c:v>3.119934290923047</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.23017341201305</c:v>
+                  <c:v>3.240374290923047</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.35062341201305</c:v>
+                  <c:v>3.360814290923047</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.47107341201305</c:v>
+                  <c:v>3.481254290923047</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.59152341201305</c:v>
+                  <c:v>3.601694290923047</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.711973412013049</c:v>
+                  <c:v>3.722134290923047</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.832423412013049</c:v>
+                  <c:v>3.842574290923047</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.95287341201305</c:v>
+                  <c:v>3.963014290923047</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.07332341201305</c:v>
+                  <c:v>4.083454290923047</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.19377341201305</c:v>
+                  <c:v>4.203894290923047</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.31422341201305</c:v>
+                  <c:v>4.324334290923047</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.43467341201305</c:v>
+                  <c:v>4.444774290923047</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.55512341201305</c:v>
+                  <c:v>4.565214290923048</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.67557341201305</c:v>
+                  <c:v>4.685654290923047</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.79602341201305</c:v>
+                  <c:v>4.806094290923047</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.91647341201305</c:v>
+                  <c:v>4.926534290923048</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.03692341201305</c:v>
+                  <c:v>5.046974290923047</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.15737341201305</c:v>
+                  <c:v>5.167414290923047</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.27782341201305</c:v>
+                  <c:v>5.287854290923048</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.39827341201305</c:v>
+                  <c:v>5.408294290923047</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.51872341201305</c:v>
+                  <c:v>5.528734290923047</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.639173412013048</c:v>
+                  <c:v>5.649174290923047</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.759623412013048</c:v>
+                  <c:v>5.769614290923048</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.88007341201305</c:v>
+                  <c:v>5.890054290923047</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.000523412013048</c:v>
+                  <c:v>6.010494290923048</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.120973412013049</c:v>
+                  <c:v>6.130934290923047</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.24142341201305</c:v>
+                  <c:v>6.251374290923047</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.361873412013048</c:v>
+                  <c:v>6.371814290923047</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.48232341201305</c:v>
+                  <c:v>6.492254290923046</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.60277341201305</c:v>
+                  <c:v>6.612694290923048</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.723223412013048</c:v>
+                  <c:v>6.733134290923048</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.84367341201305</c:v>
+                  <c:v>6.853574290923047</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.96412341201305</c:v>
+                  <c:v>6.974014290923048</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.084573412013048</c:v>
+                  <c:v>7.094454290923047</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.20502341201305</c:v>
+                  <c:v>7.214894290923047</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.32547341201305</c:v>
+                  <c:v>7.335334290923048</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.445923412013048</c:v>
+                  <c:v>7.455774290923048</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.56637341201305</c:v>
+                  <c:v>7.576214290923047</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.686823412013048</c:v>
+                  <c:v>7.696654290923047</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.807273412013048</c:v>
+                  <c:v>7.817094290923047</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.927723412013048</c:v>
+                  <c:v>7.937534290923047</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.04817341201305</c:v>
+                  <c:v>8.057974290923048</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.16862341201305</c:v>
+                  <c:v>8.178414290923047</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.28907341201305</c:v>
+                  <c:v>8.298854290923047</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.40952341201305</c:v>
+                  <c:v>8.419294290923048</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.529973412013049</c:v>
+                  <c:v>8.539734290923046</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.65042341201305</c:v>
+                  <c:v>8.660174290923046</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.770873412013049</c:v>
+                  <c:v>8.780614290923047</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.891323412013049</c:v>
+                  <c:v>8.901054290923047</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.011773412013049</c:v>
+                  <c:v>9.021494290923047</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.132223412013049</c:v>
+                  <c:v>9.141934290923048</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.25267341201305</c:v>
+                  <c:v>9.262374290923046</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.37312341201305</c:v>
+                  <c:v>9.382814290923047</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.49357341201305</c:v>
+                  <c:v>9.503254290923047</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.614023412013049</c:v>
+                  <c:v>9.623694290923047</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.734473412013049</c:v>
+                  <c:v>9.744134290923048</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.854923412013048</c:v>
+                  <c:v>9.864574290923048</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.975373412013048</c:v>
+                  <c:v>9.985014290923047</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10.09582341201305</c:v>
+                  <c:v>10.10545429092305</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>10.21627341201305</c:v>
+                  <c:v>10.22589429092305</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>10.33672341201305</c:v>
+                  <c:v>10.34633429092305</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>10.45717341201305</c:v>
+                  <c:v>10.46677429092305</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>10.57762341201305</c:v>
+                  <c:v>10.58721429092305</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10.69807341201305</c:v>
+                  <c:v>10.70765429092305</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10.81852341201305</c:v>
+                  <c:v>10.82809429092305</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10.93897341201305</c:v>
+                  <c:v>10.94853429092305</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>11.05942341201305</c:v>
+                  <c:v>11.06897429092305</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>11.17987341201305</c:v>
+                  <c:v>11.18941429092305</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>11.30032341201305</c:v>
+                  <c:v>11.30985429092305</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>11.42077341201305</c:v>
+                  <c:v>11.43029429092305</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>11.54122341201305</c:v>
+                  <c:v>11.55073429092305</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>11.66167341201305</c:v>
+                  <c:v>11.67117429092305</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>11.78212341201305</c:v>
+                  <c:v>11.79161429092305</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>11.90257341201305</c:v>
+                  <c:v>11.91205429092305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,301 +1342,301 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>-0.0302740932642487</c:v>
+                  <c:v>0.0253626175398196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.124425906735751</c:v>
+                  <c:v>0.18396261753982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.279125906735751</c:v>
+                  <c:v>0.34256261753982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.433825906735751</c:v>
+                  <c:v>0.50116261753982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.588525906735751</c:v>
+                  <c:v>0.659762617539819</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.743225906735751</c:v>
+                  <c:v>0.818362617539819</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.897925906735751</c:v>
+                  <c:v>0.97696261753982</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.052625906735751</c:v>
+                  <c:v>1.135562617539819</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.207325906735751</c:v>
+                  <c:v>1.294162617539819</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.362025906735751</c:v>
+                  <c:v>1.452762617539819</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.516725906735751</c:v>
+                  <c:v>1.611362617539819</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.671425906735751</c:v>
+                  <c:v>1.76996261753982</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.826125906735751</c:v>
+                  <c:v>1.928562617539819</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.980825906735751</c:v>
+                  <c:v>2.087162617539819</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.135525906735751</c:v>
+                  <c:v>2.245762617539819</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.290225906735751</c:v>
+                  <c:v>2.40436261753982</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.444925906735751</c:v>
+                  <c:v>2.56296261753982</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.599625906735751</c:v>
+                  <c:v>2.721562617539819</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.754325906735751</c:v>
+                  <c:v>2.88016261753982</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.909025906735752</c:v>
+                  <c:v>3.038762617539819</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.063725906735751</c:v>
+                  <c:v>3.19736261753982</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.218425906735752</c:v>
+                  <c:v>3.355962617539819</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.373125906735751</c:v>
+                  <c:v>3.514562617539819</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.527825906735751</c:v>
+                  <c:v>3.67316261753982</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.682525906735751</c:v>
+                  <c:v>3.83176261753982</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.837225906735751</c:v>
+                  <c:v>3.990362617539819</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.991925906735751</c:v>
+                  <c:v>4.148962617539819</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.146625906735752</c:v>
+                  <c:v>4.307562617539819</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.301325906735752</c:v>
+                  <c:v>4.46616261753982</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.456025906735752</c:v>
+                  <c:v>4.624762617539819</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.610725906735751</c:v>
+                  <c:v>4.78336261753982</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.765425906735752</c:v>
+                  <c:v>4.94196261753982</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.920125906735751</c:v>
+                  <c:v>5.100562617539819</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.074825906735751</c:v>
+                  <c:v>5.25916261753982</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.229525906735752</c:v>
+                  <c:v>5.41776261753982</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.384225906735751</c:v>
+                  <c:v>5.576362617539818</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.538925906735751</c:v>
+                  <c:v>5.734962617539819</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.693625906735751</c:v>
+                  <c:v>5.893562617539819</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.848325906735751</c:v>
+                  <c:v>6.052162617539819</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.003025906735752</c:v>
+                  <c:v>6.21076261753982</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.157725906735751</c:v>
+                  <c:v>6.36936261753982</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.312425906735751</c:v>
+                  <c:v>6.52796261753982</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.467125906735752</c:v>
+                  <c:v>6.686562617539819</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.621825906735752</c:v>
+                  <c:v>6.845162617539819</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.776525906735751</c:v>
+                  <c:v>7.00376261753982</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.931225906735751</c:v>
+                  <c:v>7.162362617539819</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.085925906735752</c:v>
+                  <c:v>7.320962617539819</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.240625906735752</c:v>
+                  <c:v>7.47956261753982</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.395325906735751</c:v>
+                  <c:v>7.63816261753982</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.550025906735751</c:v>
+                  <c:v>7.79676261753982</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.704725906735751</c:v>
+                  <c:v>7.955362617539818</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.859425906735752</c:v>
+                  <c:v>8.11396261753982</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.014125906735751</c:v>
+                  <c:v>8.27256261753982</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.168825906735751</c:v>
+                  <c:v>8.431162617539818</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.323525906735751</c:v>
+                  <c:v>8.589762617539818</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.478225906735751</c:v>
+                  <c:v>8.748362617539819</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.632925906735751</c:v>
+                  <c:v>8.90696261753982</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.787625906735752</c:v>
+                  <c:v>9.06556261753982</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.942325906735752</c:v>
+                  <c:v>9.224162617539818</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.097025906735752</c:v>
+                  <c:v>9.382762617539817</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.251725906735752</c:v>
+                  <c:v>9.54136261753982</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.406425906735751</c:v>
+                  <c:v>9.69996261753982</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.561125906735752</c:v>
+                  <c:v>9.85856261753982</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.715825906735752</c:v>
+                  <c:v>10.01716261753982</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.870525906735751</c:v>
+                  <c:v>10.17576261753982</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.02522590673575</c:v>
+                  <c:v>10.33436261753982</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10.17992590673575</c:v>
+                  <c:v>10.49296261753982</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10.33462590673575</c:v>
+                  <c:v>10.65156261753982</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.48932590673575</c:v>
+                  <c:v>10.81016261753982</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.64402590673575</c:v>
+                  <c:v>10.96876261753982</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.79872590673575</c:v>
+                  <c:v>11.12736261753982</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.95342590673575</c:v>
+                  <c:v>11.28596261753982</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>11.10812590673575</c:v>
+                  <c:v>11.44456261753982</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>11.26282590673575</c:v>
+                  <c:v>11.60316261753982</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>11.41752590673575</c:v>
+                  <c:v>11.76176261753982</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11.57222590673575</c:v>
+                  <c:v>11.92036261753982</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>11.72692590673575</c:v>
+                  <c:v>12.07896261753982</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>11.88162590673575</c:v>
+                  <c:v>12.23756261753982</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>12.03632590673575</c:v>
+                  <c:v>12.39616261753982</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12.19102590673575</c:v>
+                  <c:v>12.55476261753982</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.34572590673575</c:v>
+                  <c:v>12.71336261753982</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>12.50042590673575</c:v>
+                  <c:v>12.87196261753982</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12.65512590673575</c:v>
+                  <c:v>13.03056261753982</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12.80982590673575</c:v>
+                  <c:v>13.18916261753982</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12.96452590673575</c:v>
+                  <c:v>13.34776261753982</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>13.11922590673575</c:v>
+                  <c:v>13.50636261753982</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13.27392590673575</c:v>
+                  <c:v>13.66496261753982</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>13.42862590673575</c:v>
+                  <c:v>13.82356261753982</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.58332590673575</c:v>
+                  <c:v>13.98216261753982</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>13.73802590673575</c:v>
+                  <c:v>14.14076261753982</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.89272590673575</c:v>
+                  <c:v>14.29936261753982</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.04742590673575</c:v>
+                  <c:v>14.45796261753982</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.20212590673575</c:v>
+                  <c:v>14.61656261753982</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>14.35682590673575</c:v>
+                  <c:v>14.77516261753982</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>14.51152590673575</c:v>
+                  <c:v>14.93376261753982</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>14.66622590673575</c:v>
+                  <c:v>15.09236261753982</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>14.82092590673575</c:v>
+                  <c:v>15.25096261753982</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>14.97562590673575</c:v>
+                  <c:v>15.40956261753982</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>15.13032590673575</c:v>
+                  <c:v>15.56816261753982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,301 +2024,301 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>-0.207912454423335</c:v>
+                  <c:v>-0.168336154289004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.0417124544233353</c:v>
+                  <c:v>-0.00103615428900405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.124487545576665</c:v>
+                  <c:v>0.166263845710996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.290687545576665</c:v>
+                  <c:v>0.333563845710996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.456887545576665</c:v>
+                  <c:v>0.500863845710996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.623087545576665</c:v>
+                  <c:v>0.668163845710996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.789287545576665</c:v>
+                  <c:v>0.835463845710996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.955487545576665</c:v>
+                  <c:v>1.002763845710996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.121687545576665</c:v>
+                  <c:v>1.170063845710996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.287887545576665</c:v>
+                  <c:v>1.337363845710996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.454087545576665</c:v>
+                  <c:v>1.504663845710996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.620287545576665</c:v>
+                  <c:v>1.671963845710996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.786487545576664</c:v>
+                  <c:v>1.839263845710996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.952687545576665</c:v>
+                  <c:v>2.006563845710996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.118887545576665</c:v>
+                  <c:v>2.173863845710996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.285087545576664</c:v>
+                  <c:v>2.341163845710996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.451287545576664</c:v>
+                  <c:v>2.508463845710996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.617487545576664</c:v>
+                  <c:v>2.675763845710996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.783687545576664</c:v>
+                  <c:v>2.843063845710996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.949887545576664</c:v>
+                  <c:v>3.010363845710996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.116087545576664</c:v>
+                  <c:v>3.177663845710996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.282287545576664</c:v>
+                  <c:v>3.344963845710996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.448487545576664</c:v>
+                  <c:v>3.512263845710996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.614687545576664</c:v>
+                  <c:v>3.679563845710996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.780887545576664</c:v>
+                  <c:v>3.846863845710996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.947087545576664</c:v>
+                  <c:v>4.014163845710996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.113287545576664</c:v>
+                  <c:v>4.181463845710996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.279487545576664</c:v>
+                  <c:v>4.348763845710996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.445687545576664</c:v>
+                  <c:v>4.516063845710996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.611887545576665</c:v>
+                  <c:v>4.683363845710996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.778087545576664</c:v>
+                  <c:v>4.850663845710996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.944287545576664</c:v>
+                  <c:v>5.017963845710996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.110487545576664</c:v>
+                  <c:v>5.185263845710995</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.276687545576663</c:v>
+                  <c:v>5.352563845710996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.442887545576664</c:v>
+                  <c:v>5.519863845710996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.609087545576663</c:v>
+                  <c:v>5.687163845710995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.775287545576663</c:v>
+                  <c:v>5.854463845710995</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.941487545576664</c:v>
+                  <c:v>6.021763845710995</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.107687545576664</c:v>
+                  <c:v>6.189063845710995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.273887545576664</c:v>
+                  <c:v>6.356363845710996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.440087545576664</c:v>
+                  <c:v>6.523663845710996</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.606287545576664</c:v>
+                  <c:v>6.690963845710995</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.772487545576664</c:v>
+                  <c:v>6.858263845710995</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.938687545576664</c:v>
+                  <c:v>7.025563845710995</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.104887545576664</c:v>
+                  <c:v>7.192863845710995</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.271087545576664</c:v>
+                  <c:v>7.360163845710996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.437287545576664</c:v>
+                  <c:v>7.527463845710996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.603487545576664</c:v>
+                  <c:v>7.694763845710995</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.769687545576663</c:v>
+                  <c:v>7.862063845710995</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.935887545576663</c:v>
+                  <c:v>8.029363845710996</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.102087545576663</c:v>
+                  <c:v>8.196663845710995</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.268287545576663</c:v>
+                  <c:v>8.363963845710996</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.434487545576663</c:v>
+                  <c:v>8.531263845710995</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.600687545576663</c:v>
+                  <c:v>8.698563845710996</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.766887545576663</c:v>
+                  <c:v>8.865863845710995</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.933087545576663</c:v>
+                  <c:v>9.033163845710995</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.099287545576663</c:v>
+                  <c:v>9.200463845710995</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.26548754557666</c:v>
+                  <c:v>9.367763845710996</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.431687545576663</c:v>
+                  <c:v>9.535063845710995</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.597887545576662</c:v>
+                  <c:v>9.702363845710996</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.764087545576664</c:v>
+                  <c:v>9.869663845710995</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.930287545576662</c:v>
+                  <c:v>10.03696384571099</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10.09648754557666</c:v>
+                  <c:v>10.204263845711</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.26268754557666</c:v>
+                  <c:v>10.371563845711</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.42888754557666</c:v>
+                  <c:v>10.538863845711</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.59508754557666</c:v>
+                  <c:v>10.706163845711</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10.76128754557667</c:v>
+                  <c:v>10.873463845711</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10.92748754557666</c:v>
+                  <c:v>11.040763845711</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>11.09368754557667</c:v>
+                  <c:v>11.208063845711</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.25988754557666</c:v>
+                  <c:v>11.375363845711</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>11.42608754557667</c:v>
+                  <c:v>11.542663845711</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>11.59228754557666</c:v>
+                  <c:v>11.70996384571099</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>11.75848754557667</c:v>
+                  <c:v>11.877263845711</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>11.92468754557667</c:v>
+                  <c:v>12.04456384571099</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>12.09088754557667</c:v>
+                  <c:v>12.211863845711</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>12.25708754557666</c:v>
+                  <c:v>12.379163845711</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.42328754557666</c:v>
+                  <c:v>12.546463845711</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12.58948754557666</c:v>
+                  <c:v>12.713763845711</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>12.75568754557666</c:v>
+                  <c:v>12.881063845711</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12.92188754557666</c:v>
+                  <c:v>13.048363845711</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13.08808754557666</c:v>
+                  <c:v>13.215663845711</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>13.25428754557666</c:v>
+                  <c:v>13.382963845711</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>13.42048754557666</c:v>
+                  <c:v>13.550263845711</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>13.58668754557666</c:v>
+                  <c:v>13.71756384571099</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13.75288754557666</c:v>
+                  <c:v>13.884863845711</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>13.91908754557667</c:v>
+                  <c:v>14.05216384571099</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>14.08528754557666</c:v>
+                  <c:v>14.219463845711</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>14.25148754557667</c:v>
+                  <c:v>14.38676384571099</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>14.41768754557666</c:v>
+                  <c:v>14.554063845711</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>14.58388754557667</c:v>
+                  <c:v>14.721363845711</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>14.75008754557666</c:v>
+                  <c:v>14.888663845711</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.91628754557667</c:v>
+                  <c:v>15.055963845711</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>15.08248754557666</c:v>
+                  <c:v>15.223263845711</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>15.24868754557667</c:v>
+                  <c:v>15.390563845711</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>15.41488754557666</c:v>
+                  <c:v>15.557863845711</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>15.58108754557666</c:v>
+                  <c:v>15.72516384571099</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>15.74728754557666</c:v>
+                  <c:v>15.892463845711</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>15.91348754557666</c:v>
+                  <c:v>16.059763845711</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>16.07968754557666</c:v>
+                  <c:v>16.22706384571099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2706,301 +2706,301 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>-0.810589579735175</c:v>
+                  <c:v>-0.758020495106505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.639889579735175</c:v>
+                  <c:v>-0.587320495106505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.469189579735175</c:v>
+                  <c:v>-0.416620495106505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.298489579735175</c:v>
+                  <c:v>-0.245920495106505</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.127789579735175</c:v>
+                  <c:v>-0.0752204951065055</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0429104202648244</c:v>
+                  <c:v>0.0954795048934944</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.213610420264825</c:v>
+                  <c:v>0.266179504893494</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.384310420264825</c:v>
+                  <c:v>0.436879504893495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.555010420264824</c:v>
+                  <c:v>0.607579504893494</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.725710420264824</c:v>
+                  <c:v>0.778279504893494</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.896410420264824</c:v>
+                  <c:v>0.948979504893494</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.067110420264824</c:v>
+                  <c:v>1.119679504893494</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.237810420264825</c:v>
+                  <c:v>1.290379504893494</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.408510420264824</c:v>
+                  <c:v>1.461079504893494</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.579210420264825</c:v>
+                  <c:v>1.631779504893495</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.749910420264824</c:v>
+                  <c:v>1.802479504893495</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.920610420264825</c:v>
+                  <c:v>1.973179504893495</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.091310420264824</c:v>
+                  <c:v>2.143879504893495</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.262010420264824</c:v>
+                  <c:v>2.314579504893495</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.432710420264824</c:v>
+                  <c:v>2.485279504893494</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.603410420264824</c:v>
+                  <c:v>2.655979504893494</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.774110420264824</c:v>
+                  <c:v>2.826679504893494</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.944810420264824</c:v>
+                  <c:v>2.997379504893494</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.115510420264824</c:v>
+                  <c:v>3.168079504893494</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.286210420264824</c:v>
+                  <c:v>3.338779504893495</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.456910420264825</c:v>
+                  <c:v>3.509479504893495</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.627610420264824</c:v>
+                  <c:v>3.680179504893494</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.798310420264824</c:v>
+                  <c:v>3.850879504893494</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.969010420264824</c:v>
+                  <c:v>4.021579504893494</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.139710420264824</c:v>
+                  <c:v>4.192279504893495</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.310410420264824</c:v>
+                  <c:v>4.362979504893494</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.481110420264823</c:v>
+                  <c:v>4.533679504893495</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.651810420264824</c:v>
+                  <c:v>4.704379504893494</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.822510420264824</c:v>
+                  <c:v>4.875079504893494</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.993210420264823</c:v>
+                  <c:v>5.045779504893494</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.163910420264824</c:v>
+                  <c:v>5.216479504893494</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.334610420264823</c:v>
+                  <c:v>5.387179504893494</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.505310420264823</c:v>
+                  <c:v>5.557879504893495</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.676010420264824</c:v>
+                  <c:v>5.728579504893495</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.846710420264823</c:v>
+                  <c:v>5.899279504893494</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.017410420264824</c:v>
+                  <c:v>6.069979504893495</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.188110420264824</c:v>
+                  <c:v>6.240679504893494</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.358810420264824</c:v>
+                  <c:v>6.411379504893494</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.529510420264824</c:v>
+                  <c:v>6.582079504893494</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.700210420264823</c:v>
+                  <c:v>6.752779504893494</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.870910420264823</c:v>
+                  <c:v>6.923479504893494</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.041610420264824</c:v>
+                  <c:v>7.094179504893495</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.212310420264823</c:v>
+                  <c:v>7.264879504893494</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.383010420264823</c:v>
+                  <c:v>7.435579504893494</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.553710420264824</c:v>
+                  <c:v>7.606279504893494</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.724410420264824</c:v>
+                  <c:v>7.776979504893494</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.895110420264824</c:v>
+                  <c:v>7.947679504893494</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.065810420264823</c:v>
+                  <c:v>8.118379504893493</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.236510420264825</c:v>
+                  <c:v>8.289079504893495</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.407210420264823</c:v>
+                  <c:v>8.459779504893493</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.577910420264823</c:v>
+                  <c:v>8.630479504893493</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.748610420264823</c:v>
+                  <c:v>8.801179504893493</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.919310420264823</c:v>
+                  <c:v>8.971879504893493</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.090010420264825</c:v>
+                  <c:v>9.142579504893495</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.260710420264825</c:v>
+                  <c:v>9.313279504893495</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.431410420264823</c:v>
+                  <c:v>9.483979504893493</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.602110420264823</c:v>
+                  <c:v>9.654679504893493</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.772810420264824</c:v>
+                  <c:v>9.825379504893493</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.943510420264824</c:v>
+                  <c:v>9.996079504893494</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.11421042026482</c:v>
+                  <c:v>10.16677950489349</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.28491042026482</c:v>
+                  <c:v>10.33747950489349</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10.45561042026482</c:v>
+                  <c:v>10.50817950489349</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10.62631042026482</c:v>
+                  <c:v>10.67887950489349</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.79701042026482</c:v>
+                  <c:v>10.84957950489349</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.96771042026482</c:v>
+                  <c:v>11.02027950489349</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>11.13841042026482</c:v>
+                  <c:v>11.19097950489349</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>11.30911042026482</c:v>
+                  <c:v>11.36167950489349</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>11.47981042026482</c:v>
+                  <c:v>11.53237950489349</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>11.65051042026482</c:v>
+                  <c:v>11.70307950489349</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>11.82121042026482</c:v>
+                  <c:v>11.87377950489349</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11.99191042026482</c:v>
+                  <c:v>12.04447950489349</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.16261042026482</c:v>
+                  <c:v>12.21517950489349</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12.33331042026482</c:v>
+                  <c:v>12.38587950489349</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>12.50401042026482</c:v>
+                  <c:v>12.55657950489349</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12.67471042026482</c:v>
+                  <c:v>12.72727950489349</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.84541042026482</c:v>
+                  <c:v>12.89797950489349</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>13.01611042026483</c:v>
+                  <c:v>13.06867950489349</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>13.18681042026482</c:v>
+                  <c:v>13.23937950489349</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>13.35751042026482</c:v>
+                  <c:v>13.41007950489349</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13.52821042026482</c:v>
+                  <c:v>13.58077950489349</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>13.69891042026482</c:v>
+                  <c:v>13.75147950489349</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13.86961042026482</c:v>
+                  <c:v>13.92217950489349</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>14.04031042026482</c:v>
+                  <c:v>14.09287950489349</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>14.21101042026482</c:v>
+                  <c:v>14.26357950489349</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>14.38171042026482</c:v>
+                  <c:v>14.43427950489349</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>14.55241042026482</c:v>
+                  <c:v>14.60497950489349</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.72311042026482</c:v>
+                  <c:v>14.77567950489349</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.89381042026482</c:v>
+                  <c:v>14.94637950489349</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>15.06451042026482</c:v>
+                  <c:v>15.11707950489349</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>15.23521042026482</c:v>
+                  <c:v>15.28777950489349</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>15.40591042026482</c:v>
+                  <c:v>15.4584795048935</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>15.57661042026482</c:v>
+                  <c:v>15.62917950489349</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>15.74731042026482</c:v>
+                  <c:v>15.79987950489349</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>15.91801042026482</c:v>
+                  <c:v>15.9705795048935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3388,301 +3388,301 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>0.0884013409961686</c:v>
+                  <c:v>0.0887012691570881</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.182401340996169</c:v>
+                  <c:v>0.182701269157088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.276401340996169</c:v>
+                  <c:v>0.276701269157088</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.370401340996169</c:v>
+                  <c:v>0.370701269157088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.464401340996168</c:v>
+                  <c:v>0.464701269157088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.558401340996169</c:v>
+                  <c:v>0.558701269157088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.652401340996168</c:v>
+                  <c:v>0.652701269157088</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.746401340996169</c:v>
+                  <c:v>0.746701269157088</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.840401340996168</c:v>
+                  <c:v>0.840701269157088</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.934401340996169</c:v>
+                  <c:v>0.934701269157088</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.028401340996169</c:v>
+                  <c:v>1.028701269157088</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.122401340996169</c:v>
+                  <c:v>1.122701269157088</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.216401340996168</c:v>
+                  <c:v>1.216701269157088</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.310401340996169</c:v>
+                  <c:v>1.310701269157088</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.404401340996169</c:v>
+                  <c:v>1.404701269157088</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.498401340996169</c:v>
+                  <c:v>1.498701269157088</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.592401340996169</c:v>
+                  <c:v>1.592701269157088</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.686401340996169</c:v>
+                  <c:v>1.686701269157088</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.780401340996168</c:v>
+                  <c:v>1.780701269157088</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.874401340996169</c:v>
+                  <c:v>1.874701269157088</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.968401340996169</c:v>
+                  <c:v>1.968701269157088</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.062401340996169</c:v>
+                  <c:v>2.062701269157088</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.156401340996168</c:v>
+                  <c:v>2.156701269157088</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.250401340996169</c:v>
+                  <c:v>2.250701269157088</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.344401340996169</c:v>
+                  <c:v>2.344701269157088</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.438401340996169</c:v>
+                  <c:v>2.438701269157088</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.532401340996169</c:v>
+                  <c:v>2.532701269157088</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.626401340996168</c:v>
+                  <c:v>2.626701269157088</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.720401340996168</c:v>
+                  <c:v>2.720701269157088</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.814401340996168</c:v>
+                  <c:v>2.814701269157088</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.908401340996168</c:v>
+                  <c:v>2.908701269157088</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.002401340996169</c:v>
+                  <c:v>3.002701269157088</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.096401340996168</c:v>
+                  <c:v>3.096701269157088</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.190401340996169</c:v>
+                  <c:v>3.190701269157088</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.284401340996168</c:v>
+                  <c:v>3.284701269157088</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.378401340996168</c:v>
+                  <c:v>3.378701269157088</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.472401340996169</c:v>
+                  <c:v>3.472701269157088</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.566401340996168</c:v>
+                  <c:v>3.566701269157088</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.660401340996168</c:v>
+                  <c:v>3.660701269157088</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.754401340996168</c:v>
+                  <c:v>3.754701269157088</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.848401340996168</c:v>
+                  <c:v>3.848701269157088</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.942401340996168</c:v>
+                  <c:v>3.942701269157088</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.036401340996167</c:v>
+                  <c:v>4.036701269157088</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.13040134099617</c:v>
+                  <c:v>4.130701269157089</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.224401340996168</c:v>
+                  <c:v>4.224701269157088</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.318401340996168</c:v>
+                  <c:v>4.318701269157088</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.412401340996168</c:v>
+                  <c:v>4.412701269157088</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.506401340996168</c:v>
+                  <c:v>4.506701269157088</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.600401340996169</c:v>
+                  <c:v>4.600701269157088</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.694401340996168</c:v>
+                  <c:v>4.694701269157088</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.788401340996168</c:v>
+                  <c:v>4.788701269157088</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.882401340996169</c:v>
+                  <c:v>4.882701269157089</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.976401340996168</c:v>
+                  <c:v>4.976701269157088</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.070401340996168</c:v>
+                  <c:v>5.070701269157088</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.164401340996169</c:v>
+                  <c:v>5.164701269157088</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.25840134099617</c:v>
+                  <c:v>5.258701269157087</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.352401340996169</c:v>
+                  <c:v>5.352701269157087</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.44640134099617</c:v>
+                  <c:v>5.446701269157088</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.54040134099617</c:v>
+                  <c:v>5.540701269157088</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.634401340996169</c:v>
+                  <c:v>5.634701269157087</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.728401340996169</c:v>
+                  <c:v>5.728701269157088</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.822401340996168</c:v>
+                  <c:v>5.822701269157087</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.91640134099617</c:v>
+                  <c:v>5.916701269157088</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.010401340996169</c:v>
+                  <c:v>6.010701269157088</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.104401340996169</c:v>
+                  <c:v>6.104701269157087</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.198401340996169</c:v>
+                  <c:v>6.198701269157087</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.292401340996168</c:v>
+                  <c:v>6.292701269157087</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.38640134099617</c:v>
+                  <c:v>6.386701269157088</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.48040134099617</c:v>
+                  <c:v>6.480701269157088</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.57440134099617</c:v>
+                  <c:v>6.574701269157088</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.668401340996168</c:v>
+                  <c:v>6.668701269157087</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.762401340996169</c:v>
+                  <c:v>6.762701269157088</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.856401340996169</c:v>
+                  <c:v>6.856701269157088</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.95040134099617</c:v>
+                  <c:v>6.950701269157088</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.044401340996169</c:v>
+                  <c:v>7.044701269157088</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.13840134099617</c:v>
+                  <c:v>7.138701269157087</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.232401340996168</c:v>
+                  <c:v>7.232701269157087</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.32640134099617</c:v>
+                  <c:v>7.326701269157088</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.42040134099617</c:v>
+                  <c:v>7.420701269157088</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.514401340996169</c:v>
+                  <c:v>7.514701269157087</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.608401340996169</c:v>
+                  <c:v>7.608701269157088</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7.702401340996168</c:v>
+                  <c:v>7.702701269157087</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.79640134099617</c:v>
+                  <c:v>7.796701269157088</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.890401340996169</c:v>
+                  <c:v>7.890701269157088</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7.98440134099617</c:v>
+                  <c:v>7.984701269157088</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.078401340996169</c:v>
+                  <c:v>8.078701269157087</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.172401340996168</c:v>
+                  <c:v>8.172701269157087</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.26640134099617</c:v>
+                  <c:v>8.266701269157088</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.36040134099617</c:v>
+                  <c:v>8.360701269157088</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.454401340996168</c:v>
+                  <c:v>8.454701269157087</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.548401340996168</c:v>
+                  <c:v>8.548701269157087</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.642401340996168</c:v>
+                  <c:v>8.642701269157086</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.736401340996169</c:v>
+                  <c:v>8.736701269157088</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.830401340996168</c:v>
+                  <c:v>8.830701269157087</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.92440134099617</c:v>
+                  <c:v>8.924701269157088</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.018401340996169</c:v>
+                  <c:v>9.018701269157088</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.112401340996168</c:v>
+                  <c:v>9.112701269157087</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.20640134099617</c:v>
+                  <c:v>9.206701269157088</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.300401340996168</c:v>
+                  <c:v>9.300701269157087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3708,11 +3708,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="2082777632"/>
-        <c:axId val="2082782864"/>
+        <c:axId val="2131299792"/>
+        <c:axId val="2131305168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2082777632"/>
+        <c:axId val="2131299792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3788,7 +3788,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082782864"/>
+        <c:crossAx val="2131305168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3796,7 +3796,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082782864"/>
+        <c:axId val="2131305168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3884,7 +3884,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082777632"/>
+        <c:crossAx val="2131299792"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4261,7 +4261,7 @@
   <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4318,36 +4318,36 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <f>89.6/32</f>
-        <v>2.8</v>
+        <f>84.8/32</f>
+        <v>2.65</v>
       </c>
       <c r="B3">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="C3">
-        <f>0.12045</f>
-        <v>0.12045</v>
+        <f>0.12044</f>
+        <v>0.12044000000000001</v>
       </c>
       <c r="D3">
-        <f>16.36</f>
-        <v>16.36</v>
+        <f>9.05</f>
+        <v>9.0500000000000007</v>
       </c>
       <c r="E3">
-        <f>0.1547</f>
-        <v>0.1547</v>
+        <f>0.1586</f>
+        <v>0.15859999999999999</v>
       </c>
       <c r="F3">
-        <f>137.7</f>
-        <v>137.69999999999999</v>
+        <f>104.8</f>
+        <v>104.8</v>
       </c>
       <c r="G3">
-        <f>0.1662</f>
-        <v>0.16619999999999999</v>
+        <f>0.1673</f>
+        <v>0.1673</v>
       </c>
       <c r="H3">
-        <f>278.5</f>
-        <v>278.5</v>
+        <f>264</f>
+        <v>264</v>
       </c>
       <c r="I3">
         <f>0.1707</f>
@@ -4410,23 +4410,23 @@
       </c>
       <c r="B8" s="4">
         <f>(A8*C$3*B$3-D$3*N$3/3600*A$3)/100</f>
-        <v>9.8473412013049322E-2</v>
+        <v>0.10893429092304741</v>
       </c>
       <c r="C8" s="5">
         <f>(A8*E$3*B$3-F$3*N$3/3600*A$3)/100</f>
-        <v>-3.027409326424868E-2</v>
+        <v>2.536261753981961E-2</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" ref="D8:D39" si="0">(A8*G$3*B$3-H$3*N$3/3600*A$3)/100</f>
-        <v>-0.20791245442333525</v>
+        <v>-0.16833615428900406</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ref="E8:E39" si="1">(A8*I$3*B$3-J$3*N$3/3600*A$3)/100</f>
-        <v>-0.81058957973517554</v>
+        <v>-0.75802049510650538</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ref="F8:F39" si="2">(A8*K$3*B$3-L$3*O$3/3600*A$3)/100</f>
-        <v>8.8401340996168573E-2</v>
+        <v>8.8701269157088133E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -4436,23 +4436,23 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" ref="B9:B39" si="4">(A9*C$3*B$3-D$3*N$3/3600*A$3)/100</f>
-        <v>0.2189234120130493</v>
+        <v>0.2293742909230474</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" ref="C9:C39" si="5">(A9*E$3*B$3-F$3*N$3/3600*A$3)/100</f>
-        <v>0.12442590673575132</v>
+        <v>0.1839626175398196</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>-4.1712454423335286E-2</v>
+        <v>-1.0361542890040454E-3</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>-0.63988957973517546</v>
+        <v>-0.58732049510650541</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="2"/>
-        <v>0.18240134099616859</v>
+        <v>0.18270126915708812</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -4462,23 +4462,23 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" si="4"/>
-        <v>0.33937341201304932</v>
+        <v>0.34981429092304744</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="5"/>
-        <v>0.27912590673575133</v>
+        <v>0.34256261753981959</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>0.12448754557666476</v>
+        <v>0.16626384571099592</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>-0.4691895797351755</v>
+        <v>-0.41662049510650545</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="2"/>
-        <v>0.27640134099616859</v>
+        <v>0.27670126915708809</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -4488,23 +4488,23 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" si="4"/>
-        <v>0.45982341201304933</v>
+        <v>0.47025429092304738</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="5"/>
-        <v>0.43382590673575139</v>
+        <v>0.50116261753981961</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>0.29068754557666465</v>
+        <v>0.33356384571099595</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>-0.29848957973517543</v>
+        <v>-0.2459204951065054</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="2"/>
-        <v>0.37040134099616856</v>
+        <v>0.37070126915708812</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -4514,23 +4514,23 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" si="4"/>
-        <v>0.58027341201304938</v>
+        <v>0.59069429092304748</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="5"/>
-        <v>0.58852590673575134</v>
+        <v>0.65976261753981957</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>0.45688754557666472</v>
+        <v>0.50086384571099596</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>-0.12778957973517549</v>
+        <v>-7.5220495106505469E-2</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="2"/>
-        <v>0.46440134099616853</v>
+        <v>0.46470126915708809</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -4540,23 +4540,23 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" si="4"/>
-        <v>0.70072341201304922</v>
+        <v>0.71113429092304759</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="5"/>
-        <v>0.7432259067357514</v>
+        <v>0.81836261753981954</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>0.62308754557666479</v>
+        <v>0.66816384571099585</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>4.2910420264824438E-2</v>
+        <v>9.5479504893494466E-2</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="2"/>
-        <v>0.55840134099616856</v>
+        <v>0.55870126915708807</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -4566,23 +4566,23 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" si="4"/>
-        <v>0.82117341201304928</v>
+        <v>0.83157429092304758</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="5"/>
-        <v>0.89792590673575134</v>
+        <v>0.97696261753981961</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>0.7892875455766647</v>
+        <v>0.83546384571099597</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>0.21361042026482452</v>
+        <v>0.26617950489349451</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="2"/>
-        <v>0.65240134099616853</v>
+        <v>0.65270126915708815</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -4592,23 +4592,23 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" si="4"/>
-        <v>0.94162341201304922</v>
+        <v>0.95201429092304746</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="5"/>
-        <v>1.0526259067357513</v>
+        <v>1.1355626175398195</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>0.9554875455766646</v>
+        <v>1.002763845710996</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>0.38431042026482459</v>
+        <v>0.43687950489349459</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="2"/>
-        <v>0.74640134099616862</v>
+        <v>0.74670126915708823</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -4618,23 +4618,23 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" si="4"/>
-        <v>1.0620734120130493</v>
+        <v>1.0724542909230474</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="5"/>
-        <v>1.2073259067357511</v>
+        <v>1.2941626175398193</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>1.1216875455766646</v>
+        <v>1.170063845710996</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="1"/>
-        <v>0.5550104202648245</v>
+        <v>0.60757950489349455</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="2"/>
-        <v>0.84040134099616848</v>
+        <v>0.84070126915708809</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4644,23 +4644,23 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" si="4"/>
-        <v>1.1825234120130492</v>
+        <v>1.1928942909230476</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="5"/>
-        <v>1.3620259067357514</v>
+        <v>1.4527626175398194</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>1.2878875455766647</v>
+        <v>1.3373638457109962</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="1"/>
-        <v>0.72571042026482446</v>
+        <v>0.77827950489349451</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="2"/>
-        <v>0.93440134099616856</v>
+        <v>0.93470126915708818</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -4670,23 +4670,23 @@
       </c>
       <c r="B18" s="4">
         <f t="shared" si="4"/>
-        <v>1.3029734120130494</v>
+        <v>1.3133342909230477</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="5"/>
-        <v>1.5167259067357515</v>
+        <v>1.6113626175398195</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>1.4540875455766646</v>
+        <v>1.5046638457109958</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>0.89641042026482443</v>
+        <v>0.94897950489349436</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="2"/>
-        <v>1.0284013409961685</v>
+        <v>1.0287012691570883</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -4696,23 +4696,23 @@
       </c>
       <c r="B19" s="4">
         <f t="shared" si="4"/>
-        <v>1.4234234120130491</v>
+        <v>1.4337742909230478</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="5"/>
-        <v>1.6714259067357515</v>
+        <v>1.7699626175398198</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="0"/>
-        <v>1.6202875455766648</v>
+        <v>1.671963845710996</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>1.0671104202648243</v>
+        <v>1.1196795048934944</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="2"/>
-        <v>1.1224013409961686</v>
+        <v>1.1227012691570881</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -4722,23 +4722,23 @@
       </c>
       <c r="B20" s="4">
         <f t="shared" si="4"/>
-        <v>1.5438734120130493</v>
+        <v>1.5542142909230474</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="5"/>
-        <v>1.8261259067357514</v>
+        <v>1.9285626175398192</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" si="0"/>
-        <v>1.7864875455766644</v>
+        <v>1.8392638457109962</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="1"/>
-        <v>1.2378104202648246</v>
+        <v>1.2903795048934945</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="2"/>
-        <v>1.2164013409961685</v>
+        <v>1.2167012691570882</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -4748,23 +4748,23 @@
       </c>
       <c r="B21" s="4">
         <f t="shared" si="4"/>
-        <v>1.6643234120130492</v>
+        <v>1.6746542909230475</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="5"/>
-        <v>1.9808259067357514</v>
+        <v>2.0871626175398195</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>1.9526875455766646</v>
+        <v>2.0065638457109958</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="1"/>
-        <v>1.4085104202648244</v>
+        <v>1.4610795048934944</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="2"/>
-        <v>1.3104013409961686</v>
+        <v>1.3107012691570881</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -4774,23 +4774,23 @@
       </c>
       <c r="B22" s="4">
         <f t="shared" si="4"/>
-        <v>1.7847734120130494</v>
+        <v>1.7950942909230474</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="5"/>
-        <v>2.1355259067357513</v>
+        <v>2.2457626175398193</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="0"/>
-        <v>2.1188875455766647</v>
+        <v>2.1738638457109958</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="1"/>
-        <v>1.5792104202648247</v>
+        <v>1.6317795048934949</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="2"/>
-        <v>1.4044013409961686</v>
+        <v>1.4047012691570882</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -4800,23 +4800,23 @@
       </c>
       <c r="B23" s="4">
         <f t="shared" si="4"/>
-        <v>1.9052234120130493</v>
+        <v>1.9155342909230475</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="5"/>
-        <v>2.2902259067357513</v>
+        <v>2.4043626175398196</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
-        <v>2.2850875455766642</v>
+        <v>2.3411638457109962</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="1"/>
-        <v>1.7499104202648246</v>
+        <v>1.8024795048934947</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="2"/>
-        <v>1.4984013409961687</v>
+        <v>1.4987012691570882</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -4826,23 +4826,23 @@
       </c>
       <c r="B24" s="4">
         <f t="shared" si="4"/>
-        <v>2.0256734120130493</v>
+        <v>2.0359742909230478</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="5"/>
-        <v>2.4449259067357514</v>
+        <v>2.5629626175398199</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" si="0"/>
-        <v>2.4512875455766645</v>
+        <v>2.5084638457109962</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="1"/>
-        <v>1.9206104202648246</v>
+        <v>1.9731795048934948</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="2"/>
-        <v>1.5924013409961688</v>
+        <v>1.5927012691570883</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -4852,23 +4852,23 @@
       </c>
       <c r="B25" s="4">
         <f t="shared" si="4"/>
-        <v>2.1461234120130492</v>
+        <v>2.1564142909230473</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="5"/>
-        <v>2.599625906735751</v>
+        <v>2.7215626175398193</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
-        <v>2.617487545576664</v>
+        <v>2.6757638457109958</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="1"/>
-        <v>2.0913104202648243</v>
+        <v>2.1438795048934947</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="2"/>
-        <v>1.6864013409961687</v>
+        <v>1.686701269157088</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -4878,23 +4878,23 @@
       </c>
       <c r="B26" s="4">
         <f t="shared" si="4"/>
-        <v>2.2665734120130492</v>
+        <v>2.2768542909230476</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="5"/>
-        <v>2.7543259067357515</v>
+        <v>2.8801626175398196</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>2.7836875455766643</v>
+        <v>2.8430638457109962</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="1"/>
-        <v>2.2620104202648244</v>
+        <v>2.3145795048934947</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="2"/>
-        <v>1.7804013409961685</v>
+        <v>1.780701269157088</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -4904,23 +4904,23 @@
       </c>
       <c r="B27" s="4">
         <f t="shared" si="4"/>
-        <v>2.3870234120130491</v>
+        <v>2.3972942909230479</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="5"/>
-        <v>2.9090259067357516</v>
+        <v>3.0387626175398195</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>2.9498875455766642</v>
+        <v>3.0103638457109962</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="1"/>
-        <v>2.4327104202648244</v>
+        <v>2.4852795048934944</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="2"/>
-        <v>1.8744013409961686</v>
+        <v>1.8747012691570881</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -4930,23 +4930,23 @@
       </c>
       <c r="B28" s="4">
         <f t="shared" si="4"/>
-        <v>2.5074734120130491</v>
+        <v>2.5177342909230473</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="5"/>
-        <v>3.0637259067357512</v>
+        <v>3.1973626175398198</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>3.1160875455766641</v>
+        <v>3.1776638457109958</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="1"/>
-        <v>2.6034104202648245</v>
+        <v>2.6559795048934944</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="2"/>
-        <v>1.9684013409961687</v>
+        <v>1.9687012691570882</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -4956,23 +4956,23 @@
       </c>
       <c r="B29" s="4">
         <f t="shared" si="4"/>
-        <v>2.6279234120130495</v>
+        <v>2.6381742909230472</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="5"/>
-        <v>3.2184259067357517</v>
+        <v>3.3559626175398192</v>
       </c>
       <c r="D29" s="5">
         <f t="shared" si="0"/>
-        <v>3.2822875455766645</v>
+        <v>3.3449638457109963</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="1"/>
-        <v>2.7741104202648241</v>
+        <v>2.8266795048934945</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="2"/>
-        <v>2.062401340996169</v>
+        <v>2.0627012691570883</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -4982,23 +4982,23 @@
       </c>
       <c r="B30" s="4">
         <f t="shared" si="4"/>
-        <v>2.7483734120130499</v>
+        <v>2.7586142909230471</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="5"/>
-        <v>3.3731259067357513</v>
+        <v>3.5145626175398195</v>
       </c>
       <c r="D30" s="5">
         <f t="shared" si="0"/>
-        <v>3.4484875455766644</v>
+        <v>3.5122638457109963</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="1"/>
-        <v>2.9448104202648242</v>
+        <v>2.9973795048934941</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="2"/>
-        <v>2.1564013409961684</v>
+        <v>2.1567012691570882</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -5011,23 +5011,23 @@
       </c>
       <c r="B31" s="4">
         <f t="shared" si="4"/>
-        <v>2.8688234120130494</v>
+        <v>2.8790542909230474</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="5"/>
-        <v>3.5278259067357514</v>
+        <v>3.6731626175398198</v>
       </c>
       <c r="D31" s="5">
         <f t="shared" si="0"/>
-        <v>3.6146875455766643</v>
+        <v>3.6795638457109958</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="1"/>
-        <v>3.1155104202648238</v>
+        <v>3.1680795048934942</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="2"/>
-        <v>2.2504013409961687</v>
+        <v>2.250701269157088</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -5037,23 +5037,23 @@
       </c>
       <c r="B32" s="4">
         <f t="shared" si="4"/>
-        <v>2.9892734120130497</v>
+        <v>2.9994942909230473</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="5"/>
-        <v>3.6825259067357514</v>
+        <v>3.8317626175398196</v>
       </c>
       <c r="D32" s="5">
         <f t="shared" si="0"/>
-        <v>3.7808875455766646</v>
+        <v>3.8468638457109963</v>
       </c>
       <c r="E32" s="6">
         <f t="shared" si="1"/>
-        <v>3.2862104202648244</v>
+        <v>3.3387795048934947</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="2"/>
-        <v>2.3444013409961686</v>
+        <v>2.3447012691570883</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -5063,23 +5063,23 @@
       </c>
       <c r="B33" s="4">
         <f t="shared" si="4"/>
-        <v>3.1097234120130497</v>
+        <v>3.1199342909230472</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="5"/>
-        <v>3.8372259067357515</v>
+        <v>3.9903626175398195</v>
       </c>
       <c r="D33" s="5">
         <f t="shared" si="0"/>
-        <v>3.9470875455766645</v>
+        <v>4.0141638457109963</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="1"/>
-        <v>3.4569104202648249</v>
+        <v>3.5094795048934948</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="2"/>
-        <v>2.4384013409961689</v>
+        <v>2.4387012691570882</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -5089,23 +5089,23 @@
       </c>
       <c r="B34" s="4">
         <f t="shared" si="4"/>
-        <v>3.2301734120130501</v>
+        <v>3.2403742909230471</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" si="5"/>
-        <v>3.9919259067357511</v>
+        <v>4.1489626175398193</v>
       </c>
       <c r="D34" s="5">
         <f t="shared" si="0"/>
-        <v>4.1132875455766644</v>
+        <v>4.1814638457109963</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="1"/>
-        <v>3.6276104202648241</v>
+        <v>3.6801795048934944</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="2"/>
-        <v>2.5324013409961688</v>
+        <v>2.5327012691570885</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -5115,23 +5115,23 @@
       </c>
       <c r="B35" s="4">
         <f t="shared" si="4"/>
-        <v>3.3506234120130496</v>
+        <v>3.3608142909230474</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="5"/>
-        <v>4.1466259067357516</v>
+        <v>4.3075626175398192</v>
       </c>
       <c r="D35" s="5">
         <f t="shared" si="0"/>
-        <v>4.2794875455766643</v>
+        <v>4.3487638457109963</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" si="1"/>
-        <v>3.7983104202648246</v>
+        <v>3.8508795048934945</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="2"/>
-        <v>2.6264013409961682</v>
+        <v>2.6267012691570879</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -5141,23 +5141,23 @@
       </c>
       <c r="B36" s="4">
         <f t="shared" si="4"/>
-        <v>3.4710734120130495</v>
+        <v>3.4812542909230473</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="5"/>
-        <v>4.3013259067357517</v>
+        <v>4.4661626175398199</v>
       </c>
       <c r="D36" s="5">
         <f t="shared" si="0"/>
-        <v>4.4456875455766642</v>
+        <v>4.5160638457109963</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" si="1"/>
-        <v>3.9690104202648242</v>
+        <v>4.0215795048934941</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="2"/>
-        <v>2.7204013409961685</v>
+        <v>2.7207012691570882</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -5167,23 +5167,23 @@
       </c>
       <c r="B37" s="4">
         <f t="shared" si="4"/>
-        <v>3.5915234120130499</v>
+        <v>3.6016942909230472</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="5"/>
-        <v>4.4560259067357517</v>
+        <v>4.6247626175398189</v>
       </c>
       <c r="D37" s="5">
         <f t="shared" si="0"/>
-        <v>4.611887545576665</v>
+        <v>4.6833638457109963</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="1"/>
-        <v>4.1397104202648247</v>
+        <v>4.1922795048934951</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="2"/>
-        <v>2.8144013409961683</v>
+        <v>2.8147012691570881</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>21</v>
@@ -5196,23 +5196,23 @@
       </c>
       <c r="B38" s="4">
         <f t="shared" si="4"/>
-        <v>3.7119734120130494</v>
+        <v>3.7221342909230475</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="5"/>
-        <v>4.6107259067357509</v>
+        <v>4.7833626175398196</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" si="0"/>
-        <v>4.778087545576664</v>
+        <v>4.8506638457109963</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" si="1"/>
-        <v>4.3104104202648239</v>
+        <v>4.3629795048934943</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="2"/>
-        <v>2.9084013409961682</v>
+        <v>2.9087012691570879</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>22</v>
@@ -5237,43 +5237,43 @@
       </c>
       <c r="B39" s="4">
         <f t="shared" si="4"/>
-        <v>3.8324234120130494</v>
+        <v>3.8425742909230474</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="5"/>
-        <v>4.7654259067357518</v>
+        <v>4.9419626175398195</v>
       </c>
       <c r="D39" s="5">
         <f t="shared" si="0"/>
-        <v>4.9442875455766639</v>
+        <v>5.0179638457109963</v>
       </c>
       <c r="E39" s="6">
         <f t="shared" si="1"/>
-        <v>4.481110420264824</v>
+        <v>4.5336795048934952</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="2"/>
-        <v>3.0024013409961685</v>
+        <v>3.0027012691570882</v>
       </c>
       <c r="H39" s="3">
         <f>D3*A3/3600*N3*B3/C3</f>
-        <v>18.245403060980223</v>
+        <v>9.5530629997945873</v>
       </c>
       <c r="I39" s="7">
         <f>(F3-D3)*A3/3600*N3*B3/(E3-C3)</f>
-        <v>475.90512489722045</v>
+        <v>319.00333695814419</v>
       </c>
       <c r="J39" s="7">
         <f>(H3-F3)*A3/3600*N3*B3/(G3-E3)</f>
-        <v>1644.6814013833639</v>
+        <v>2326.4226646991187</v>
       </c>
       <c r="K39" s="7">
         <f>(J3-H3)*A3/3600*N3*B3/(I3-G3)</f>
-        <v>13492.825006929772</v>
+        <v>17443.657082867758</v>
       </c>
       <c r="L39" s="8">
         <f>L3*A3/3600*O3*B3/I3</f>
-        <v>3.2798236694970222</v>
+        <v>3.1041188300596825</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -5283,23 +5283,23 @@
       </c>
       <c r="B40" s="4">
         <f t="shared" ref="B40:B71" si="6">(A40*C$3*B$3-D$3*N$3/3600*A$3)/100</f>
-        <v>3.9528734120130498</v>
+        <v>3.9630142909230472</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" ref="C40:C71" si="7">(A40*E$3*B$3-F$3*N$3/3600*A$3)/100</f>
-        <v>4.920125906735751</v>
+        <v>5.1005626175398193</v>
       </c>
       <c r="D40" s="5">
         <f t="shared" ref="D40:D71" si="8">(A40*G$3*B$3-H$3*N$3/3600*A$3)/100</f>
-        <v>5.1104875455766638</v>
+        <v>5.1852638457109954</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" ref="E40:E71" si="9">(A40*I$3*B$3-J$3*N$3/3600*A$3)/100</f>
-        <v>4.6518104202648241</v>
+        <v>4.7043795048934944</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" ref="F40:F71" si="10">(A40*K$3*B$3-L$3*O$3/3600*A$3)/100</f>
-        <v>3.0964013409961684</v>
+        <v>3.0967012691570881</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -5309,23 +5309,23 @@
       </c>
       <c r="B41" s="4">
         <f t="shared" si="6"/>
-        <v>4.0733234120130497</v>
+        <v>4.0834542909230471</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="7"/>
-        <v>5.0748259067357511</v>
+        <v>5.2591626175398201</v>
       </c>
       <c r="D41" s="5">
         <f t="shared" si="8"/>
-        <v>5.2766875455766638</v>
+        <v>5.3525638457109963</v>
       </c>
       <c r="E41" s="6">
         <f t="shared" si="9"/>
-        <v>4.8225104202648241</v>
+        <v>4.8750795048934945</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" si="10"/>
-        <v>3.1904013409961687</v>
+        <v>3.1907012691570884</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -5335,23 +5335,23 @@
       </c>
       <c r="B42" s="4">
         <f t="shared" si="6"/>
-        <v>4.1937734120130497</v>
+        <v>4.2038942909230474</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="7"/>
-        <v>5.229525906735752</v>
+        <v>5.4177626175398199</v>
       </c>
       <c r="D42" s="5">
         <f t="shared" si="8"/>
-        <v>5.4428875455766637</v>
+        <v>5.5198638457109963</v>
       </c>
       <c r="E42" s="6">
         <f t="shared" si="9"/>
-        <v>4.9932104202648233</v>
+        <v>5.0457795048934937</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" si="10"/>
-        <v>3.2844013409961685</v>
+        <v>3.2847012691570883</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -5361,23 +5361,23 @@
       </c>
       <c r="B43" s="4">
         <f t="shared" si="6"/>
-        <v>4.3142234120130496</v>
+        <v>4.3243342909230469</v>
       </c>
       <c r="C43" s="5">
         <f t="shared" si="7"/>
-        <v>5.3842259067357512</v>
+        <v>5.5763626175398189</v>
       </c>
       <c r="D43" s="5">
         <f t="shared" si="8"/>
-        <v>5.6090875455766636</v>
+        <v>5.6871638457109954</v>
       </c>
       <c r="E43" s="6">
         <f t="shared" si="9"/>
-        <v>5.1639104202648243</v>
+        <v>5.2164795048934947</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="10"/>
-        <v>3.3784013409961684</v>
+        <v>3.3787012691570881</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -5387,23 +5387,23 @@
       </c>
       <c r="B44" s="4">
         <f t="shared" si="6"/>
-        <v>4.4346734120130495</v>
+        <v>4.4447742909230472</v>
       </c>
       <c r="C44" s="5">
         <f t="shared" si="7"/>
-        <v>5.5389259067357512</v>
+        <v>5.7349626175398187</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" si="8"/>
-        <v>5.7752875455766635</v>
+        <v>5.8544638457109954</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" si="9"/>
-        <v>5.3346104202648235</v>
+        <v>5.3871795048934938</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="10"/>
-        <v>3.4724013409961687</v>
+        <v>3.4727012691570884</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -5413,23 +5413,23 @@
       </c>
       <c r="B45" s="4">
         <f t="shared" si="6"/>
-        <v>4.5551234120130495</v>
+        <v>4.5652142909230475</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="7"/>
-        <v>5.6936259067357513</v>
+        <v>5.8935626175398195</v>
       </c>
       <c r="D45" s="5">
         <f t="shared" si="8"/>
-        <v>5.9414875455766643</v>
+        <v>6.0217638457109954</v>
       </c>
       <c r="E45" s="6">
         <f t="shared" si="9"/>
-        <v>5.5053104202648235</v>
+        <v>5.5578795048934948</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="10"/>
-        <v>3.5664013409961681</v>
+        <v>3.5667012691570879</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -5439,23 +5439,23 @@
       </c>
       <c r="B46" s="4">
         <f t="shared" si="6"/>
-        <v>4.6755734120130494</v>
+        <v>4.685654290923047</v>
       </c>
       <c r="C46" s="5">
         <f t="shared" si="7"/>
-        <v>5.8483259067357514</v>
+        <v>6.0521626175398193</v>
       </c>
       <c r="D46" s="5">
         <f t="shared" si="8"/>
-        <v>6.1076875455766642</v>
+        <v>6.1890638457109954</v>
       </c>
       <c r="E46" s="6">
         <f t="shared" si="9"/>
-        <v>5.6760104202648245</v>
+        <v>5.7285795048934949</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="10"/>
-        <v>3.6604013409961684</v>
+        <v>3.6607012691570886</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -5465,23 +5465,23 @@
       </c>
       <c r="B47" s="4">
         <f t="shared" si="6"/>
-        <v>4.7960234120130494</v>
+        <v>4.8060942909230473</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="7"/>
-        <v>6.0030259067357523</v>
+        <v>6.2107626175398192</v>
       </c>
       <c r="D47" s="5">
         <f t="shared" si="8"/>
-        <v>6.2738875455766641</v>
+        <v>6.3563638457109963</v>
       </c>
       <c r="E47" s="6">
         <f t="shared" si="9"/>
-        <v>5.8467104202648237</v>
+        <v>5.8992795048934941</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" si="10"/>
-        <v>3.7544013409961683</v>
+        <v>3.754701269157088</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -5491,23 +5491,23 @@
       </c>
       <c r="B48" s="4">
         <f t="shared" si="6"/>
-        <v>4.9164734120130502</v>
+        <v>4.9265342909230476</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="7"/>
-        <v>6.1577259067357515</v>
+        <v>6.3693626175398199</v>
       </c>
       <c r="D48" s="5">
         <f t="shared" si="8"/>
-        <v>6.440087545576664</v>
+        <v>6.5236638457109963</v>
       </c>
       <c r="E48" s="6">
         <f t="shared" si="9"/>
-        <v>6.0174104202648246</v>
+        <v>6.069979504893495</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="10"/>
-        <v>3.8484013409961682</v>
+        <v>3.8487012691570879</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -5517,23 +5517,23 @@
       </c>
       <c r="B49" s="4">
         <f t="shared" si="6"/>
-        <v>5.0369234120130493</v>
+        <v>5.0469742909230471</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="7"/>
-        <v>6.3124259067357515</v>
+        <v>6.5279626175398198</v>
       </c>
       <c r="D49" s="5">
         <f t="shared" si="8"/>
-        <v>6.6062875455766639</v>
+        <v>6.6909638457109955</v>
       </c>
       <c r="E49" s="6">
         <f t="shared" si="9"/>
-        <v>6.1881104202648238</v>
+        <v>6.2406795048934942</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" si="10"/>
-        <v>3.9424013409961685</v>
+        <v>3.9427012691570882</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -5543,23 +5543,23 @@
       </c>
       <c r="B50" s="4">
         <f t="shared" si="6"/>
-        <v>5.1573734120130492</v>
+        <v>5.1674142909230474</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="7"/>
-        <v>6.4671259067357516</v>
+        <v>6.6865626175398187</v>
       </c>
       <c r="D50" s="5">
         <f t="shared" si="8"/>
-        <v>6.7724875455766638</v>
+        <v>6.8582638457109955</v>
       </c>
       <c r="E50" s="6">
         <f t="shared" si="9"/>
-        <v>6.3588104202648239</v>
+        <v>6.4113795048934943</v>
       </c>
       <c r="F50" s="6">
         <f t="shared" si="10"/>
-        <v>4.0364013409961679</v>
+        <v>4.0367012691570885</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -5569,23 +5569,23 @@
       </c>
       <c r="B51" s="4">
         <f t="shared" si="6"/>
-        <v>5.2778234120130492</v>
+        <v>5.2878542909230477</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="7"/>
-        <v>6.6218259067357517</v>
+        <v>6.8451626175398186</v>
       </c>
       <c r="D51" s="5">
         <f t="shared" si="8"/>
-        <v>6.9386875455766646</v>
+        <v>7.0255638457109955</v>
       </c>
       <c r="E51" s="6">
         <f t="shared" si="9"/>
-        <v>6.529510420264824</v>
+        <v>6.5820795048934944</v>
       </c>
       <c r="F51" s="6">
         <f t="shared" si="10"/>
-        <v>4.1304013409961691</v>
+        <v>4.1307012691570888</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -5595,23 +5595,23 @@
       </c>
       <c r="B52" s="4">
         <f t="shared" si="6"/>
-        <v>5.3982734120130491</v>
+        <v>5.4082942909230471</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="7"/>
-        <v>6.7765259067357508</v>
+        <v>7.0037626175398193</v>
       </c>
       <c r="D52" s="5">
         <f t="shared" si="8"/>
-        <v>7.1048875455766645</v>
+        <v>7.1928638457109955</v>
       </c>
       <c r="E52" s="6">
         <f t="shared" si="9"/>
-        <v>6.7002104202648241</v>
+        <v>6.7527795048934944</v>
       </c>
       <c r="F52" s="6">
         <f t="shared" si="10"/>
-        <v>4.2244013409961685</v>
+        <v>4.2247012691570882</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -5621,23 +5621,23 @@
       </c>
       <c r="B53" s="4">
         <f t="shared" si="6"/>
-        <v>5.5187234120130491</v>
+        <v>5.5287342909230475</v>
       </c>
       <c r="C53" s="5">
         <f t="shared" si="7"/>
-        <v>6.9312259067357509</v>
+        <v>7.1623626175398192</v>
       </c>
       <c r="D53" s="5">
         <f t="shared" si="8"/>
-        <v>7.2710875455766644</v>
+        <v>7.3601638457109964</v>
       </c>
       <c r="E53" s="6">
         <f t="shared" si="9"/>
-        <v>6.8709104202648232</v>
+        <v>6.9234795048934936</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" si="10"/>
-        <v>4.3184013409961679</v>
+        <v>4.3187012691570876</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -5647,23 +5647,23 @@
       </c>
       <c r="B54" s="4">
         <f t="shared" si="6"/>
-        <v>5.639173412013049</v>
+        <v>5.6491742909230469</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="7"/>
-        <v>7.0859259067357518</v>
+        <v>7.320962617539819</v>
       </c>
       <c r="D54" s="5">
         <f t="shared" si="8"/>
-        <v>7.4372875455766643</v>
+        <v>7.5274638457109964</v>
       </c>
       <c r="E54" s="6">
         <f t="shared" si="9"/>
-        <v>7.0416104202648242</v>
+        <v>7.0941795048934946</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" si="10"/>
-        <v>4.4124013409961682</v>
+        <v>4.4127012691570879</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -5673,23 +5673,23 @@
       </c>
       <c r="B55" s="4">
         <f t="shared" si="6"/>
-        <v>5.7596234120130489</v>
+        <v>5.7696142909230481</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="7"/>
-        <v>7.2406259067357519</v>
+        <v>7.4795626175398198</v>
       </c>
       <c r="D55" s="5">
         <f t="shared" si="8"/>
-        <v>7.6034875455766642</v>
+        <v>7.6947638457109955</v>
       </c>
       <c r="E55" s="6">
         <f t="shared" si="9"/>
-        <v>7.2123104202648234</v>
+        <v>7.2648795048934938</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" si="10"/>
-        <v>4.5064013409961685</v>
+        <v>4.5067012691570882</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -5699,23 +5699,23 @@
       </c>
       <c r="B56" s="4">
         <f t="shared" si="6"/>
-        <v>5.8800734120130498</v>
+        <v>5.8900542909230476</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="7"/>
-        <v>7.3953259067357511</v>
+        <v>7.6381626175398196</v>
       </c>
       <c r="D56" s="5">
         <f t="shared" si="8"/>
-        <v>7.7696875455766632</v>
+        <v>7.8620638457109955</v>
       </c>
       <c r="E56" s="6">
         <f t="shared" si="9"/>
-        <v>7.3830104202648235</v>
+        <v>7.4355795048934938</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" si="10"/>
-        <v>4.6004013409961688</v>
+        <v>4.6007012691570885</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -5725,23 +5725,23 @@
       </c>
       <c r="B57" s="4">
         <f t="shared" si="6"/>
-        <v>6.0005234120130488</v>
+        <v>6.0104942909230479</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="7"/>
-        <v>7.5500259067357511</v>
+        <v>7.7967626175398195</v>
       </c>
       <c r="D57" s="5">
         <f t="shared" si="8"/>
-        <v>7.9358875455766631</v>
+        <v>8.0293638457109964</v>
       </c>
       <c r="E57" s="6">
         <f t="shared" si="9"/>
-        <v>7.5537104202648244</v>
+        <v>7.6062795048934948</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" si="10"/>
-        <v>4.6944013409961682</v>
+        <v>4.694701269157088</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -5751,23 +5751,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" si="6"/>
-        <v>6.1209734120130488</v>
+        <v>6.1309342909230473</v>
       </c>
       <c r="C58" s="5">
         <f t="shared" si="7"/>
-        <v>7.7047259067357512</v>
+        <v>7.9553626175398184</v>
       </c>
       <c r="D58" s="5">
         <f t="shared" si="8"/>
-        <v>8.1020875455766639</v>
+        <v>8.1966638457109955</v>
       </c>
       <c r="E58" s="6">
         <f t="shared" si="9"/>
-        <v>7.7244104202648236</v>
+        <v>7.776979504893494</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" si="10"/>
-        <v>4.7884013409961685</v>
+        <v>4.7887012691570883</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -5777,23 +5777,23 @@
       </c>
       <c r="B59" s="4">
         <f t="shared" si="6"/>
-        <v>6.2414234120130496</v>
+        <v>6.2513742909230476</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="7"/>
-        <v>7.8594259067357521</v>
+        <v>8.1139626175398192</v>
       </c>
       <c r="D59" s="5">
         <f t="shared" si="8"/>
-        <v>8.2682875455766638</v>
+        <v>8.3639638457109964</v>
       </c>
       <c r="E59" s="6">
         <f t="shared" si="9"/>
-        <v>7.8951104202648246</v>
+        <v>7.947679504893495</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" si="10"/>
-        <v>4.8824013409961688</v>
+        <v>4.8827012691570886</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -5803,23 +5803,23 @@
       </c>
       <c r="B60" s="4">
         <f t="shared" si="6"/>
-        <v>6.3618734120130487</v>
+        <v>6.3718142909230471</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="7"/>
-        <v>8.0141259067357513</v>
+        <v>8.272562617539819</v>
       </c>
       <c r="D60" s="5">
         <f t="shared" si="8"/>
-        <v>8.4344875455766637</v>
+        <v>8.5312638457109955</v>
       </c>
       <c r="E60" s="6">
         <f t="shared" si="9"/>
-        <v>8.0658104202648229</v>
+        <v>8.1183795048934932</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" si="10"/>
-        <v>4.9764013409961683</v>
+        <v>4.976701269157088</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -5829,23 +5829,23 @@
       </c>
       <c r="B61" s="4">
         <f t="shared" si="6"/>
-        <v>6.4823234120130495</v>
+        <v>6.4922542909230465</v>
       </c>
       <c r="C61" s="5">
         <f t="shared" si="7"/>
-        <v>8.1688259067357514</v>
+        <v>8.4311626175398189</v>
       </c>
       <c r="D61" s="5">
         <f t="shared" si="8"/>
-        <v>8.6006875455766636</v>
+        <v>8.6985638457109964</v>
       </c>
       <c r="E61" s="6">
         <f t="shared" si="9"/>
-        <v>8.2365104202648247</v>
+        <v>8.2890795048934951</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" si="10"/>
-        <v>5.0704013409961686</v>
+        <v>5.0707012691570883</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -5855,23 +5855,23 @@
       </c>
       <c r="B62" s="4">
         <f t="shared" si="6"/>
-        <v>6.6027734120130495</v>
+        <v>6.6126942909230477</v>
       </c>
       <c r="C62" s="5">
         <f t="shared" si="7"/>
-        <v>8.3235259067357514</v>
+        <v>8.5897626175398187</v>
       </c>
       <c r="D62" s="5">
         <f t="shared" si="8"/>
-        <v>8.7668875455766635</v>
+        <v>8.8658638457109955</v>
       </c>
       <c r="E62" s="6">
         <f t="shared" si="9"/>
-        <v>8.407210420264823</v>
+        <v>8.4597795048934934</v>
       </c>
       <c r="F62" s="6">
         <f t="shared" si="10"/>
-        <v>5.1644013409961689</v>
+        <v>5.1647012691570877</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -5881,23 +5881,23 @@
       </c>
       <c r="B63" s="4">
         <f t="shared" si="6"/>
-        <v>6.7232234120130485</v>
+        <v>6.733134290923048</v>
       </c>
       <c r="C63" s="5">
         <f t="shared" si="7"/>
-        <v>8.4782259067357515</v>
+        <v>8.7483626175398186</v>
       </c>
       <c r="D63" s="5">
         <f t="shared" si="8"/>
-        <v>8.9330875455766634</v>
+        <v>9.0331638457109946</v>
       </c>
       <c r="E63" s="6">
         <f t="shared" si="9"/>
-        <v>8.5779104202648231</v>
+        <v>8.6304795048934935</v>
       </c>
       <c r="F63" s="6">
         <f t="shared" si="10"/>
-        <v>5.2584013409961692</v>
+        <v>5.2587012691570871</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -5907,23 +5907,23 @@
       </c>
       <c r="B64" s="4">
         <f t="shared" si="6"/>
-        <v>6.8436734120130494</v>
+        <v>6.8535742909230475</v>
       </c>
       <c r="C64" s="5">
         <f t="shared" si="7"/>
-        <v>8.6329259067357516</v>
+        <v>8.9069626175398202</v>
       </c>
       <c r="D64" s="5">
         <f t="shared" si="8"/>
-        <v>9.0992875455766633</v>
+        <v>9.2004638457109955</v>
       </c>
       <c r="E64" s="6">
         <f t="shared" si="9"/>
-        <v>8.7486104202648232</v>
+        <v>8.8011795048934935</v>
       </c>
       <c r="F64" s="6">
         <f t="shared" si="10"/>
-        <v>5.3524013409961686</v>
+        <v>5.3527012691570874</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -5933,23 +5933,23 @@
       </c>
       <c r="B65" s="4">
         <f t="shared" si="6"/>
-        <v>6.9641234120130493</v>
+        <v>6.9740142909230478</v>
       </c>
       <c r="C65" s="5">
         <f t="shared" si="7"/>
-        <v>8.7876259067357516</v>
+        <v>9.0655626175398201</v>
       </c>
       <c r="D65" s="5">
         <f t="shared" si="8"/>
-        <v>9.2654875455766632</v>
+        <v>9.3677638457109964</v>
       </c>
       <c r="E65" s="6">
         <f t="shared" si="9"/>
-        <v>8.9193104202648232</v>
+        <v>8.9718795048934936</v>
       </c>
       <c r="F65" s="6">
         <f t="shared" si="10"/>
-        <v>5.4464013409961698</v>
+        <v>5.4467012691570877</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -5959,23 +5959,23 @@
       </c>
       <c r="B66" s="4">
         <f t="shared" si="6"/>
-        <v>7.0845734120130484</v>
+        <v>7.0944542909230472</v>
       </c>
       <c r="C66" s="5">
         <f t="shared" si="7"/>
-        <v>8.9423259067357517</v>
+        <v>9.2241626175398181</v>
       </c>
       <c r="D66" s="5">
         <f t="shared" si="8"/>
-        <v>9.4316875455766631</v>
+        <v>9.5350638457109955</v>
       </c>
       <c r="E66" s="6">
         <f t="shared" si="9"/>
-        <v>9.0900104202648251</v>
+        <v>9.1425795048934955</v>
       </c>
       <c r="F66" s="6">
         <f t="shared" si="10"/>
-        <v>5.5404013409961692</v>
+        <v>5.540701269157088</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -5985,23 +5985,23 @@
       </c>
       <c r="B67" s="4">
         <f t="shared" si="6"/>
-        <v>7.2050234120130492</v>
+        <v>7.2148942909230467</v>
       </c>
       <c r="C67" s="5">
         <f t="shared" si="7"/>
-        <v>9.0970259067357517</v>
+        <v>9.382762617539818</v>
       </c>
       <c r="D67" s="5">
         <f t="shared" si="8"/>
-        <v>9.597887545576663</v>
+        <v>9.7023638457109964</v>
       </c>
       <c r="E67" s="6">
         <f t="shared" si="9"/>
-        <v>9.2607104202648252</v>
+        <v>9.3132795048934955</v>
       </c>
       <c r="F67" s="6">
         <f t="shared" si="10"/>
-        <v>5.6344013409961686</v>
+        <v>5.6347012691570875</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -6011,23 +6011,23 @@
       </c>
       <c r="B68" s="4">
         <f t="shared" si="6"/>
-        <v>7.3254734120130491</v>
+        <v>7.3353342909230479</v>
       </c>
       <c r="C68" s="5">
         <f t="shared" si="7"/>
-        <v>9.2517259067357518</v>
+        <v>9.5413626175398196</v>
       </c>
       <c r="D68" s="5">
         <f t="shared" si="8"/>
-        <v>9.7640875455766647</v>
+        <v>9.8696638457109955</v>
       </c>
       <c r="E68" s="6">
         <f t="shared" si="9"/>
-        <v>9.4314104202648235</v>
+        <v>9.4839795048934938</v>
       </c>
       <c r="F68" s="6">
         <f t="shared" si="10"/>
-        <v>5.7284013409961689</v>
+        <v>5.7287012691570878</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -6037,23 +6037,23 @@
       </c>
       <c r="B69" s="4">
         <f t="shared" si="6"/>
-        <v>7.4459234120130482</v>
+        <v>7.4557742909230482</v>
       </c>
       <c r="C69" s="5">
         <f t="shared" si="7"/>
-        <v>9.4064259067357519</v>
+        <v>9.6999626175398195</v>
       </c>
       <c r="D69" s="5">
         <f t="shared" si="8"/>
-        <v>9.9302875455766628</v>
+        <v>10.036963845710995</v>
       </c>
       <c r="E69" s="6">
         <f t="shared" si="9"/>
-        <v>9.6021104202648235</v>
+        <v>9.6546795048934939</v>
       </c>
       <c r="F69" s="6">
         <f t="shared" si="10"/>
-        <v>5.8224013409961684</v>
+        <v>5.8227012691570872</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -6063,23 +6063,23 @@
       </c>
       <c r="B70" s="4">
         <f t="shared" si="6"/>
-        <v>7.566373412013049</v>
+        <v>7.5762142909230477</v>
       </c>
       <c r="C70" s="5">
         <f t="shared" si="7"/>
-        <v>9.5611259067357519</v>
+        <v>9.8585626175398193</v>
       </c>
       <c r="D70" s="5">
         <f t="shared" si="8"/>
-        <v>10.096487545576665</v>
+        <v>10.204263845710996</v>
       </c>
       <c r="E70" s="6">
         <f t="shared" si="9"/>
-        <v>9.7728104202648236</v>
+        <v>9.825379504893494</v>
       </c>
       <c r="F70" s="6">
         <f t="shared" si="10"/>
-        <v>5.9164013409961695</v>
+        <v>5.9167012691570884</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -6089,23 +6089,23 @@
       </c>
       <c r="B71" s="4">
         <f t="shared" si="6"/>
-        <v>7.686823412013049</v>
+        <v>7.6966542909230471</v>
       </c>
       <c r="C71" s="5">
         <f t="shared" si="7"/>
-        <v>9.715825906735752</v>
+        <v>10.017162617539819</v>
       </c>
       <c r="D71" s="5">
         <f t="shared" si="8"/>
-        <v>10.262687545576664</v>
+        <v>10.371563845710996</v>
       </c>
       <c r="E71" s="6">
         <f t="shared" si="9"/>
-        <v>9.9435104202648237</v>
+        <v>9.9960795048934941</v>
       </c>
       <c r="F71" s="6">
         <f t="shared" si="10"/>
-        <v>6.010401340996169</v>
+        <v>6.0107012691570878</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -6115,23 +6115,23 @@
       </c>
       <c r="B72" s="4">
         <f t="shared" ref="B72:B103" si="12">(A72*C$3*B$3-D$3*N$3/3600*A$3)/100</f>
-        <v>7.8072734120130489</v>
+        <v>7.8170942909230474</v>
       </c>
       <c r="C72" s="5">
         <f t="shared" ref="C72:C103" si="13">(A72*E$3*B$3-F$3*N$3/3600*A$3)/100</f>
-        <v>9.870525906735752</v>
+        <v>10.175762617539819</v>
       </c>
       <c r="D72" s="5">
         <f t="shared" ref="D72:D107" si="14">(A72*G$3*B$3-H$3*N$3/3600*A$3)/100</f>
-        <v>10.428887545576664</v>
+        <v>10.538863845710996</v>
       </c>
       <c r="E72" s="6">
         <f t="shared" ref="E72:E107" si="15">(A72*I$3*B$3-J$3*N$3/3600*A$3)/100</f>
-        <v>10.114210420264824</v>
+        <v>10.166779504893494</v>
       </c>
       <c r="F72" s="6">
         <f t="shared" ref="F72:F107" si="16">(A72*K$3*B$3-L$3*O$3/3600*A$3)/100</f>
-        <v>6.1044013409961693</v>
+        <v>6.1047012691570872</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -6141,23 +6141,23 @@
       </c>
       <c r="B73" s="4">
         <f t="shared" si="12"/>
-        <v>7.9277234120130489</v>
+        <v>7.9375342909230469</v>
       </c>
       <c r="C73" s="5">
         <f t="shared" si="13"/>
-        <v>10.02522590673575</v>
+        <v>10.334362617539819</v>
       </c>
       <c r="D73" s="5">
         <f t="shared" si="14"/>
-        <v>10.595087545576664</v>
+        <v>10.706163845710996</v>
       </c>
       <c r="E73" s="6">
         <f t="shared" si="15"/>
-        <v>10.284910420264824</v>
+        <v>10.337479504893492</v>
       </c>
       <c r="F73" s="6">
         <f t="shared" si="16"/>
-        <v>6.1984013409961687</v>
+        <v>6.1987012691570875</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -6167,23 +6167,23 @@
       </c>
       <c r="B74" s="4">
         <f t="shared" si="12"/>
-        <v>8.0481734120130497</v>
+        <v>8.057974290923049</v>
       </c>
       <c r="C74" s="5">
         <f t="shared" si="13"/>
-        <v>10.179925906735752</v>
+        <v>10.492962617539817</v>
       </c>
       <c r="D74" s="5">
         <f t="shared" si="14"/>
-        <v>10.761287545576666</v>
+        <v>10.873463845710996</v>
       </c>
       <c r="E74" s="6">
         <f t="shared" si="15"/>
-        <v>10.455610420264822</v>
+        <v>10.508179504893493</v>
       </c>
       <c r="F74" s="6">
         <f t="shared" si="16"/>
-        <v>6.2924013409961681</v>
+        <v>6.2927012691570869</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -6193,23 +6193,23 @@
       </c>
       <c r="B75" s="4">
         <f t="shared" si="12"/>
-        <v>8.1686234120130496</v>
+        <v>8.1784142909230475</v>
       </c>
       <c r="C75" s="5">
         <f t="shared" si="13"/>
-        <v>10.334625906735752</v>
+        <v>10.651562617539819</v>
       </c>
       <c r="D75" s="5">
         <f t="shared" si="14"/>
-        <v>10.927487545576664</v>
+        <v>11.040763845710996</v>
       </c>
       <c r="E75" s="6">
         <f t="shared" si="15"/>
-        <v>10.626310420264824</v>
+        <v>10.678879504893494</v>
       </c>
       <c r="F75" s="6">
         <f t="shared" si="16"/>
-        <v>6.3864013409961693</v>
+        <v>6.3867012691570881</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -6219,23 +6219,23 @@
       </c>
       <c r="B76" s="4">
         <f t="shared" si="12"/>
-        <v>8.2890734120130496</v>
+        <v>8.2988542909230478</v>
       </c>
       <c r="C76" s="5">
         <f t="shared" si="13"/>
-        <v>10.489325906735752</v>
+        <v>10.810162617539818</v>
       </c>
       <c r="D76" s="5">
         <f t="shared" si="14"/>
-        <v>11.093687545576666</v>
+        <v>11.208063845710997</v>
       </c>
       <c r="E76" s="6">
         <f t="shared" si="15"/>
-        <v>10.797010420264824</v>
+        <v>10.849579504893493</v>
       </c>
       <c r="F76" s="6">
         <f t="shared" si="16"/>
-        <v>6.4804013409961696</v>
+        <v>6.4807012691570876</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -6245,23 +6245,23 @@
       </c>
       <c r="B77" s="4">
         <f t="shared" si="12"/>
-        <v>8.4095234120130495</v>
+        <v>8.4192942909230482</v>
       </c>
       <c r="C77" s="5">
         <f t="shared" si="13"/>
-        <v>10.644025906735754</v>
+        <v>10.968762617539818</v>
       </c>
       <c r="D77" s="5">
         <f t="shared" si="14"/>
-        <v>11.259887545576664</v>
+        <v>11.375363845710996</v>
       </c>
       <c r="E77" s="6">
         <f t="shared" si="15"/>
-        <v>10.967710420264822</v>
+        <v>11.020279504893493</v>
       </c>
       <c r="F77" s="6">
         <f t="shared" si="16"/>
-        <v>6.574401340996169</v>
+        <v>6.5747012691570879</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -6271,23 +6271,23 @@
       </c>
       <c r="B78" s="4">
         <f t="shared" si="12"/>
-        <v>8.5299734120130495</v>
+        <v>8.5397342909230467</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="13"/>
-        <v>10.798725906735754</v>
+        <v>11.127362617539818</v>
       </c>
       <c r="D78" s="5">
         <f t="shared" si="14"/>
-        <v>11.426087545576666</v>
+        <v>11.542663845710996</v>
       </c>
       <c r="E78" s="6">
         <f t="shared" si="15"/>
-        <v>11.138410420264824</v>
+        <v>11.190979504893495</v>
       </c>
       <c r="F78" s="6">
         <f t="shared" si="16"/>
-        <v>6.6684013409961684</v>
+        <v>6.6687012691570873</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -6297,23 +6297,23 @@
       </c>
       <c r="B79" s="4">
         <f t="shared" si="12"/>
-        <v>8.6504234120130494</v>
+        <v>8.660174290923047</v>
       </c>
       <c r="C79" s="5">
         <f t="shared" si="13"/>
-        <v>10.953425906735752</v>
+        <v>11.285962617539816</v>
       </c>
       <c r="D79" s="5">
         <f t="shared" si="14"/>
-        <v>11.592287545576664</v>
+        <v>11.709963845710995</v>
       </c>
       <c r="E79" s="6">
         <f t="shared" si="15"/>
-        <v>11.309110420264824</v>
+        <v>11.361679504893493</v>
       </c>
       <c r="F79" s="6">
         <f t="shared" si="16"/>
-        <v>6.7624013409961687</v>
+        <v>6.7627012691570876</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -6323,23 +6323,23 @@
       </c>
       <c r="B80" s="4">
         <f t="shared" si="12"/>
-        <v>8.7708734120130494</v>
+        <v>8.7806142909230473</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="13"/>
-        <v>11.108125906735753</v>
+        <v>11.444562617539818</v>
       </c>
       <c r="D80" s="5">
         <f t="shared" si="14"/>
-        <v>11.758487545576665</v>
+        <v>11.877263845710996</v>
       </c>
       <c r="E80" s="6">
         <f t="shared" si="15"/>
-        <v>11.479810420264823</v>
+        <v>11.532379504893493</v>
       </c>
       <c r="F80" s="6">
         <f t="shared" si="16"/>
-        <v>6.856401340996169</v>
+        <v>6.8567012691570879</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -6349,23 +6349,23 @@
       </c>
       <c r="B81" s="4">
         <f t="shared" si="12"/>
-        <v>8.8913234120130493</v>
+        <v>8.9010542909230477</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="13"/>
-        <v>11.262825906735753</v>
+        <v>11.603162617539818</v>
       </c>
       <c r="D81" s="5">
         <f t="shared" si="14"/>
-        <v>11.924687545576665</v>
+        <v>12.044563845710995</v>
       </c>
       <c r="E81" s="6">
         <f t="shared" si="15"/>
-        <v>11.650510420264823</v>
+        <v>11.703079504893491</v>
       </c>
       <c r="F81" s="6">
         <f t="shared" si="16"/>
-        <v>6.9504013409961694</v>
+        <v>6.9507012691570882</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -6375,23 +6375,23 @@
       </c>
       <c r="B82" s="4">
         <f t="shared" si="12"/>
-        <v>9.0117734120130493</v>
+        <v>9.021494290923048</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="13"/>
-        <v>11.417525906735753</v>
+        <v>11.761762617539819</v>
       </c>
       <c r="D82" s="5">
         <f t="shared" si="14"/>
-        <v>12.090887545576665</v>
+        <v>12.211863845710996</v>
       </c>
       <c r="E82" s="6">
         <f t="shared" si="15"/>
-        <v>11.821210420264824</v>
+        <v>11.873779504893493</v>
       </c>
       <c r="F82" s="6">
         <f t="shared" si="16"/>
-        <v>7.0444013409961688</v>
+        <v>7.0447012691570876</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -6401,23 +6401,23 @@
       </c>
       <c r="B83" s="4">
         <f t="shared" si="12"/>
-        <v>9.1322234120130492</v>
+        <v>9.1419342909230483</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="13"/>
-        <v>11.572225906735753</v>
+        <v>11.920362617539817</v>
       </c>
       <c r="D83" s="5">
         <f t="shared" si="14"/>
-        <v>12.257087545576665</v>
+        <v>12.379163845710996</v>
       </c>
       <c r="E83" s="6">
         <f t="shared" si="15"/>
-        <v>11.991910420264823</v>
+        <v>12.044479504893493</v>
       </c>
       <c r="F83" s="6">
         <f t="shared" si="16"/>
-        <v>7.1384013409961691</v>
+        <v>7.138701269157087</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -6427,23 +6427,23 @@
       </c>
       <c r="B84" s="4">
         <f t="shared" si="12"/>
-        <v>9.2526734120130492</v>
+        <v>9.2623742909230469</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="13"/>
-        <v>11.726925906735753</v>
+        <v>12.078962617539819</v>
       </c>
       <c r="D84" s="5">
         <f t="shared" si="14"/>
-        <v>12.423287545576665</v>
+        <v>12.546463845710996</v>
       </c>
       <c r="E84" s="6">
         <f t="shared" si="15"/>
-        <v>12.162610420264823</v>
+        <v>12.215179504893491</v>
       </c>
       <c r="F84" s="6">
         <f t="shared" si="16"/>
-        <v>7.2324013409961685</v>
+        <v>7.2327012691570873</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -6453,23 +6453,23 @@
       </c>
       <c r="B85" s="4">
         <f t="shared" si="12"/>
-        <v>9.3731234120130491</v>
+        <v>9.3828142909230472</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="13"/>
-        <v>11.881625906735753</v>
+        <v>12.237562617539817</v>
       </c>
       <c r="D85" s="5">
         <f t="shared" si="14"/>
-        <v>12.589487545576665</v>
+        <v>12.713763845710996</v>
       </c>
       <c r="E85" s="6">
         <f t="shared" si="15"/>
-        <v>12.333310420264825</v>
+        <v>12.385879504893493</v>
       </c>
       <c r="F85" s="6">
         <f t="shared" si="16"/>
-        <v>7.3264013409961697</v>
+        <v>7.3267012691570876</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -6479,23 +6479,23 @@
       </c>
       <c r="B86" s="4">
         <f t="shared" si="12"/>
-        <v>9.4935734120130491</v>
+        <v>9.5032542909230475</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="13"/>
-        <v>12.036325906735753</v>
+        <v>12.396162617539817</v>
       </c>
       <c r="D86" s="5">
         <f t="shared" si="14"/>
-        <v>12.755687545576663</v>
+        <v>12.881063845710996</v>
       </c>
       <c r="E86" s="6">
         <f t="shared" si="15"/>
-        <v>12.504010420264825</v>
+        <v>12.556579504893493</v>
       </c>
       <c r="F86" s="6">
         <f t="shared" si="16"/>
-        <v>7.4204013409961691</v>
+        <v>7.4207012691570879</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -6505,23 +6505,23 @@
       </c>
       <c r="B87" s="4">
         <f t="shared" si="12"/>
-        <v>9.614023412013049</v>
+        <v>9.6236942909230478</v>
       </c>
       <c r="C87" s="5">
         <f t="shared" si="13"/>
-        <v>12.191025906735753</v>
+        <v>12.554762617539819</v>
       </c>
       <c r="D87" s="5">
         <f t="shared" si="14"/>
-        <v>12.921887545576665</v>
+        <v>13.048363845710997</v>
       </c>
       <c r="E87" s="6">
         <f t="shared" si="15"/>
-        <v>12.674710420264823</v>
+        <v>12.727279504893493</v>
       </c>
       <c r="F87" s="6">
         <f t="shared" si="16"/>
-        <v>7.5144013409961694</v>
+        <v>7.5147012691570874</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -6531,23 +6531,23 @@
       </c>
       <c r="B88" s="4">
         <f t="shared" si="12"/>
-        <v>9.7344734120130489</v>
+        <v>9.7441342909230482</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="13"/>
-        <v>12.345725906735751</v>
+        <v>12.713362617539817</v>
       </c>
       <c r="D88" s="5">
         <f t="shared" si="14"/>
-        <v>13.088087545576663</v>
+        <v>13.215663845710997</v>
       </c>
       <c r="E88" s="6">
         <f t="shared" si="15"/>
-        <v>12.845410420264823</v>
+        <v>12.897979504893492</v>
       </c>
       <c r="F88" s="6">
         <f t="shared" si="16"/>
-        <v>7.6084013409961688</v>
+        <v>7.6087012691570877</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -6557,23 +6557,23 @@
       </c>
       <c r="B89" s="4">
         <f t="shared" si="12"/>
-        <v>9.8549234120130489</v>
+        <v>9.8645742909230485</v>
       </c>
       <c r="C89" s="5">
         <f t="shared" si="13"/>
-        <v>12.500425906735751</v>
+        <v>12.871962617539818</v>
       </c>
       <c r="D89" s="5">
         <f t="shared" si="14"/>
-        <v>13.254287545576664</v>
+        <v>13.382963845710997</v>
       </c>
       <c r="E89" s="6">
         <f t="shared" si="15"/>
-        <v>13.016110420264825</v>
+        <v>13.068679504893494</v>
       </c>
       <c r="F89" s="6">
         <f t="shared" si="16"/>
-        <v>7.7024013409961682</v>
+        <v>7.7027012691570871</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -6583,23 +6583,23 @@
       </c>
       <c r="B90" s="4">
         <f t="shared" si="12"/>
-        <v>9.9753734120130488</v>
+        <v>9.985014290923047</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="13"/>
-        <v>12.655125906735753</v>
+        <v>13.030562617539818</v>
       </c>
       <c r="D90" s="5">
         <f t="shared" si="14"/>
-        <v>13.420487545576664</v>
+        <v>13.550263845710997</v>
       </c>
       <c r="E90" s="6">
         <f t="shared" si="15"/>
-        <v>13.186810420264823</v>
+        <v>13.239379504893494</v>
       </c>
       <c r="F90" s="6">
         <f t="shared" si="16"/>
-        <v>7.7964013409961694</v>
+        <v>7.7967012691570883</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -6609,23 +6609,23 @@
       </c>
       <c r="B91" s="4">
         <f t="shared" si="12"/>
-        <v>10.095823412013049</v>
+        <v>10.105454290923047</v>
       </c>
       <c r="C91" s="5">
         <f t="shared" si="13"/>
-        <v>12.809825906735753</v>
+        <v>13.189162617539818</v>
       </c>
       <c r="D91" s="5">
         <f t="shared" si="14"/>
-        <v>13.586687545576664</v>
+        <v>13.717563845710995</v>
       </c>
       <c r="E91" s="6">
         <f t="shared" si="15"/>
-        <v>13.357510420264823</v>
+        <v>13.410079504893492</v>
       </c>
       <c r="F91" s="6">
         <f t="shared" si="16"/>
-        <v>7.8904013409961689</v>
+        <v>7.8907012691570877</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6635,23 +6635,23 @@
       </c>
       <c r="B92" s="4">
         <f t="shared" si="12"/>
-        <v>10.216273412013049</v>
+        <v>10.225894290923048</v>
       </c>
       <c r="C92" s="5">
         <f t="shared" si="13"/>
-        <v>12.964525906735753</v>
+        <v>13.347762617539818</v>
       </c>
       <c r="D92" s="5">
         <f t="shared" si="14"/>
-        <v>13.752887545576664</v>
+        <v>13.884863845710996</v>
       </c>
       <c r="E92" s="6">
         <f t="shared" si="15"/>
-        <v>13.528210420264822</v>
+        <v>13.580779504893492</v>
       </c>
       <c r="F92" s="6">
         <f t="shared" si="16"/>
-        <v>7.9844013409961692</v>
+        <v>7.984701269157088</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -6661,23 +6661,23 @@
       </c>
       <c r="B93" s="4">
         <f t="shared" si="12"/>
-        <v>10.33672341201305</v>
+        <v>10.346334290923048</v>
       </c>
       <c r="C93" s="5">
         <f t="shared" si="13"/>
-        <v>13.119225906735753</v>
+        <v>13.506362617539816</v>
       </c>
       <c r="D93" s="5">
         <f t="shared" si="14"/>
-        <v>13.919087545576666</v>
+        <v>14.052163845710995</v>
       </c>
       <c r="E93" s="6">
         <f t="shared" si="15"/>
-        <v>13.698910420264824</v>
+        <v>13.751479504893494</v>
       </c>
       <c r="F93" s="6">
         <f t="shared" si="16"/>
-        <v>8.0784013409961695</v>
+        <v>8.0787012691570865</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -6687,23 +6687,23 @@
       </c>
       <c r="B94" s="4">
         <f t="shared" si="12"/>
-        <v>10.457173412013049</v>
+        <v>10.466774290923047</v>
       </c>
       <c r="C94" s="5">
         <f t="shared" si="13"/>
-        <v>13.273925906735753</v>
+        <v>13.664962617539818</v>
       </c>
       <c r="D94" s="5">
         <f t="shared" si="14"/>
-        <v>14.085287545576664</v>
+        <v>14.219463845710996</v>
       </c>
       <c r="E94" s="6">
         <f t="shared" si="15"/>
-        <v>13.869610420264824</v>
+        <v>13.922179504893492</v>
       </c>
       <c r="F94" s="6">
         <f t="shared" si="16"/>
-        <v>8.1724013409961689</v>
+        <v>8.1727012691570877</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -6713,23 +6713,23 @@
       </c>
       <c r="B95" s="4">
         <f t="shared" si="12"/>
-        <v>10.577623412013049</v>
+        <v>10.587214290923049</v>
       </c>
       <c r="C95" s="5">
         <f t="shared" si="13"/>
-        <v>13.428625906735753</v>
+        <v>13.823562617539817</v>
       </c>
       <c r="D95" s="5">
         <f t="shared" si="14"/>
-        <v>14.251487545576666</v>
+        <v>14.386763845710995</v>
       </c>
       <c r="E95" s="6">
         <f t="shared" si="15"/>
-        <v>14.040310420264824</v>
+        <v>14.092879504893492</v>
       </c>
       <c r="F95" s="6">
         <f t="shared" si="16"/>
-        <v>8.2664013409961701</v>
+        <v>8.2667012691570889</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -6739,23 +6739,23 @@
       </c>
       <c r="B96" s="4">
         <f t="shared" si="12"/>
-        <v>10.69807341201305</v>
+        <v>10.707654290923047</v>
       </c>
       <c r="C96" s="5">
         <f t="shared" si="13"/>
-        <v>13.583325906735752</v>
+        <v>13.982162617539819</v>
       </c>
       <c r="D96" s="5">
         <f t="shared" si="14"/>
-        <v>14.417687545576664</v>
+        <v>14.554063845710996</v>
       </c>
       <c r="E96" s="6">
         <f t="shared" si="15"/>
-        <v>14.211010420264824</v>
+        <v>14.263579504893494</v>
       </c>
       <c r="F96" s="6">
         <f t="shared" si="16"/>
-        <v>8.3604013409961695</v>
+        <v>8.3607012691570883</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -6765,23 +6765,23 @@
       </c>
       <c r="B97" s="4">
         <f t="shared" si="12"/>
-        <v>10.818523412013048</v>
+        <v>10.828094290923048</v>
       </c>
       <c r="C97" s="5">
         <f t="shared" si="13"/>
-        <v>13.738025906735752</v>
+        <v>14.140762617539817</v>
       </c>
       <c r="D97" s="5">
         <f t="shared" si="14"/>
-        <v>14.583887545576665</v>
+        <v>14.721363845710997</v>
       </c>
       <c r="E97" s="6">
         <f t="shared" si="15"/>
-        <v>14.381710420264824</v>
+        <v>14.434279504893492</v>
       </c>
       <c r="F97" s="6">
         <f t="shared" si="16"/>
-        <v>8.4544013409961689</v>
+        <v>8.4547012691570878</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -6791,23 +6791,23 @@
       </c>
       <c r="B98" s="4">
         <f t="shared" si="12"/>
-        <v>10.938973412013048</v>
+        <v>10.948534290923048</v>
       </c>
       <c r="C98" s="5">
         <f t="shared" si="13"/>
-        <v>13.892725906735752</v>
+        <v>14.299362617539819</v>
       </c>
       <c r="D98" s="5">
         <f t="shared" si="14"/>
-        <v>14.750087545576664</v>
+        <v>14.888663845710996</v>
       </c>
       <c r="E98" s="6">
         <f t="shared" si="15"/>
-        <v>14.552410420264824</v>
+        <v>14.604979504893493</v>
       </c>
       <c r="F98" s="6">
         <f t="shared" si="16"/>
-        <v>8.5484013409961683</v>
+        <v>8.5487012691570872</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -6817,23 +6817,23 @@
       </c>
       <c r="B99" s="4">
         <f t="shared" si="12"/>
-        <v>11.05942341201305</v>
+        <v>11.068974290923046</v>
       </c>
       <c r="C99" s="5">
         <f t="shared" si="13"/>
-        <v>14.047425906735752</v>
+        <v>14.457962617539817</v>
       </c>
       <c r="D99" s="5">
         <f t="shared" si="14"/>
-        <v>14.916287545576665</v>
+        <v>15.055963845710997</v>
       </c>
       <c r="E99" s="6">
         <f t="shared" si="15"/>
-        <v>14.723110420264822</v>
+        <v>14.775679504893493</v>
       </c>
       <c r="F99" s="6">
         <f t="shared" si="16"/>
-        <v>8.6424013409961677</v>
+        <v>8.6427012691570866</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -6843,23 +6843,23 @@
       </c>
       <c r="B100" s="4">
         <f t="shared" si="12"/>
-        <v>11.179873412013048</v>
+        <v>11.189414290923049</v>
       </c>
       <c r="C100" s="5">
         <f t="shared" si="13"/>
-        <v>14.202125906735752</v>
+        <v>14.616562617539818</v>
       </c>
       <c r="D100" s="5">
         <f t="shared" si="14"/>
-        <v>15.082487545576663</v>
+        <v>15.223263845710996</v>
       </c>
       <c r="E100" s="6">
         <f t="shared" si="15"/>
-        <v>14.893810420264824</v>
+        <v>14.946379504893493</v>
       </c>
       <c r="F100" s="6">
         <f t="shared" si="16"/>
-        <v>8.7364013409961689</v>
+        <v>8.7367012691570878</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -6869,23 +6869,23 @@
       </c>
       <c r="B101" s="4">
         <f t="shared" si="12"/>
-        <v>11.30032341201305</v>
+        <v>11.309854290923047</v>
       </c>
       <c r="C101" s="5">
         <f t="shared" si="13"/>
-        <v>14.356825906735754</v>
+        <v>14.775162617539818</v>
       </c>
       <c r="D101" s="5">
         <f t="shared" si="14"/>
-        <v>15.248687545576665</v>
+        <v>15.390563845710997</v>
       </c>
       <c r="E101" s="6">
         <f t="shared" si="15"/>
-        <v>15.064510420264824</v>
+        <v>15.117079504893493</v>
       </c>
       <c r="F101" s="6">
         <f t="shared" si="16"/>
-        <v>8.8304013409961684</v>
+        <v>8.8307012691570872</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -6895,23 +6895,23 @@
       </c>
       <c r="B102" s="4">
         <f t="shared" si="12"/>
-        <v>11.42077341201305</v>
+        <v>11.430294290923047</v>
       </c>
       <c r="C102" s="5">
         <f t="shared" si="13"/>
-        <v>14.511525906735754</v>
+        <v>14.933762617539816</v>
       </c>
       <c r="D102" s="5">
         <f t="shared" si="14"/>
-        <v>15.414887545576665</v>
+        <v>15.557863845710997</v>
       </c>
       <c r="E102" s="6">
         <f t="shared" si="15"/>
-        <v>15.235210420264822</v>
+        <v>15.287779504893493</v>
       </c>
       <c r="F102" s="6">
         <f t="shared" si="16"/>
-        <v>8.9244013409961696</v>
+        <v>8.9247012691570884</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -6921,23 +6921,23 @@
       </c>
       <c r="B103" s="4">
         <f t="shared" si="12"/>
-        <v>11.541223412013048</v>
+        <v>11.550734290923049</v>
       </c>
       <c r="C103" s="5">
         <f t="shared" si="13"/>
-        <v>14.666225906735754</v>
+        <v>15.092362617539818</v>
       </c>
       <c r="D103" s="5">
         <f t="shared" si="14"/>
-        <v>15.581087545576665</v>
+        <v>15.725163845710995</v>
       </c>
       <c r="E103" s="6">
         <f t="shared" si="15"/>
-        <v>15.405910420264822</v>
+        <v>15.458479504893491</v>
       </c>
       <c r="F103" s="6">
         <f t="shared" si="16"/>
-        <v>9.018401340996169</v>
+        <v>9.0187012691570878</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -6947,23 +6947,23 @@
       </c>
       <c r="B104" s="4">
         <f t="shared" ref="B104:B107" si="18">(A104*C$3*B$3-D$3*N$3/3600*A$3)/100</f>
-        <v>11.66167341201305</v>
+        <v>11.671174290923048</v>
       </c>
       <c r="C104" s="5">
         <f t="shared" ref="C104:C107" si="19">(A104*E$3*B$3-F$3*N$3/3600*A$3)/100</f>
-        <v>14.820925906735754</v>
+        <v>15.250962617539818</v>
       </c>
       <c r="D104" s="5">
         <f t="shared" si="14"/>
-        <v>15.747287545576665</v>
+        <v>15.892463845710996</v>
       </c>
       <c r="E104" s="6">
         <f t="shared" si="15"/>
-        <v>15.576610420264824</v>
+        <v>15.629179504893493</v>
       </c>
       <c r="F104" s="6">
         <f t="shared" si="16"/>
-        <v>9.1124013409961684</v>
+        <v>9.1127012691570872</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -6973,23 +6973,23 @@
       </c>
       <c r="B105" s="4">
         <f t="shared" si="18"/>
-        <v>11.78212341201305</v>
+        <v>11.791614290923048</v>
       </c>
       <c r="C105" s="5">
         <f t="shared" si="19"/>
-        <v>14.975625906735752</v>
+        <v>15.409562617539818</v>
       </c>
       <c r="D105" s="5">
         <f t="shared" si="14"/>
-        <v>15.913487545576663</v>
+        <v>16.059763845710997</v>
       </c>
       <c r="E105" s="6">
         <f t="shared" si="15"/>
-        <v>15.747310420264823</v>
+        <v>15.799879504893493</v>
       </c>
       <c r="F105" s="6">
         <f t="shared" si="16"/>
-        <v>9.2064013409961696</v>
+        <v>9.2067012691570884</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -6999,23 +6999,23 @@
       </c>
       <c r="B106" s="4">
         <f t="shared" si="18"/>
-        <v>11.902573412013048</v>
+        <v>11.912054290923047</v>
       </c>
       <c r="C106" s="5">
         <f t="shared" si="19"/>
-        <v>15.130325906735752</v>
+        <v>15.568162617539818</v>
       </c>
       <c r="D106" s="5">
         <f t="shared" si="14"/>
-        <v>16.079687545576665</v>
+        <v>16.227063845710994</v>
       </c>
       <c r="E106" s="6">
         <f t="shared" si="15"/>
-        <v>15.918010420264823</v>
+        <v>15.970579504893491</v>
       </c>
       <c r="F106" s="6">
         <f t="shared" si="16"/>
-        <v>9.300401340996169</v>
+        <v>9.3007012691570878</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -7025,23 +7025,23 @@
       </c>
       <c r="B107" s="4">
         <f t="shared" si="18"/>
-        <v>12.02302341201305</v>
+        <v>12.032494290923047</v>
       </c>
       <c r="C107" s="5">
         <f t="shared" si="19"/>
-        <v>15.285025906735752</v>
+        <v>15.726762617539819</v>
       </c>
       <c r="D107" s="5">
         <f t="shared" si="14"/>
-        <v>16.245887545576664</v>
+        <v>16.394363845710995</v>
       </c>
       <c r="E107" s="6">
         <f t="shared" si="15"/>
-        <v>16.088710420264825</v>
+        <v>16.141279504893493</v>
       </c>
       <c r="F107" s="6">
         <f t="shared" si="16"/>
-        <v>9.3944013409961684</v>
+        <v>9.3947012691570873</v>
       </c>
     </row>
   </sheetData>
